--- a/Chapter2/Ch2 Results.xlsx
+++ b/Chapter2/Ch2 Results.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neilurquhart/Dropbox/bookWS/Chapter2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\Chapter2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE4D102-A2C3-D74E-BF66-D5C8F36765FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{609714E3-71EA-2E41-9B2A-BEC8E4FF6DE7}"/>
+    <workbookView xWindow="480" yWindow="2040" windowWidth="28035" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,238 +30,193 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
-  <si>
-    <t>Ch2 tests</t>
-  </si>
-  <si>
-    <t>./data/A-n32-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 784),./data/A-n32-k5.vrp,GTDist,1023.8992597852657,GTVehicles,5,CWDist,810.847015858496,CWVehicles,5,HCDist,1085.871203509422,HCVehicles,5,HCDist,985.9419391800428,HCVehicles,5,HCDist,957.0552193562664,HCVehicles,5,HCDist,1009.9744976093497,HCVehicles,5,HCDist,998.6907030151727,HCVehicles,5,HCDist,1000.8409447326446,HCVehicles,5,HCDist,1012.3709314778891,HCVehicles,5,HCDist,1020.4959442875444,HCVehicles,5,HCDist,1008.3350453741974,HCVehicles,5,HCDist,1158.7092521855807,HCVehicles,5,AVGHCDist,1023.828568072811,AVGHCVehicles,5.0,BestHCDist,957.0552193562664,BestHCVehicles,5,EADist,842.9747078461145,EAVehicles,5,EADist,846.59352092358,EAVehicles,5,EADist,822.7803851932182,EAVehicles,5,EADist,832.4508137052843,EAVehicles,5,EADist,885.8726198669254,EAVehicles,5,EADist,837.1243764944967,EAVehicles,5,EADist,904.5009072831441,EAVehicles,5,EADist,810.5735330729768,EAVehicles,5,EADist,883.1454529914658,EAVehicles,5,EADist,877.2712467128181,EAVehicles,5,AVGDist,854.3287564090024,AVGVehicles,5.0,BestDist,810.5735330729768,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/A-n33-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 661),./data/A-n33-k5.vrp,GTDist,777.8478132528762,GTVehicles,5,CWDist,712.0478209658986,CWVehicles,5,HCDist,854.7687679288069,HCVehicles,5,HCDist,860.0936204501071,HCVehicles,5,HCDist,954.4637326182485,HCVehicles,5,HCDist,832.7753749083664,HCVehicles,5,HCDist,876.7789949949687,HCVehicles,5,HCDist,937.1923709690899,HCVehicles,5,HCDist,785.6285448928946,HCVehicles,5,HCDist,718.8539537305039,HCVehicles,5,HCDist,862.3341188412,HCVehicles,5,HCDist,754.8328692431411,HCVehicles,5,AVGHCDist,843.7722348577327,AVGHCVehicles,5.0,BestHCDist,718.8539537305039,BestHCVehicles,5,EADist,727.9260350936552,EAVehicles,5,EADist,679.0652083442624,EAVehicles,5,EADist,676.7374588303518,EAVehicles,5,EADist,694.2385297949298,EAVehicles,5,EADist,688.1689704386595,EAVehicles,5,EADist,678.1648683398691,EAVehicles,5,EADist,688.5405686451289,EAVehicles,5,EADist,685.2536734151292,EAVehicles,5,EADist,676.104495538676,EAVehicles,5,EADist,754.8161391953431,EAVehicles,5,AVGDist,694.9015947636004,AVGVehicles,5.0,BestDist,676.104495538676,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/A-n33-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 742),./data/A-n33-k6.vrp,GTDist,880.5289155400267,GTVehicles,6,CWDist,776.2559893244659,CWVehicles,7,HCDist,960.4994253501288,HCVehicles,6,HCDist,926.2916602271857,HCVehicles,6,HCDist,996.3926729102892,HCVehicles,6,HCDist,884.8379738801041,HCVehicles,6,HCDist,934.5921180835529,HCVehicles,6,HCDist,842.0777082564433,HCVehicles,6,HCDist,906.5777793530499,HCVehicles,6,HCDist,853.7777191196421,HCVehicles,6,HCDist,847.993285179489,HCVehicles,6,HCDist,893.2227035606575,HCVehicles,6,AVGHCDist,904.6263045920543,AVGHCVehicles,6.0,BestHCDist,842.0777082564433,BestHCVehicles,6,EADist,766.6471465056612,EAVehicles,6,EADist,784.0826516753734,EAVehicles,6,EADist,749.5906228681142,EAVehicles,6,EADist,789.6623335110764,EAVehicles,6,EADist,788.1562121259791,EAVehicles,6,EADist,818.5746470846861,EAVehicles,6,EADist,745.4528645616484,EAVehicles,6,EADist,742.6932623609396,EAVehicles,6,EADist,754.6620690610849,EAVehicles,6,EADist,771.0715831305017,EAVehicles,6,AVGDist,771.0593392885065,AVGVehicles,6.0,BestDist,742.6932623609396,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/A-n34-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 778),./data/A-n34-k5.vrp,GTDist,971.662654012298,GTVehicles,6,CWDist,810.4113355896409,CWVehicles,6,HCDist,1018.6396447006904,HCVehicles,5,HCDist,936.3823197864907,HCVehicles,5,HCDist,961.4595423496426,HCVehicles,5,HCDist,1081.9799096397633,HCVehicles,5,HCDist,881.0241494469826,HCVehicles,5,HCDist,981.4855402113694,HCVehicles,5,HCDist,953.7333972797418,HCVehicles,5,HCDist,1007.3189885193129,HCVehicles,5,HCDist,989.6031280253371,HCVehicles,5,HCDist,957.312630009274,HCVehicles,5,AVGHCDist,976.8939249968604,AVGHCVehicles,5.0,BestHCDist,881.0241494469826,BestHCVehicles,5,EADist,792.1554169899242,EAVehicles,5,EADist,803.1543414961277,EAVehicles,5,EADist,818.7095804365022,EAVehicles,5,EADist,793.5752128629167,EAVehicles,5,EADist,877.8543730418633,EAVehicles,5,EADist,800.3808414355999,EAVehicles,5,EADist,828.4189066388991,EAVehicles,5,EADist,795.6707716666018,EAVehicles,5,EADist,846.8934908842973,EAVehicles,5,EADist,812.0568377049221,EAVehicles,5,AVGDist,816.8869773157654,AVGVehicles,5.0,BestDist,792.1554169899242,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/A-n36-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 799),./data/A-n36-k5.vrp,GTDist,975.5365885914277,GTVehicles,5,CWDist,834.3556306516167,CWVehicles,5,HCDist,961.2213105922737,HCVehicles,5,HCDist,954.0012533013626,HCVehicles,5,HCDist,1085.9528853960871,HCVehicles,5,HCDist,1027.601859360682,HCVehicles,5,HCDist,1087.2043404039584,HCVehicles,5,HCDist,1038.9444568121748,HCVehicles,5,HCDist,1131.2501462721823,HCVehicles,5,HCDist,970.5038995492248,HCVehicles,5,HCDist,1064.5759255922242,HCVehicles,5,HCDist,959.9740880384593,HCVehicles,5,AVGHCDist,1028.123016531863,AVGHCVehicles,5.0,BestHCDist,954.0012533013626,BestHCVehicles,5,EADist,893.3659752022522,EAVehicles,5,EADist,916.4846572540603,EAVehicles,5,EADist,878.2265180091397,EAVehicles,5,EADist,838.9536337085511,EAVehicles,5,EADist,859.2145322690757,EAVehicles,5,EADist,818.921453423593,EAVehicles,5,EADist,857.2585739961913,EAVehicles,5,EADist,880.6460762154082,EAVehicles,5,EADist,899.301096669505,EAVehicles,5,EADist,875.5146155330907,EAVehicles,5,AVGDist,871.7887132280866,AVGVehicles,5.0,BestDist,818.921453423593,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/A-n37-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 669),./data/A-n37-k5.vrp,GTDist,968.2097552898875,GTVehicles,5,CWDist,707.299783403054,CWVehicles,5,HCDist,776.6361328479869,HCVehicles,5,HCDist,843.6679337706271,HCVehicles,5,HCDist,854.0812059138188,HCVehicles,5,HCDist,849.4506061825437,HCVehicles,5,HCDist,772.6166673874097,HCVehicles,5,HCDist,876.247509614951,HCVehicles,5,HCDist,858.4000685998376,HCVehicles,5,HCDist,891.212902916421,HCVehicles,5,HCDist,909.7897726169987,HCVehicles,5,HCDist,806.2200592051582,HCVehicles,5,AVGHCDist,843.8322859055752,AVGHCVehicles,5.0,BestHCDist,772.6166673874097,BestHCVehicles,5,EADist,693.6055597046253,EAVehicles,5,EADist,703.6219348720558,EAVehicles,5,EADist,688.8568815414089,EAVehicles,5,EADist,729.0977948539894,EAVehicles,5,EADist,725.512583432558,EAVehicles,5,EADist,693.7313294136612,EAVehicles,5,EADist,728.985220837345,EAVehicles,5,EADist,723.7827143248494,EAVehicles,5,EADist,769.262403474869,EAVehicles,5,EADist,726.3654172440865,EAVehicles,5,AVGDist,718.2821839699449,AVGVehicles,5.0,BestDist,688.8568815414089,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/A-n37-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 949),./data/A-n37-k6.vrp,GTDist,1227.8706098534215,GTVehicles,7,CWDist,976.6063660256659,CWVehicles,6,HCDist,1182.1038621580137,HCVehicles,7,HCDist,1114.0758316871706,HCVehicles,6,HCDist,1094.913624991681,HCVehicles,7,HCDist,1005.2866497833191,HCVehicles,6,HCDist,1113.0831332337941,HCVehicles,6,HCDist,1149.4198879156197,HCVehicles,6,HCDist,1131.3333940133969,HCVehicles,6,HCDist,1213.5784115037072,HCVehicles,6,HCDist,1133.3521138207443,HCVehicles,7,HCDist,1096.3543650364525,HCVehicles,6,AVGHCDist,1123.3501274143898,AVGHCVehicles,6.3,BestHCDist,1005.2866497833191,BestHCVehicles,6,EADist,999.4515667413457,EAVehicles,6,EADist,1007.3161598086608,EAVehicles,6,EADist,1046.662351928767,EAVehicles,6,EADist,1046.7777063053277,EAVehicles,6,EADist,1036.9092710344012,EAVehicles,6,EADist,995.3769747284399,EAVehicles,7,EADist,1018.4336908048683,EAVehicles,6,EADist,1038.0614112307119,EAVehicles,6,EADist,1019.0260678422463,EAVehicles,6,EADist,1031.7509364302919,EAVehicles,6,AVGDist,1023.976613685506,AVGVehicles,6.1,BestDist,995.3769747284399,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/A-n38-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 730),./data/A-n38-k5.vrp,GTDist,966.0795295919803,GTVehicles,6,CWDist,772.9437332351712,CWVehicles,6,HCDist,926.8070664766658,HCVehicles,6,HCDist,1080.519607211732,HCVehicles,6,HCDist,1068.0791562554873,HCVehicles,5,HCDist,932.62159506734,HCVehicles,5,HCDist,1133.6000199695911,HCVehicles,5,HCDist,973.8305185952951,HCVehicles,5,HCDist,921.2354308950635,HCVehicles,5,HCDist,1155.7513383422945,HCVehicles,5,HCDist,1001.3857865396338,HCVehicles,5,HCDist,913.7507269543812,HCVehicles,5,AVGHCDist,1010.7581246307484,AVGHCVehicles,5.2,BestHCDist,913.7507269543812,BestHCVehicles,5,EADist,813.439452910908,EAVehicles,5,EADist,754.5466622823014,EAVehicles,5,EADist,751.6436485322841,EAVehicles,5,EADist,778.2335806858607,EAVehicles,5,EADist,799.7809621475218,EAVehicles,5,EADist,805.7854601847223,EAVehicles,5,EADist,780.4227813914497,EAVehicles,5,EADist,763.9089152482873,EAVehicles,5,EADist,753.9781309745351,EAVehicles,5,EADist,815.2131904017593,EAVehicles,5,AVGDist,781.695278475963,AVGVehicles,5.0,BestDist,751.6436485322841,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/A-n39-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 822),./data/A-n39-k5.vrp,GTDist,1061.9805079742105,GTVehicles,5,CWDist,894.7454738121884,CWVehicles,5,HCDist,1033.5297763339595,HCVehicles,5,HCDist,1021.5020830868301,HCVehicles,5,HCDist,920.0402855915361,HCVehicles,5,HCDist,991.3080377041753,HCVehicles,6,HCDist,1044.2429013069911,HCVehicles,5,HCDist,1055.024717395719,HCVehicles,5,HCDist,1012.2489382498002,HCVehicles,5,HCDist,1098.6439479508958,HCVehicles,5,HCDist,1100.5498173390172,HCVehicles,5,HCDist,998.113728660169,HCVehicles,5,AVGHCDist,1027.5204233619093,AVGHCVehicles,5.1,BestHCDist,920.0402855915361,BestHCVehicles,5,EADist,931.2623946128105,EAVehicles,5,EADist,891.3749023366283,EAVehicles,5,EADist,915.0812917253074,EAVehicles,5,EADist,900.9383427131422,EAVehicles,5,EADist,941.8774345576613,EAVehicles,5,EADist,858.6438978962029,EAVehicles,5,EADist,957.5921012185545,EAVehicles,5,EADist,908.345211422608,EAVehicles,5,EADist,908.6767290343099,EAVehicles,5,EADist,888.6097874291628,EAVehicles,5,AVGDist,910.2402092946388,AVGVehicles,5.0,BestDist,858.6438978962029,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/A-n39-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 831),./data/A-n39-k6.vrp,GTDist,1055.1501190546005,GTVehicles,6,CWDist,880.2954659661681,CWVehicles,6,HCDist,1027.0097554848358,HCVehicles,6,HCDist,913.4579890276589,HCVehicles,6,HCDist,1035.9278594915068,HCVehicles,6,HCDist,1101.417353625587,HCVehicles,6,HCDist,1006.6992505075084,HCVehicles,6,HCDist,927.9605568014456,HCVehicles,6,HCDist,1040.9242220923234,HCVehicles,6,HCDist,975.1820535125505,HCVehicles,6,HCDist,1073.3355672455732,HCVehicles,6,HCDist,1153.3320553737726,HCVehicles,6,AVGHCDist,1025.5246663162761,AVGHCVehicles,6.0,BestHCDist,913.4579890276589,BestHCVehicles,6,EADist,897.4934200633418,EAVehicles,6,EADist,864.1750965873176,EAVehicles,6,EADist,854.3075939083864,EAVehicles,6,EADist,855.0953169773328,EAVehicles,6,EADist,905.9820650116026,EAVehicles,6,EADist,913.9537765569672,EAVehicles,6,EADist,863.3528572332334,EAVehicles,6,EADist,933.3836883340084,EAVehicles,6,EADist,879.8138034337358,EAVehicles,6,EADist,932.2806080967439,EAVehicles,6,AVGDist,889.983822620267,AVGVehicles,6.0,BestDist,854.3075939083864,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/A-n44-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 937),./data/A-n44-k7.vrp,GTDist,1085.7042979574433,GTVehicles,6,CWDist,976.0377357769954,CWVehicles,7,HCDist,1148.451799850452,HCVehicles,6,HCDist,1252.637981794102,HCVehicles,6,HCDist,1203.0931260263267,HCVehicles,6,HCDist,1279.8742615734209,HCVehicles,6,HCDist,1298.2745903808263,HCVehicles,6,HCDist,1151.100970647309,HCVehicles,6,HCDist,1156.1047251791879,HCVehicles,6,HCDist,1251.2986754474096,HCVehicles,6,HCDist,1343.2351371904326,HCVehicles,6,HCDist,1144.8742270925948,HCVehicles,6,AVGHCDist,1222.894549518206,AVGHCVehicles,6.0,BestHCDist,1144.8742270925948,BestHCVehicles,6,EADist,1051.5147029292648,EAVehicles,6,EADist,1026.6982010468441,EAVehicles,6,EADist,1102.332874299707,EAVehicles,6,EADist,1032.5920068768678,EAVehicles,6,EADist,1118.4644367300568,EAVehicles,6,EADist,1097.7381631318185,EAVehicles,6,EADist,1038.4754284461408,EAVehicles,6,EADist,1108.3657532598704,EAVehicles,6,EADist,994.613893109668,EAVehicles,6,EADist,1008.7679872594545,EAVehicles,6,AVGDist,1057.9563447089693,AVGVehicles,6.0,BestDist,994.613893109668,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/A-n45-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 944),./data/A-n45-k6.vrp,GTDist,1160.687832099755,GTVehicles,7,CWDist,1013.282571247807,CWVehicles,7,HCDist,1221.2442029591846,HCVehicles,7,HCDist,1385.315029150368,HCVehicles,6,HCDist,1374.62145352251,HCVehicles,7,HCDist,1349.0043652704487,HCVehicles,7,HCDist,1186.0569149113433,HCVehicles,6,HCDist,1350.510501452256,HCVehicles,7,HCDist,1458.6396742264926,HCVehicles,7,HCDist,1388.29753888638,HCVehicles,6,HCDist,1210.8460066083012,HCVehicles,7,HCDist,1186.7388237056489,HCVehicles,7,AVGHCDist,1311.1274510692933,AVGHCVehicles,6.7,BestHCDist,1186.0569149113433,BestHCVehicles,6,EADist,1054.1646315116684,EAVehicles,7,EADist,1097.1217120997353,EAVehicles,7,EADist,1052.0959910281179,EAVehicles,7,EADist,1019.6052531113615,EAVehicles,6,EADist,1071.5826258749255,EAVehicles,7,EADist,1148.7322976497787,EAVehicles,7,EADist,1060.1858228932795,EAVehicles,7,EADist,1044.7613683251716,EAVehicles,7,EADist,1160.5191130591372,EAVehicles,6,EADist,1227.418770840536,EAVehicles,7,AVGDist,1093.6187586393712,AVGVehicles,6.8,BestDist,1019.6052531113615,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/A-n45-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Best value: 1146),./data/A-n45-k7.vrp,GTDist,1432.0570724998893,GTVehicles,7,CWDist,1199.9759634376967,CWVehicles,7,HCDist,1389.212400302512,HCVehicles,7,HCDist,1397.403303381387,HCVehicles,7,HCDist,1390.8974374587826,HCVehicles,7,HCDist,1257.1918180602904,HCVehicles,7,HCDist,1377.3792211021998,HCVehicles,7,HCDist,1327.337546204285,HCVehicles,7,HCDist,1330.0142105084408,HCVehicles,7,HCDist,1420.317397495156,HCVehicles,7,HCDist,1401.8916871359684,HCVehicles,7,HCDist,1559.1153716813683,HCVehicles,7,AVGHCDist,1385.076039333039,AVGHCVehicles,7.0,BestHCDist,1257.1918180602904,BestHCVehicles,7,EADist,1286.0274361548913,EAVehicles,6,EADist,1233.9472993469255,EAVehicles,7,EADist,1257.9975860234235,EAVehicles,7,EADist,1214.7612261591132,EAVehicles,7,EADist,1174.257221844148,EAVehicles,7,EADist,1261.3022762567578,EAVehicles,7,EADist,1202.1659704569997,EAVehicles,7,EADist,1200.0154393407267,EAVehicles,7,EADist,1215.947844929816,EAVehicles,7,EADist,1261.5145300475356,EAVehicles,7,AVGDist,1230.7936830560338,AVGVehicles,6.9,BestDist,1174.257221844148,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/A-n46-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 914),./data/A-n46-k7.vrp,GTDist,1159.091158776641,GTVehicles,7,CWDist,939.743541865779,CWVehicles,7,HCDist,1351.4001741556256,HCVehicles,7,HCDist,1386.3333346060233,HCVehicles,7,HCDist,1362.4024539073591,HCVehicles,7,HCDist,1335.5295474448615,HCVehicles,7,HCDist,1316.7901955947946,HCVehicles,7,HCDist,1212.6713486967155,HCVehicles,7,HCDist,1157.2190329456391,HCVehicles,7,HCDist,1088.4150301691125,HCVehicles,7,HCDist,1124.8201424023819,HCVehicles,7,HCDist,1117.495530348604,HCVehicles,7,AVGHCDist,1245.3076790271118,AVGHCVehicles,7.0,BestHCDist,1088.4150301691125,BestHCVehicles,7,EADist,1113.6799180514377,EAVehicles,7,EADist,1053.4829869362695,EAVehicles,7,EADist,1157.3307655762608,EAVehicles,7,EADist,1054.0650534424692,EAVehicles,7,EADist,1063.0222828143287,EAVehicles,7,EADist,1072.1691548597598,EAVehicles,7,EADist,1028.5577750451434,EAVehicles,7,EADist,1063.3770110383873,EAVehicles,7,EADist,983.5639045292487,EAVehicles,7,EADist,1090.891967659569,EAVehicles,7,AVGDist,1068.0140819952874,AVGVehicles,7.0,BestDist,983.5639045292487,BestVehicles,7</t>
-  </si>
-  <si>
-    <t>./data/A-n48-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Best value: 1073),./data/A-n48-k7.vrp,GTDist,1293.1519996962006,GTVehicles,7,CWDist,1112.8222669377485,CWVehicles,7,HCDist,1379.98723008529,HCVehicles,7,HCDist,1487.0138823753182,HCVehicles,7,HCDist,1389.4008360169712,HCVehicles,7,HCDist,1562.316708858577,HCVehicles,7,HCDist,1435.4317182385603,HCVehicles,7,HCDist,1487.7880819632235,HCVehicles,7,HCDist,1384.324275351813,HCVehicles,7,HCDist,1543.0940316526987,HCVehicles,7,HCDist,1354.8154436189734,HCVehicles,7,HCDist,1534.7609424987274,HCVehicles,7,AVGHCDist,1455.8933150660152,AVGHCVehicles,7.0,BestHCDist,1354.8154436189734,BestHCVehicles,7,EADist,1180.3564271333187,EAVehicles,7,EADist,1230.9111066152661,EAVehicles,7,EADist,1216.204594697102,EAVehicles,7,EADist,1191.0531404321655,EAVehicles,7,EADist,1221.6319599227031,EAVehicles,7,EADist,1271.6353941160578,EAVehicles,7,EADist,1280.1435789786506,EAVehicles,7,EADist,1188.002389185981,EAVehicles,7,EADist,1256.452596238879,EAVehicles,7,EADist,1240.219707919746,EAVehicles,7,AVGDist,1227.6610895239871,AVGVehicles,7.0,BestDist,1180.3564271333187,BestVehicles,7</t>
-  </si>
-  <si>
-    <t>./data/A-n53-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 1010),./data/A-n53-k7.vrp,GTDist,1208.4201840345177,GTVehicles,8,CWDist,1097.5827233091989,CWVehicles,8,HCDist,1321.9669354200728,HCVehicles,7,HCDist,1341.7417688954617,HCVehicles,7,HCDist,1533.820921695314,HCVehicles,7,HCDist,1320.8870445729856,HCVehicles,7,HCDist,1224.9770986170827,HCVehicles,7,HCDist,1276.4056390668923,HCVehicles,7,HCDist,1270.1675296165577,HCVehicles,7,HCDist,1428.6692883035935,HCVehicles,7,HCDist,1406.9009022508098,HCVehicles,7,HCDist,1576.8210178928425,HCVehicles,8,AVGHCDist,1370.2358146331612,AVGHCVehicles,7.1,BestHCDist,1224.9770986170827,BestHCVehicles,7,EADist,1159.42532751091,EAVehicles,7,EADist,1128.9899079975216,EAVehicles,7,EADist,1171.6208966622971,EAVehicles,7,EADist,1139.195188192427,EAVehicles,7,EADist,1110.1039475713346,EAVehicles,7,EADist,1173.7439861354349,EAVehicles,7,EADist,1187.9646782895545,EAVehicles,7,EADist,1086.163488502882,EAVehicles,7,EADist,1177.2448565293207,EAVehicles,7,EADist,1188.8029969265058,EAVehicles,7,AVGDist,1152.325527431819,AVGVehicles,7.0,BestDist,1086.163488502882,BestVehicles,7</t>
-  </si>
-  <si>
-    <t>./data/A-n54-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Best value: 1167),./data/A-n54-k7.vrp,GTDist,1694.1290569960127,GTVehicles,8,CWDist,1204.2544703921958,CWVehicles,7,HCDist,1574.3473139097312,HCVehicles,7,HCDist,1570.5433389710365,HCVehicles,7,HCDist,1529.0639745337883,HCVehicles,7,HCDist,1499.1570348393861,HCVehicles,7,HCDist,1566.3279065571069,HCVehicles,7,HCDist,1437.015556702628,HCVehicles,7,HCDist,1621.8621084252259,HCVehicles,7,HCDist,1467.8465581274531,HCVehicles,7,HCDist,1554.6337273886006,HCVehicles,7,HCDist,1544.108161794567,HCVehicles,7,AVGHCDist,1536.4905681249525,AVGHCVehicles,7.0,BestHCDist,1437.015556702628,BestHCVehicles,7,EADist,1311.1881685341025,EAVehicles,7,EADist,1389.2366042215347,EAVehicles,7,EADist,1397.2185823052432,EAVehicles,7,EADist,1333.4251786418163,EAVehicles,7,EADist,1351.1782410422898,EAVehicles,7,EADist,1396.1038711187052,EAVehicles,7,EADist,1393.3376437683569,EAVehicles,7,EADist,1350.665498312881,EAVehicles,7,EADist,1279.3922109653402,EAVehicles,7,EADist,1321.668966229933,EAVehicles,7,AVGDist,1352.34149651402,AVGVehicles,7.0,BestDist,1279.3922109653402,BestVehicles,7</t>
-  </si>
-  <si>
-    <t>./data/A-n55-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Optimal value: 1073),./data/A-n55-k9.vrp,GTDist,1359.2159614468967,GTVehicles,10,CWDist,1110.5677124418658,CWVehicles,9,HCDist,1267.5025938039412,HCVehicles,9,HCDist,1462.5764081195825,HCVehicles,9,HCDist,1441.1168433020707,HCVehicles,9,HCDist,1482.617374650287,HCVehicles,9,HCDist,1303.208898148727,HCVehicles,9,HCDist,1490.4620163478755,HCVehicles,9,HCDist,1444.9829933737883,HCVehicles,9,HCDist,1460.7496012229772,HCVehicles,9,HCDist,1452.075488317778,HCVehicles,9,HCDist,1414.0363082056024,HCVehicles,9,AVGHCDist,1421.932852549263,AVGHCVehicles,9.0,BestHCDist,1267.5025938039412,BestHCVehicles,9,EADist,1197.829914712529,EAVehicles,9,EADist,1199.3746599364918,EAVehicles,9,EADist,1194.3249487258574,EAVehicles,9,EADist,1243.804389175849,EAVehicles,9,EADist,1166.595772937558,EAVehicles,9,EADist,1204.5703814508568,EAVehicles,9,EADist,1184.4613437862777,EAVehicles,9,EADist,1199.5893387576261,EAVehicles,9,EADist,1165.9589874117532,EAVehicles,9,EADist,1217.5941441613363,EAVehicles,9,AVGDist,1197.4103881056135,AVGVehicles,9.0,BestDist,1165.9589874117532,BestVehicles,9</t>
-  </si>
-  <si>
-    <t>./data/A-n60-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1408),./data/A-n60-k9.vrp,GTDist,1612.3417744458004,GTVehicles,10,CWDist,1399.8911070503152,CWVehicles,9,HCDist,1801.004527694153,HCVehicles,9,HCDist,1797.2100791648636,HCVehicles,9,HCDist,1826.755595213367,HCVehicles,9,HCDist,1671.123285005848,HCVehicles,9,HCDist,1690.4155796732798,HCVehicles,9,HCDist,1729.7963246894121,HCVehicles,9,HCDist,1664.6768345867968,HCVehicles,9,HCDist,1841.7177001075472,HCVehicles,9,HCDist,1863.8390802704957,HCVehicles,9,HCDist,1779.2569800437723,HCVehicles,9,AVGHCDist,1766.5795986449534,AVGHCVehicles,9.0,BestHCDist,1664.6768345867968,BestHCVehicles,9,EADist,1563.4287127273656,EAVehicles,9,EADist,1582.2817949228177,EAVehicles,9,EADist,1647.1355674988188,EAVehicles,9,EADist,1642.3390714252723,EAVehicles,9,EADist,1628.0274791526872,EAVehicles,9,EADist,1583.7693576641605,EAVehicles,9,EADist,1641.029608145011,EAVehicles,9,EADist,1535.8342511302649,EAVehicles,9,EADist,1502.6944146247636,EAVehicles,9,EADist,1511.6903477345597,EAVehicles,9,AVGDist,1583.8230605025724,AVGVehicles,9.0,BestDist,1502.6944146247636,BestVehicles,9</t>
-  </si>
-  <si>
-    <t>./data/A-n61-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1035),./data/A-n61-k9.vrp,GTDist,1250.013643993661,GTVehicles,10,CWDist,1108.2819519138,CWVehicles,10,HCDist,1402.2248487942175,HCVehicles,10,HCDist,1399.5545620879977,HCVehicles,10,HCDist,1264.9842457749153,HCVehicles,10,HCDist,1527.3098431866295,HCVehicles,9,HCDist,1397.1108817776187,HCVehicles,10,HCDist,1295.2541373122401,HCVehicles,10,HCDist,1410.4249572838235,HCVehicles,10,HCDist,1311.7140582989186,HCVehicles,10,HCDist,1351.3459113830493,HCVehicles,10,HCDist,1488.9455609277281,HCVehicles,10,AVGHCDist,1384.8869006827138,AVGHCVehicles,9.9,BestHCDist,1264.9842457749153,BestHCVehicles,9,EADist,1109.5582996139196,EAVehicles,9,EADist,1152.1526368952327,EAVehicles,9,EADist,1312.2839386691928,EAVehicles,9,EADist,1140.0476919477546,EAVehicles,9,EADist,1156.5273780391892,EAVehicles,9,EADist,1141.3947640016092,EAVehicles,9,EADist,1142.4905405442087,EAVehicles,9,EADist,1194.604989182591,EAVehicles,9,EADist,1177.814574768694,EAVehicles,9,EADist,1174.6081990664075,EAVehicles,9,AVGDist,1170.14830127288,AVGVehicles,9.0,BestDist,1109.5582996139196,BestVehicles,9</t>
-  </si>
-  <si>
-    <t>./data/A-n62-k8.vrp,COMMENT : (Augerat et al, Min no of trucks: 8, Best value: 1290),./data/A-n62-k8.vrp,GTDist,1597.8247827279204,GTVehicles,8,CWDist,1352.8113271760067,CWVehicles,8,HCDist,1671.2900037025122,HCVehicles,8,HCDist,1818.8442349830634,HCVehicles,8,HCDist,1772.8842144226205,HCVehicles,8,HCDist,1644.4116509182877,HCVehicles,8,HCDist,1603.5153635109143,HCVehicles,8,HCDist,1802.3486527451298,HCVehicles,8,HCDist,1736.27386836028,HCVehicles,8,HCDist,1602.8276206776877,HCVehicles,8,HCDist,1658.2453064560998,HCVehicles,8,HCDist,1757.4738222363023,HCVehicles,8,AVGHCDist,1706.8114738012896,AVGHCVehicles,8.0,BestHCDist,1602.8276206776877,BestHCVehicles,8,EADist,1570.000805431834,EAVehicles,8,EADist,1652.5987959295699,EAVehicles,8,EADist,1487.2211440550743,EAVehicles,8,EADist,1448.1184118493743,EAVehicles,8,EADist,1575.3968650582485,EAVehicles,8,EADist,1502.0240046555125,EAVehicles,8,EADist,1528.7088851483295,EAVehicles,8,EADist,1439.057571058288,EAVehicles,8,EADist,1428.9088753524418,EAVehicles,8,EADist,1560.670892454674,EAVehicles,8,AVGDist,1519.2706250993347,AVGVehicles,8.0,BestDist,1428.9088753524418,BestVehicles,8</t>
-  </si>
-  <si>
-    <t>./data/A-n63-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1634),./data/A-n63-k9.vrp,GTDist,2017.37803160544,GTVehicles,10,CWDist,1687.9633015172542,CWVehicles,10,HCDist,2371.384803091964,HCVehicles,9,HCDist,2084.974420497702,HCVehicles,10,HCDist,2215.295934155258,HCVehicles,9,HCDist,2093.814160932833,HCVehicles,9,HCDist,1930.7918253063851,HCVehicles,9,HCDist,2263.2606486225463,HCVehicles,9,HCDist,2045.908331135909,HCVehicles,10,HCDist,2027.0607162078693,HCVehicles,9,HCDist,1999.9041771136604,HCVehicles,9,HCDist,2032.9843933069594,HCVehicles,9,AVGHCDist,2106.537941037109,AVGHCVehicles,9.2,BestHCDist,1930.7918253063851,BestHCVehicles,9,EADist,1887.2191299533936,EAVehicles,9,EADist,1972.7683522129003,EAVehicles,9,EADist,1921.4589104765469,EAVehicles,9,EADist,1873.3026739517243,EAVehicles,9,EADist,1951.3444523940018,EAVehicles,9,EADist,1943.9835246555192,EAVehicles,9,EADist,1886.1368327378318,EAVehicles,9,EADist,1870.009387825264,EAVehicles,9,EADist,1883.5075599663983,EAVehicles,10,EADist,1922.6275156150625,EAVehicles,9,AVGDist,1911.2358339788643,AVGVehicles,9.1,BestDist,1870.009387825264,BestVehicles,9</t>
-  </si>
-  <si>
-    <t>./data/A-n63-k10.vrp,COMMENT : (Augerat et al, Min no of trucks: 10, Best value: 1315),./data/A-n63-k10.vrp,GTDist,1524.7742098093065,GTVehicles,10,CWDist,1377.865702753665,CWVehicles,10,HCDist,1607.5079075541566,HCVehicles,10,HCDist,1697.7451657993395,HCVehicles,10,HCDist,1710.9737379702608,HCVehicles,10,HCDist,1635.8290954804836,HCVehicles,10,HCDist,1633.8430030643246,HCVehicles,10,HCDist,1578.9147397770994,HCVehicles,10,HCDist,1773.0536230588086,HCVehicles,10,HCDist,1724.341599406842,HCVehicles,10,HCDist,1637.5463813089368,HCVehicles,10,HCDist,1675.776336978829,HCVehicles,10,AVGHCDist,1667.5531590399082,AVGHCVehicles,10.0,BestHCDist,1578.9147397770994,BestHCVehicles,10,EADist,1528.3421907823413,EAVehicles,10,EADist,1479.127088965778,EAVehicles,10,EADist,1579.6860053485511,EAVehicles,10,EADist,1575.6204711045934,EAVehicles,10,EADist,1581.6179215737243,EAVehicles,10,EADist,1571.09390805965,EAVehicles,10,EADist,1472.380922090972,EAVehicles,11,EADist,1539.3394194101445,EAVehicles,10,EADist,1471.347997800265,EAVehicles,10,EADist,1507.4029220158786,EAVehicles,10,AVGDist,1530.5958847151899,AVGVehicles,10.1,BestDist,1471.347997800265,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/A-n64-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1402),./data/A-n64-k9.vrp,GTDist,1685.172719517292,GTVehicles,10,CWDist,1468.897764271425,CWVehicles,10,HCDist,1798.146743772707,HCVehicles,9,HCDist,1836.0560976450547,HCVehicles,9,HCDist,1649.8488203629117,HCVehicles,9,HCDist,1680.9117858009008,HCVehicles,9,HCDist,1893.1676243529596,HCVehicles,9,HCDist,1700.5396842189489,HCVehicles,9,HCDist,1921.1462926814208,HCVehicles,9,HCDist,1811.7001011655282,HCVehicles,10,HCDist,1656.258557649183,HCVehicles,9,HCDist,1627.1012930565819,HCVehicles,9,AVGHCDist,1757.4877000706197,AVGHCVehicles,9.1,BestHCDist,1627.1012930565819,BestHCVehicles,9,EADist,1563.0433959203438,EAVehicles,9,EADist,1536.0436620304095,EAVehicles,9,EADist,1569.252975311604,EAVehicles,9,EADist,1601.3593046794208,EAVehicles,9,EADist,1630.4426096581585,EAVehicles,9,EADist,1518.7917950596495,EAVehicles,9,EADist,1584.1032477219965,EAVehicles,9,EADist,1669.509005683877,EAVehicles,9,EADist,1618.3069648578635,EAVehicles,9,EADist,1655.4659850220546,EAVehicles,9,AVGDist,1594.6318945945377,AVGVehicles,9.0,BestDist,1518.7917950596495,BestVehicles,9</t>
-  </si>
-  <si>
-    <t>./data/A-n65-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1177),./data/A-n65-k9.vrp,GTDist,1428.0329305057262,GTVehicles,10,CWDist,1245.350111054426,CWVehicles,10,HCDist,1666.2489439614885,HCVehicles,10,HCDist,1685.5983002367057,HCVehicles,10,HCDist,1602.9118704798298,HCVehicles,10,HCDist,1745.4773888474865,HCVehicles,10,HCDist,1616.811730008293,HCVehicles,10,HCDist,1937.0040335328065,HCVehicles,9,HCDist,1590.6322501332102,HCVehicles,10,HCDist,1578.13046357942,HCVehicles,10,HCDist,1702.1595096032536,HCVehicles,10,HCDist,1651.1461051607328,HCVehicles,9,AVGHCDist,1677.6120595543227,AVGHCVehicles,9.8,BestHCDist,1578.13046357942,BestHCVehicles,9,EADist,1339.5589713888646,EAVehicles,9,EADist,1295.6699256701693,EAVehicles,9,EADist,1352.5421310258425,EAVehicles,9,EADist,1359.89149566738,EAVehicles,9,EADist,1355.0443217527882,EAVehicles,9,EADist,1312.6083510414637,EAVehicles,9,EADist,1540.0623591255332,EAVehicles,9,EADist,1416.4965335868567,EAVehicles,9,EADist,1478.6566063777063,EAVehicles,9,EADist,1346.6458030549195,EAVehicles,9,AVGDist,1379.7176498691524,AVGVehicles,9.0,BestDist,1295.6699256701693,BestVehicles,9</t>
-  </si>
-  <si>
-    <t>./data/A-n69-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1168),./data/A-n69-k9.vrp,GTDist,1394.7771150094134,GTVehicles,9,CWDist,1222.3233529356164,CWVehicles,9,HCDist,1514.6692901355045,HCVehicles,9,HCDist,1566.152519919262,HCVehicles,9,HCDist,1531.5262342544904,HCVehicles,9,HCDist,1501.992711661108,HCVehicles,9,HCDist,1535.1354500710922,HCVehicles,9,HCDist,1547.0178739547462,HCVehicles,9,HCDist,1578.133437926615,HCVehicles,9,HCDist,1427.4021109653686,HCVehicles,9,HCDist,1524.6581529507152,HCVehicles,9,HCDist,1484.6987240751048,HCVehicles,9,AVGHCDist,1521.1386505914006,AVGHCVehicles,9.0,BestHCDist,1427.4021109653686,BestHCVehicles,9,EADist,1316.515531675242,EAVehicles,9,EADist,1359.619382454809,EAVehicles,9,EADist,1302.0921781786988,EAVehicles,9,EADist,1341.2018409003072,EAVehicles,9,EADist,1392.9136041462293,EAVehicles,9,EADist,1412.7720266070205,EAVehicles,9,EADist,1383.9116026589,EAVehicles,9,EADist,1412.3822525429864,EAVehicles,9,EADist,1318.652461427919,EAVehicles,9,EADist,1313.9292118508934,EAVehicles,9,AVGDist,1355.3990092443005,AVGVehicles,9.0,BestDist,1302.0921781786988,BestVehicles,9</t>
-  </si>
-  <si>
-    <t>./data/A-n80-k10.vrp,COMMENT : (Augerat et al, Min no of trucks: 10, Best value: 1764),./data/A-n80-k10.vrp,GTDist,2055.2598437787647,GTVehicles,10,CWDist,1875.027021797226,CWVehicles,10,HCDist,2337.931192279991,HCVehicles,10,HCDist,2339.9348880238636,HCVehicles,10,HCDist,2194.4070625976274,HCVehicles,10,HCDist,2288.3767650701675,HCVehicles,10,HCDist,2161.9818642580517,HCVehicles,10,HCDist,2220.2437815122676,HCVehicles,10,HCDist,2259.2363373058874,HCVehicles,10,HCDist,2274.0217176514507,HCVehicles,10,HCDist,2275.86629901639,HCVehicles,10,HCDist,2403.9162134223748,HCVehicles,10,AVGHCDist,2275.5916121138066,AVGHCVehicles,10.0,BestHCDist,2161.9818642580517,BestHCVehicles,10,EADist,2242.6290079396636,EAVehicles,10,EADist,2163.7438066068394,EAVehicles,10,EADist,2098.4672669427246,EAVehicles,10,EADist,2002.9585698652518,EAVehicles,10,EADist,2126.064247948933,EAVehicles,10,EADist,2116.777603283875,EAVehicles,10,EADist,2148.6957424324846,EAVehicles,10,EADist,2002.813746542562,EAVehicles,10,EADist,2131.5603657408683,EAVehicles,10,EADist,2091.9548090465546,EAVehicles,10,AVGDist,2112.5665166349754,AVGVehicles,10.0,BestDist,2002.813746542562,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/B-n31-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 672),./data/B-n31-k5.vrp,GTDist,722.2600507797389,GTVehicles,5,CWDist,681.164054610939,CWVehicles,5,HCDist,755.2350151908108,HCVehicles,5,HCDist,711.7723353606793,HCVehicles,5,HCDist,743.2947364140463,HCVehicles,5,HCDist,744.4229764761865,HCVehicles,5,HCDist,770.5112256494339,HCVehicles,5,HCDist,746.7784026853535,HCVehicles,5,HCDist,744.8327676077919,HCVehicles,5,HCDist,737.1348518354067,HCVehicles,5,HCDist,750.2364265702303,HCVehicles,5,HCDist,718.5092117489296,HCVehicles,5,AVGHCDist,742.2727949538869,AVGHCVehicles,5.0,BestHCDist,711.7723353606793,BestHCVehicles,5,EADist,629.1742197198012,EAVehicles,4,EADist,604.973972737715,EAVehicles,4,EADist,608.5208775137008,EAVehicles,4,EADist,619.7820584524912,EAVehicles,4,EADist,615.460620531873,EAVehicles,4,EADist,616.4987487549357,EAVehicles,4,EADist,616.8619869624409,EAVehicles,4,EADist,621.329634870928,EAVehicles,4,EADist,615.2999530780332,EAVehicles,4,EADist,607.3913707326972,EAVehicles,4,AVGDist,615.5293443354617,AVGVehicles,4.0,BestDist,604.973972737715,BestVehicles,4</t>
-  </si>
-  <si>
-    <t>./data/B-n34-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 788),./data/B-n34-k5.vrp,GTDist,847.4265106160249,GTVehicles,5,CWDist,798.7061382442344,CWVehicles,5,HCDist,931.1024186778011,HCVehicles,5,HCDist,872.7397155255494,HCVehicles,5,HCDist,913.8048720639912,HCVehicles,5,HCDist,943.8030502732823,HCVehicles,5,HCDist,870.1171543309138,HCVehicles,5,HCDist,867.0106421885529,HCVehicles,5,HCDist,832.6148904662265,HCVehicles,5,HCDist,817.1834954513884,HCVehicles,5,HCDist,950.3174008845122,HCVehicles,5,HCDist,890.1206043804791,HCVehicles,5,AVGHCDist,888.8814244242698,AVGHCVehicles,5.0,BestHCDist,817.1834954513884,BestHCVehicles,5,EADist,780.6978938453611,EAVehicles,5,EADist,802.6064590803105,EAVehicles,5,EADist,780.9202836868647,EAVehicles,5,EADist,806.7516930269114,EAVehicles,5,EADist,826.2570914650665,EAVehicles,5,EADist,780.2525012782252,EAVehicles,5,EADist,785.5641045289306,EAVehicles,5,EADist,804.4604610323767,EAVehicles,5,EADist,789.4676717029679,EAVehicles,5,EADist,774.8726912225387,EAVehicles,5,AVGDist,793.1850850869553,AVGVehicles,5.0,BestDist,774.8726912225387,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/B-n35-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 955),./data/B-n35-k5.vrp,GTDist,1033.8234672401238,GTVehicles,5,CWDist,981.4658076584885,CWVehicles,5,HCDist,1216.1774598327595,HCVehicles,5,HCDist,1050.5217836676882,HCVehicles,5,HCDist,1188.1463061775648,HCVehicles,5,HCDist,1019.2029987763644,HCVehicles,5,HCDist,1152.607619068388,HCVehicles,5,HCDist,1162.2362752857343,HCVehicles,5,HCDist,1108.3289833847007,HCVehicles,5,HCDist,1251.976541071994,HCVehicles,5,HCDist,1175.1521044128372,HCVehicles,5,HCDist,1159.479775511045,HCVehicles,5,AVGHCDist,1148.3829847189077,AVGHCVehicles,5.0,BestHCDist,1019.2029987763644,BestHCVehicles,5,EADist,892.7859758212305,EAVehicles,5,EADist,1007.6075086027491,EAVehicles,5,EADist,1000.836642423367,EAVehicles,5,EADist,967.5063878575833,EAVehicles,5,EADist,1003.75228722969,EAVehicles,5,EADist,979.4407417329257,EAVehicles,5,EADist,974.6631603997387,EAVehicles,5,EADist,998.8994438681398,EAVehicles,5,EADist,1009.5299219321638,EAVehicles,5,EADist,988.9064788936523,EAVehicles,5,AVGDist,982.3928548761239,AVGVehicles,5.0,BestDist,892.7859758212305,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/B-n38-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 805),./data/B-n38-k6.vrp,GTDist,908.4653532228372,GTVehicles,6,CWDist,831.86574264654,CWVehicles,6,HCDist,909.4791054983123,HCVehicles,6,HCDist,892.2806105510564,HCVehicles,6,HCDist,962.7809612261993,HCVehicles,6,HCDist,1093.1396702937766,HCVehicles,6,HCDist,948.1786198683715,HCVehicles,6,HCDist,948.4849094869887,HCVehicles,6,HCDist,917.0907824638164,HCVehicles,6,HCDist,963.9930336833548,HCVehicles,6,HCDist,928.2931910228405,HCVehicles,6,HCDist,903.5791452756381,HCVehicles,6,AVGHCDist,946.7300029370356,AVGHCVehicles,6.0,BestHCDist,892.2806105510564,BestHCVehicles,6,EADist,759.1626333407387,EAVehicles,5,EADist,732.6354163182382,EAVehicles,5,EADist,765.9913205781286,EAVehicles,6,EADist,801.3012346073647,EAVehicles,6,EADist,768.9251945984489,EAVehicles,6,EADist,755.8399026299069,EAVehicles,6,EADist,724.6495250534388,EAVehicles,5,EADist,754.4018107991325,EAVehicles,6,EADist,728.7477111179841,EAVehicles,5,EADist,746.7049501198176,EAVehicles,6,AVGDist,753.8359699163199,AVGVehicles,5.6,BestDist,724.6495250534388,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/B-n39-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 549),./data/B-n39-k5.vrp,GTDist,655.3069865609546,GTVehicles,5,CWDist,566.7053718048618,CWVehicles,5,HCDist,906.7238627068076,HCVehicles,5,HCDist,784.1642901183724,HCVehicles,5,HCDist,782.7942632789097,HCVehicles,5,HCDist,789.2140938937749,HCVehicles,5,HCDist,672.9839324561228,HCVehicles,5,HCDist,849.7391125348806,HCVehicles,5,HCDist,609.8962904116811,HCVehicles,5,HCDist,792.822440156269,HCVehicles,5,HCDist,761.1517345192038,HCVehicles,5,HCDist,840.95324962172,HCVehicles,5,AVGHCDist,779.0443269697741,AVGHCVehicles,5.0,BestHCDist,609.8962904116811,BestHCVehicles,5,EADist,563.0711520899231,EAVehicles,5,EADist,589.7633098866714,EAVehicles,5,EADist,527.6759568742011,EAVehicles,5,EADist,585.4606893987841,EAVehicles,5,EADist,548.0316449314771,EAVehicles,5,EADist,591.977145577593,EAVehicles,5,EADist,584.5050419809547,EAVehicles,5,EADist,622.2281725357029,EAVehicles,5,EADist,601.7690198916841,EAVehicles,5,EADist,567.064354428518,EAVehicles,5,AVGDist,578.1546487595509,AVGVehicles,5.0,BestDist,527.6759568742011,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/B-n41-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 829),./data/B-n41-k6.vrp,GTDist,1168.34247205839,GTVehicles,7,CWDist,899.9012987802323,CWVehicles,7,HCDist,1279.7617604229793,HCVehicles,6,HCDist,972.3735756570704,HCVehicles,6,HCDist,1110.8810718935376,HCVehicles,6,HCDist,992.8689811604487,HCVehicles,6,HCDist,1147.7354620258104,HCVehicles,6,HCDist,1037.3734065908864,HCVehicles,6,HCDist,1247.739762691619,HCVehicles,6,HCDist,1146.6154018972816,HCVehicles,6,HCDist,1095.4781677968595,HCVehicles,6,HCDist,1158.3833816914848,HCVehicles,6,AVGHCDist,1118.921097182798,AVGHCVehicles,6.0,BestHCDist,972.3735756570704,BestHCVehicles,6,EADist,916.2969360077423,EAVehicles,6,EADist,875.5654474610749,EAVehicles,6,EADist,934.5723600403435,EAVehicles,6,EADist,913.0953708307031,EAVehicles,6,EADist,892.2406130335556,EAVehicles,6,EADist,858.3125722045875,EAVehicles,6,EADist,907.9265184290008,EAVehicles,6,EADist,1037.3558972471785,EAVehicles,6,EADist,881.4981184257322,EAVehicles,6,EADist,898.4380930874906,EAVehicles,6,AVGDist,911.530192676741,AVGVehicles,6.0,BestDist,858.3125722045875,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/B-n43-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 742),./data/B-n43-k6.vrp,GTDist,809.5349272091424,GTVehicles,6,CWDist,780.7994834097825,CWVehicles,6,HCDist,810.7318019007707,HCVehicles,6,HCDist,989.3291131555571,HCVehicles,6,HCDist,901.8182340664246,HCVehicles,6,HCDist,1005.436931579387,HCVehicles,6,HCDist,1016.3560461776824,HCVehicles,6,HCDist,880.2855993769288,HCVehicles,6,HCDist,945.5584659071251,HCVehicles,6,HCDist,1012.3840331286098,HCVehicles,6,HCDist,955.8519082138323,HCVehicles,6,HCDist,1001.3136246252769,HCVehicles,6,AVGHCDist,951.9065758131594,AVGHCVehicles,6.0,BestHCDist,810.7318019007707,BestHCVehicles,6,EADist,819.4021470691457,EAVehicles,6,EADist,815.8287074372599,EAVehicles,6,EADist,804.3227522996268,EAVehicles,6,EADist,799.7154829834183,EAVehicles,6,EADist,867.7018468140909,EAVehicles,6,EADist,887.7354621283398,EAVehicles,6,EADist,804.1510468733386,EAVehicles,6,EADist,882.0928238538024,EAVehicles,6,EADist,786.791913372969,EAVehicles,6,EADist,791.100531626873,EAVehicles,6,AVGDist,825.8842714458866,AVGVehicles,6.0,BestDist,786.791913372969,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/B-n44-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 909),./data/B-n44-k7.vrp,GTDist,1189.2923013817792,GTVehicles,8,CWDist,937.7351985254668,CWVehicles,7,HCDist,1118.9741507895135,HCVehicles,7,HCDist,1115.7395572603205,HCVehicles,7,HCDist,1138.76219310109,HCVehicles,7,HCDist,1096.2192894223986,HCVehicles,7,HCDist,1138.2515086437547,HCVehicles,7,HCDist,1117.5088691345247,HCVehicles,7,HCDist,1321.0393815465834,HCVehicles,7,HCDist,1309.5305374432273,HCVehicles,7,HCDist,1149.2605828685246,HCVehicles,7,HCDist,1061.304166647383,HCVehicles,7,AVGHCDist,1156.659023685732,AVGHCVehicles,7.0,BestHCDist,1061.304166647383,BestHCVehicles,7,EADist,1017.3832972623752,EAVehicles,7,EADist,1047.8131223946084,EAVehicles,7,EADist,1033.3605066292657,EAVehicles,7,EADist,935.4217157406861,EAVehicles,7,EADist,891.1145356036053,EAVehicles,7,EADist,973.3803799921235,EAVehicles,7,EADist,855.5363945258533,EAVehicles,7,EADist,954.1965814309211,EAVehicles,7,EADist,864.438496893702,EAVehicles,7,EADist,1039.5150234784328,EAVehicles,7,AVGDist,961.2160053951573,AVGVehicles,7.0,BestDist,855.5363945258533,BestVehicles,7</t>
-  </si>
-  <si>
-    <t>./data/B-n45-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 751),./data/B-n45-k5.vrp,GTDist,842.0764615811889,GTVehicles,6,CWDist,767.3063468997528,CWVehicles,5,HCDist,907.3510886647596,HCVehicles,5,HCDist,996.496566589324,HCVehicles,6,HCDist,1035.756603156267,HCVehicles,5,HCDist,1069.986131924139,HCVehicles,5,HCDist,844.8633046392549,HCVehicles,5,HCDist,1111.7018387455878,HCVehicles,5,HCDist,873.7286504801998,HCVehicles,5,HCDist,1072.3048963030442,HCVehicles,5,HCDist,937.1060901007583,HCVehicles,5,HCDist,955.2351120176246,HCVehicles,5,AVGHCDist,980.4530282620959,AVGHCVehicles,5.1,BestHCDist,844.8633046392549,BestHCVehicles,5,EADist,793.0180111498091,EAVehicles,5,EADist,834.3916203680928,EAVehicles,5,EADist,788.5744223530685,EAVehicles,5,EADist,800.8371236459108,EAVehicles,5,EADist,789.021747560515,EAVehicles,5,EADist,790.5973262936857,EAVehicles,5,EADist,861.0872626697694,EAVehicles,5,EADist,805.0779902533717,EAVehicles,5,EADist,825.9155837021872,EAVehicles,5,EADist,878.2860754233762,EAVehicles,5,AVGDist,816.6807163419786,AVGVehicles,5.0,BestDist,788.5744223530685,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/B-n45-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 678),./data/B-n45-k6.vrp,GTDist,788.5777351127751,GTVehicles,7,CWDist,734.3036797447639,CWVehicles,7,HCDist,951.2669142610036,HCVehicles,6,HCDist,879.101853520579,HCVehicles,6,HCDist,833.5143354071533,HCVehicles,7,HCDist,893.6689114581203,HCVehicles,7,HCDist,782.4316796000836,HCVehicles,7,HCDist,873.5270155091931,HCVehicles,7,HCDist,851.1814417903512,HCVehicles,7,HCDist,985.5477230269476,HCVehicles,6,HCDist,879.1744856604932,HCVehicles,6,HCDist,895.8080885419992,HCVehicles,7,AVGHCDist,882.5222448775924,AVGHCVehicles,6.6,BestHCDist,782.4316796000836,BestHCVehicles,6,EADist,779.6425332735399,EAVehicles,6,EADist,776.4034255285349,EAVehicles,6,EADist,701.9917754399302,EAVehicles,6,EADist,738.5859903537229,EAVehicles,6,EADist,714.9341266771978,EAVehicles,6,EADist,695.2625355024559,EAVehicles,6,EADist,730.9180845653974,EAVehicles,6,EADist,699.6234835685609,EAVehicles,6,EADist,751.4376318785212,EAVehicles,6,EADist,734.2683236330886,EAVehicles,6,AVGDist,732.306791042095,AVGVehicles,6.0,BestDist,695.2625355024559,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/B-n50-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 741),./data/B-n50-k7.vrp,GTDist,1011.121003577085,GTVehicles,8,CWDist,749.5607584512952,CWVehicles,7,HCDist,949.8960725606005,HCVehicles,7,HCDist,915.0177351472919,HCVehicles,7,HCDist,915.4888234721689,HCVehicles,7,HCDist,1015.9724789298866,HCVehicles,7,HCDist,1031.9911609591006,HCVehicles,7,HCDist,941.7778103029249,HCVehicles,7,HCDist,1214.036825722454,HCVehicles,7,HCDist,1072.6693784938368,HCVehicles,7,HCDist,1085.5488501861125,HCVehicles,7,HCDist,997.8617575245353,HCVehicles,7,AVGHCDist,1014.0260893298912,AVGHCVehicles,7.0,BestHCDist,915.0177351472919,BestHCVehicles,7,EADist,739.9799706170223,EAVehicles,6,EADist,780.933707685895,EAVehicles,6,EADist,811.8290147054759,EAVehicles,6,EADist,795.4477379612547,EAVehicles,6,EADist,842.2620281928378,EAVehicles,6,EADist,761.717693712652,EAVehicles,6,EADist,742.0840695830087,EAVehicles,6,EADist,941.2206548761217,EAVehicles,6,EADist,805.7916665641061,EAVehicles,7,EADist,802.9081249789681,EAVehicles,6,AVGDist,802.4174668877341,AVGVehicles,6.1,BestDist,739.9799706170223,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/B-n50-k8.vrp,COMMENT : (Augerat et al, Min no of trucks: 8, Best value: 1313),./data/B-n50-k8.vrp,GTDist,1668.702407529423,GTVehicles,9,CWDist,1354.026365182708,CWVehicles,8,HCDist,1614.9894360001467,HCVehicles,8,HCDist,1579.2529985877504,HCVehicles,8,HCDist,1526.6918417183895,HCVehicles,8,HCDist,1421.572676440409,HCVehicles,8,HCDist,1599.8655429538817,HCVehicles,8,HCDist,1587.8555073284465,HCVehicles,8,HCDist,1553.619164396769,HCVehicles,8,HCDist,1536.3249739146327,HCVehicles,8,HCDist,1713.106529863494,HCVehicles,8,HCDist,1498.5628893867424,HCVehicles,8,AVGHCDist,1563.1841560590663,AVGHCVehicles,8.0,BestHCDist,1421.572676440409,BestHCVehicles,8,EADist,1356.8567305556253,EAVehicles,8,EADist,1368.4860526108648,EAVehicles,8,EADist,1415.5851643371657,EAVehicles,8,EADist,1419.869891310918,EAVehicles,8,EADist,1382.6077311828367,EAVehicles,8,EADist,1359.3614875474207,EAVehicles,8,EADist,1363.1143674880716,EAVehicles,8,EADist,1344.6897611151035,EAVehicles,8,EADist,1359.5107528460312,EAVehicles,8,EADist,1394.0804296524518,EAVehicles,8,AVGDist,1376.416236864649,AVGVehicles,8.0,BestDist,1344.6897611151035,BestVehicles,8</t>
-  </si>
-  <si>
-    <t>./data/B-n51-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 1032),./data/B-n51-k7.vrp,GTDist,1206.0555791628485,GTVehicles,8,CWDist,1123.9006770564274,CWVehicles,8,HCDist,1345.7651438978996,HCVehicles,8,HCDist,1380.2231935361372,HCVehicles,8,HCDist,1658.5325200509756,HCVehicles,7,HCDist,1410.4707882004886,HCVehicles,8,HCDist,1298.0781398132333,HCVehicles,8,HCDist,1355.8339368811482,HCVehicles,8,HCDist,1489.4822241936158,HCVehicles,8,HCDist,1486.837217921067,HCVehicles,8,HCDist,1440.3916221441618,HCVehicles,8,HCDist,1554.2603187124892,HCVehicles,7,AVGHCDist,1441.9875105351216,AVGHCVehicles,7.8,BestHCDist,1298.0781398132333,BestHCVehicles,7,EADist,1022.7696550067622,EAVehicles,7,EADist,1071.6419455461182,EAVehicles,7,EADist,1047.8754634942768,EAVehicles,7,EADist,1057.8758226021346,EAVehicles,7,EADist,1077.40970813253,EAVehicles,7,EADist,1100.7594945179148,EAVehicles,7,EADist,1159.729606726511,EAVehicles,7,EADist,1088.010660900843,EAVehicles,7,EADist,1184.5824936545569,EAVehicles,7,EADist,1008.3284063649778,EAVehicles,7,AVGDist,1081.8983256946624,AVGVehicles,7.0,BestDist,1008.3284063649778,BestVehicles,7</t>
-  </si>
-  <si>
-    <t>./data/B-n52-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 747),./data/B-n52-k7.vrp,GTDist,924.894838051966,GTVehicles,7,CWDist,768.1104820729001,CWVehicles,7,HCDist,878.1444689074216,HCVehicles,7,HCDist,1090.5005445969127,HCVehicles,7,HCDist,1237.5809500070136,HCVehicles,7,HCDist,993.7620676552558,HCVehicles,7,HCDist,996.2973796020889,HCVehicles,7,HCDist,1057.7245429178715,HCVehicles,7,HCDist,1081.331890964664,HCVehicles,7,HCDist,1156.1194341796495,HCVehicles,7,HCDist,955.5163749564306,HCVehicles,7,HCDist,1153.205656161287,HCVehicles,7,AVGHCDist,1060.0183309948593,AVGHCVehicles,7.0,BestHCDist,878.1444689074216,BestHCVehicles,7,EADist,763.3038828343527,EAVehicles,6,EADist,725.4963440897113,EAVehicles,6,EADist,701.4133749285872,EAVehicles,6,EADist,681.5962113154806,EAVehicles,6,EADist,835.8390753781639,EAVehicles,6,EADist,723.5545943453286,EAVehicles,6,EADist,825.071945744916,EAVehicles,6,EADist,788.8813924004988,EAVehicles,6,EADist,753.9082784533791,EAVehicles,6,EADist,671.8204398056957,EAVehicles,6,AVGDist,747.0885539296115,AVGVehicles,6.0,BestDist,671.8204398056957,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/B-n56-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 707),./data/B-n56-k7.vrp,GTDist,808.7805289749456,GTVehicles,7,CWDist,738.9950213131801,CWVehicles,7,HCDist,1051.0329225932749,HCVehicles,7,HCDist,996.2564829445174,HCVehicles,7,HCDist,1041.6918034535636,HCVehicles,7,HCDist,896.0915833759896,HCVehicles,7,HCDist,1002.2449285333946,HCVehicles,7,HCDist,851.0092968882499,HCVehicles,7,HCDist,1101.1057016819861,HCVehicles,7,HCDist,942.5449549819764,HCVehicles,7,HCDist,1050.5935384894162,HCVehicles,7,HCDist,1035.7015918298314,HCVehicles,7,AVGHCDist,996.8272804772199,AVGHCVehicles,7.0,BestHCDist,851.0092968882499,BestHCVehicles,7,EADist,623.578117559641,EAVehicles,6,EADist,638.9029854874852,EAVehicles,6,EADist,637.8759603727285,EAVehicles,6,EADist,656.6887532658052,EAVehicles,6,EADist,665.4693331628692,EAVehicles,6,EADist,703.4458778846911,EAVehicles,6,EADist,679.1110709219082,EAVehicles,6,EADist,667.1532068512407,EAVehicles,6,EADist,664.3267074720736,EAVehicles,6,EADist,658.9004588128624,EAVehicles,6,AVGDist,659.5452471791305,AVGVehicles,6.0,BestDist,623.578117559641,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/B-n57-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 1153),./data/B-n57-k7.vrp,GTDist,1542.2122095210034,GTVehicles,8,CWDist,1239.780090639922,CWVehicles,8,HCDist,1589.3118168987462,HCVehicles,8,HCDist,1368.3409273609586,HCVehicles,8,HCDist,1701.9603335437207,HCVehicles,8,HCDist,1682.1785122740798,HCVehicles,8,HCDist,1822.9769758607067,HCVehicles,8,HCDist,1570.6543554749678,HCVehicles,8,HCDist,1680.2504309923734,HCVehicles,8,HCDist,1577.691930643373,HCVehicles,8,HCDist,1435.7407269967944,HCVehicles,8,HCDist,1534.9913467444521,HCVehicles,8,AVGHCDist,1596.4097356790176,AVGHCVehicles,8.0,BestHCDist,1368.3409273609586,BestHCVehicles,8,EADist,1141.5054873550303,EAVehicles,7,EADist,1064.8559282198505,EAVehicles,6,EADist,1120.7977370923566,EAVehicles,7,EADist,1162.0375321079853,EAVehicles,7,EADist,1172.9042817239565,EAVehicles,6,EADist,1208.2117683940771,EAVehicles,7,EADist,1113.6158032360552,EAVehicles,7,EADist,1109.0640601841285,EAVehicles,6,EADist,1180.1788738603568,EAVehicles,6,EADist,1125.3205311449028,EAVehicles,6,AVGDist,1139.8492003318702,AVGVehicles,6.5,BestDist,1064.8559282198505,BestVehicles,6</t>
-  </si>
-  <si>
-    <t>./data/B-n57-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1598),./data/B-n57-k9.vrp,GTDist,1763.158769605141,GTVehicles,9,CWDist,1655.7481557147007,CWVehicles,9,HCDist,2030.680415700574,HCVehicles,9,HCDist,1976.499488984139,HCVehicles,9,HCDist,2019.7023203472422,HCVehicles,9,HCDist,1996.860907586442,HCVehicles,9,HCDist,2125.605276893225,HCVehicles,9,HCDist,1861.8656696715536,HCVehicles,9,HCDist,1958.3943037328347,HCVehicles,9,HCDist,1896.498400721629,HCVehicles,9,HCDist,1959.3625420118954,HCVehicles,9,HCDist,1964.4199076337263,HCVehicles,9,AVGHCDist,1978.988923328326,AVGHCVehicles,9.0,BestHCDist,1861.8656696715536,BestHCVehicles,9,EADist,1719.3652293074674,EAVehicles,9,EADist,1658.38420800917,EAVehicles,8,EADist,1743.7881342998712,EAVehicles,8,EADist,1717.181617006115,EAVehicles,8,EADist,1673.526999253405,EAVehicles,8,EADist,1708.4670742457652,EAVehicles,8,EADist,1705.922287388299,EAVehicles,8,EADist,1741.7137497176532,EAVehicles,8,EADist,1697.3088076619383,EAVehicles,8,EADist,1693.4693604711058,EAVehicles,9,AVGDist,1705.912746736079,AVGVehicles,8.2,BestDist,1658.38420800917,BestVehicles,8</t>
-  </si>
-  <si>
-    <t>./data/B-n63-k10.vrp,COMMENT : (Augerat et al, Min no of trucks: 10, Best value: 1537),./data/B-n63-k10.vrp,GTDist,1838.683935178582,GTVehicles,11,CWDist,1601.313786861592,CWVehicles,10,HCDist,2146.3095671046813,HCVehicles,10,HCDist,1950.1191098776706,HCVehicles,10,HCDist,1977.3641066106406,HCVehicles,10,HCDist,2122.4957641914607,HCVehicles,10,HCDist,1985.0186684940331,HCVehicles,10,HCDist,2136.7280822011535,HCVehicles,10,HCDist,1706.3258709151837,HCVehicles,10,HCDist,1840.441315837108,HCVehicles,10,HCDist,1875.4870857210756,HCVehicles,10,HCDist,1822.8445086294473,HCVehicles,10,AVGHCDist,1956.3134079582458,AVGHCVehicles,10.0,BestHCDist,1706.3258709151837,BestHCVehicles,10,EADist,1704.2023057936726,EAVehicles,10,EADist,1647.3416292245054,EAVehicles,10,EADist,1744.4043217367275,EAVehicles,10,EADist,1725.8562373979469,EAVehicles,10,EADist,1726.4411930932536,EAVehicles,10,EADist,1770.549168701531,EAVehicles,10,EADist,1683.9108408418285,EAVehicles,10,EADist,1801.4434556063406,EAVehicles,10,EADist,1767.300237331694,EAVehicles,10,EADist,1709.4903538167252,EAVehicles,10,AVGDist,1728.0939743544227,AVGVehicles,10.0,BestDist,1647.3416292245054,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/B-n64-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Optimal value: 861),./data/B-n64-k9.vrp,GTDist,1126.1715543324362,GTVehicles,10,CWDist,922.1898574265934,CWVehicles,10,HCDist,1305.040332875053,HCVehicles,10,HCDist,1278.9880218967273,HCVehicles,10,HCDist,1301.136705984046,HCVehicles,10,HCDist,1561.0593240924122,HCVehicles,9,HCDist,1329.868653588385,HCVehicles,10,HCDist,1344.3722469120823,HCVehicles,10,HCDist,1240.381084993994,HCVehicles,10,HCDist,1184.3639369674406,HCVehicles,9,HCDist,1078.3657734094818,HCVehicles,10,HCDist,1099.5791563797047,HCVehicles,10,AVGHCDist,1272.3155237099327,AVGHCVehicles,9.8,BestHCDist,1078.3657734094818,BestHCVehicles,9,EADist,906.776292111105,EAVehicles,9,EADist,1085.063385016429,EAVehicles,9,EADist,958.9833363140407,EAVehicles,9,EADist,946.9041506131742,EAVehicles,8,EADist,900.8386146947789,EAVehicles,9,EADist,885.175013101722,EAVehicles,9,EADist,862.2729725834661,EAVehicles,9,EADist,970.5723248127415,EAVehicles,9,EADist,898.4321565829894,EAVehicles,9,EADist,878.6351278828608,EAVehicles,8,AVGDist,929.3653373713308,AVGVehicles,8.8,BestDist,862.2729725834661,BestVehicles,8</t>
-  </si>
-  <si>
-    <t>./data/B-n66-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1374),./data/B-n66-k9.vrp,GTDist,1568.0234836909897,GTVehicles,10,CWDist,1418.1268028043337,CWVehicles,10,HCDist,1696.8134120056257,HCVehicles,9,HCDist,1908.740589488192,HCVehicles,9,HCDist,1769.0212965841097,HCVehicles,9,HCDist,1791.1204427313355,HCVehicles,10,HCDist,1677.8750075228677,HCVehicles,9,HCDist,1890.3447104603054,HCVehicles,10,HCDist,1838.5228085819392,HCVehicles,9,HCDist,1726.308500014836,HCVehicles,9,HCDist,1681.0718033768103,HCVehicles,9,HCDist,1792.7856035923528,HCVehicles,9,AVGHCDist,1777.2604174358373,AVGHCVehicles,9.2,BestHCDist,1677.8750075228677,BestHCVehicles,9,EADist,1474.292542878077,EAVehicles,9,EADist,1460.683672044674,EAVehicles,9,EADist,1401.6707246001147,EAVehicles,9,EADist,1578.0097657140827,EAVehicles,9,EADist,1503.5342771593275,EAVehicles,9,EADist,1526.4930100789015,EAVehicles,9,EADist,1467.781550800368,EAVehicles,9,EADist,1363.6594883237938,EAVehicles,9,EADist,1436.4114308952326,EAVehicles,9,EADist,1430.1968798218238,EAVehicles,9,AVGDist,1464.2733342316394,AVGVehicles,9.0,BestDist,1363.6594883237938,BestVehicles,9</t>
-  </si>
-  <si>
-    <t>./data/B-n67-k10.vrp,COMMENT : (Augerat et al, Min no of trucks: 10, Best value: 1033),./data/B-n67-k10.vrp,GTDist,1305.4254203386915,GTVehicles,11,CWDist,1101.70996402757,CWVehicles,11,HCDist,1375.6841156582104,HCVehicles,10,HCDist,1582.2276044365108,HCVehicles,10,HCDist,1305.9238959525505,HCVehicles,10,HCDist,1418.9306689400717,HCVehicles,10,HCDist,1556.1692309793757,HCVehicles,10,HCDist,1572.9072028057403,HCVehicles,10,HCDist,1481.2785374600141,HCVehicles,10,HCDist,1399.892224013055,HCVehicles,10,HCDist,1644.5868113390025,HCVehicles,10,HCDist,1546.645129995813,HCVehicles,10,AVGHCDist,1488.4245421580345,AVGHCVehicles,10.0,BestHCDist,1305.9238959525505,BestHCVehicles,10,EADist,1299.7620205609035,EAVehicles,10,EADist,1319.5324771635358,EAVehicles,10,EADist,1250.750886454604,EAVehicles,10,EADist,1320.7807776016805,EAVehicles,10,EADist,1156.7778397607851,EAVehicles,10,EADist,1221.0497827018419,EAVehicles,10,EADist,1276.5807717177777,EAVehicles,10,EADist,1287.5274825520105,EAVehicles,10,EADist,1262.1797801549008,EAVehicles,10,EADist,1208.0116329797988,EAVehicles,10,AVGDist,1260.2953451647836,AVGVehicles,10.0,BestDist,1156.7778397607851,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/B-n68-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1304),./data/B-n68-k9.vrp,GTDist,1488.3633735424291,GTVehicles,10,CWDist,1318.4050679632483,CWVehicles,9,HCDist,1631.196346766027,HCVehicles,9,HCDist,1639.7811399962807,HCVehicles,9,HCDist,1770.2192110416477,HCVehicles,9,HCDist,1722.2477632285181,HCVehicles,9,HCDist,1801.3372175494208,HCVehicles,9,HCDist,1752.508259727319,HCVehicles,9,HCDist,1646.9636831096066,HCVehicles,9,HCDist,1676.4217487579895,HCVehicles,9,HCDist,1804.5634452379072,HCVehicles,9,HCDist,1777.4860306617952,HCVehicles,9,AVGHCDist,1722.2724846076512,AVGHCVehicles,9.0,BestHCDist,1631.196346766027,BestHCVehicles,9,EADist,1301.6050706952005,EAVehicles,8,EADist,1322.135360584468,EAVehicles,8,EADist,1309.908625008591,EAVehicles,8,EADist,1300.197928533774,EAVehicles,8,EADist,1289.20730325311,EAVehicles,8,EADist,1305.0551783459441,EAVehicles,8,EADist,1351.996460748921,EAVehicles,8,EADist,1428.9158913395163,EAVehicles,8,EADist,1288.3287506458596,EAVehicles,8,EADist,1424.4686522271227,EAVehicles,8,AVGDist,1332.1819221382507,AVGVehicles,8.0,BestDist,1288.3287506458596,BestVehicles,8</t>
-  </si>
-  <si>
-    <t>./data/B-n78-k10.vrp,COMMENT : (Augerat et al, Min no of trucks: 10, Best value: 1266),./data/B-n78-k10.vrp,GTDist,1531.3468143198481,GTVehicles,11,CWDist,1271.895907864968,CWVehicles,10,HCDist,1756.3751271557735,HCVehicles,10,HCDist,1540.7383050873218,HCVehicles,10,HCDist,1726.0872246274016,HCVehicles,10,HCDist,1699.379839358619,HCVehicles,10,HCDist,1673.5825146887064,HCVehicles,10,HCDist,1652.604288816965,HCVehicles,10,HCDist,1765.4826137979205,HCVehicles,10,HCDist,1623.7846511844539,HCVehicles,10,HCDist,1597.3482948882136,HCVehicles,10,HCDist,1802.2949732083914,HCVehicles,10,AVGHCDist,1683.7677832813765,AVGHCVehicles,10.0,BestHCDist,1540.7383050873218,BestHCVehicles,10,EADist,1635.9319093624713,EAVehicles,10,EADist,1525.0982739499507,EAVehicles,10,EADist,1573.0645106412262,EAVehicles,10,EADist,1573.7472350732553,EAVehicles,10,EADist,1595.5373114679041,EAVehicles,10,EADist,1474.284810163351,EAVehicles,10,EADist,1520.8238473154936,EAVehicles,10,EADist,1456.19330705362,EAVehicles,10,EADist,1514.4032747292101,EAVehicles,10,EADist,1537.583895139432,EAVehicles,10,AVGDist,1540.6668374895914,AVGVehicles,10.0,BestDist,1456.19330705362,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/P-n16-k8.vrp,COMMENT : (Augerat et al, No of trucks: 8, Best value: 435),./data/P-n16-k8.vrp,GTDist,497.272218628908,GTVehicles,9,CWDist,478.77113006541214,CWVehicles,9,HCDist,451.9470921298185,HCVehicles,8,HCDist,474.85319589502006,HCVehicles,8,HCDist,470.27760405943934,HCVehicles,8,HCDist,456.93610983071903,HCVehicles,8,HCDist,454.39834280459837,HCVehicles,8,HCDist,472.8387157568368,HCVehicles,8,HCDist,469.4607651572527,HCVehicles,8,HCDist,483.93212562795355,HCVehicles,9,HCDist,451.33508020861797,HCVehicles,8,HCDist,462.5005694214487,HCVehicles,8,AVGHCDist,464.84796008917056,AVGHCVehicles,8.1,BestHCDist,451.33508020861797,BestHCVehicles,8,EADist,451.33508020861797,EAVehicles,8,EADist,451.33508020861797,EAVehicles,8,EADist,451.94709212981843,EAVehicles,8,EADist,451.33508020861797,EAVehicles,8,EADist,451.33508020861797,EAVehicles,8,EADist,451.33508020861797,EAVehicles,8,EADist,451.9470921298185,EAVehicles,8,EADist,451.33508020861797,EAVehicles,8,EADist,451.33508020861797,EAVehicles,8,EADist,451.9470921298185,EAVehicles,8,AVGDist,451.5186837849781,AVGVehicles,8.0,BestDist,451.33508020861797,BestVehicles,8</t>
-  </si>
-  <si>
-    <t>./data/P-n19-k2.vrp,COMMENT : (Augerat et al, No of trucks: 2, Best value: 212),./data/P-n19-k2.vrp,GTDist,278.0700965962719,GTVehicles,3,CWDist,220.64313526472102,CWVehicles,3,HCDist,245.0330956977008,HCVehicles,2,HCDist,244.72654986873357,HCVehicles,2,HCDist,236.28163133801132,HCVehicles,2,HCDist,259.6813627549332,HCVehicles,2,HCDist,238.37966294867283,HCVehicles,2,HCDist,252.05102660914582,HCVehicles,2,HCDist,233.61696840270076,HCVehicles,2,HCDist,236.85719972820812,HCVehicles,2,HCDist,264.11108470876906,HCVehicles,2,HCDist,256.16517072497317,HCVehicles,2,AVGHCDist,246.69037527818486,AVGHCVehicles,2.0,BestHCDist,233.61696840270076,BestHCVehicles,2,EADist,222.62748481803789,EAVehicles,2,EADist,212.6569041858923,EAVehicles,2,EADist,221.88116810690303,EAVehicles,2,EADist,219.75413715136335,EAVehicles,2,EADist,220.8020590897628,EAVehicles,2,EADist,212.6569041858923,EAVehicles,2,EADist,212.6569041858923,EAVehicles,2,EADist,216.72747092786253,EAVehicles,2,EADist,212.6569041858923,EAVehicles,2,EADist,233.28407862358517,EAVehicles,2,AVGDist,218.57040154610837,AVGVehicles,2.0,BestDist,212.6569041858923,BestVehicles,2</t>
-  </si>
-  <si>
-    <t>./data/P-n20-k2.vrp,COMMENT : (Augerat et al, No of trucks: 2, Best value: 220),./data/P-n20-k2.vrp,GTDist,286.2366319447856,GTVehicles,3,CWDist,223.55885637866902,CWVehicles,2,HCDist,240.27257537178207,HCVehicles,2,HCDist,228.32250784342983,HCVehicles,2,HCDist,293.13379050229855,HCVehicles,2,HCDist,245.9715242023409,HCVehicles,2,HCDist,247.07796978676328,HCVehicles,2,HCDist,258.92444678012197,HCVehicles,2,HCDist,231.58690109881775,HCVehicles,2,HCDist,284.7494113704736,HCVehicles,2,HCDist,232.65686924839673,HCVehicles,2,HCDist,262.8936640130744,HCVehicles,2,AVGHCDist,252.55896602174988,AVGHCVehicles,2.0,BestHCDist,228.32250784342983,BestHCVehicles,2,EADist,217.41558334616656,EAVehicles,2,EADist,217.41558334616656,EAVehicles,2,EADist,217.41558334616656,EAVehicles,2,EADist,218.30889390027943,EAVehicles,2,EADist,217.41558334616656,EAVehicles,2,EADist,217.41558334616656,EAVehicles,2,EADist,218.30889390027943,EAVehicles,2,EADist,218.30889390027937,EAVehicles,2,EADist,218.30889390027943,EAVehicles,2,EADist,218.30889390027943,EAVehicles,2,AVGDist,217.862238623223,AVGVehicles,2.0,BestDist,217.41558334616656,BestVehicles,2</t>
-  </si>
-  <si>
-    <t>./data/P-n21-k2.vrp,COMMENT : (Augerat et al, Min no of trucks: 2, Best value: 211),./data/P-n21-k2.vrp,GTDist,262.8158619516661,GTVehicles,2,CWDist,225.74917491951743,CWVehicles,2,HCDist,235.69052606414914,HCVehicles,2,HCDist,212.71153970290385,HCVehicles,2,HCDist,212.71153970290385,HCVehicles,2,HCDist,241.5904311524032,HCVehicles,2,HCDist,220.1885352317562,HCVehicles,2,HCDist,247.62950275414084,HCVehicles,2,HCDist,236.67687518722786,HCVehicles,2,HCDist,241.67529789353927,HCVehicles,2,HCDist,257.1875347153835,HCVehicles,2,HCDist,243.40878888294543,HCVehicles,2,AVGHCDist,234.94705712873534,AVGHCVehicles,2.0,BestHCDist,212.71153970290385,BestHCVehicles,2,EADist,212.71153970290388,EAVehicles,2,EADist,214.79631069534545,EAVehicles,2,EADist,212.71153970290388,EAVehicles,2,EADist,212.71153970290388,EAVehicles,2,EADist,212.71153970290385,EAVehicles,2,EADist,212.71153970290388,EAVehicles,2,EADist,212.71153970290385,EAVehicles,2,EADist,212.71153970290385,EAVehicles,2,EADist,212.71153970290385,EAVehicles,2,EADist,215.9627548130832,EAVehicles,2,AVGDist,213.24513831316594,AVGVehicles,2.0,BestDist,212.71153970290385,BestVehicles,2</t>
-  </si>
-  <si>
-    <t>./data/P-n22-k2.vrp,COMMENT : (Augerat et al, Min no of trucks: 2, Best value: 216),./data/P-n22-k2.vrp,GTDist,288.5892014039268,GTVehicles,2,CWDist,233.11878682195683,CWVehicles,2,HCDist,262.10576630913306,HCVehicles,2,HCDist,292.584904178384,HCVehicles,2,HCDist,277.3665180980709,HCVehicles,2,HCDist,257.8262035369248,HCVehicles,2,HCDist,270.41541869121255,HCVehicles,2,HCDist,234.80359166700617,HCVehicles,2,HCDist,264.1746145639371,HCVehicles,2,HCDist,277.35702034621943,HCVehicles,2,HCDist,232.96304838804159,HCVehicles,2,HCDist,321.48459819714515,HCVehicles,2,AVGHCDist,269.1081683976075,AVGHCVehicles,2.0,BestHCDist,232.96304838804159,BestHCVehicles,2,EADist,217.8521507402297,EAVehicles,2,EADist,217.85215074022966,EAVehicles,2,EADist,217.85215074022966,EAVehicles,2,EADist,217.85215074022972,EAVehicles,2,EADist,217.85215074022972,EAVehicles,2,EADist,217.8521507402297,EAVehicles,2,EADist,217.8521507402297,EAVehicles,2,EADist,218.05082483731812,EAVehicles,2,EADist,217.85215074022972,EAVehicles,2,EADist,217.8521507402297,EAVehicles,2,AVGDist,217.8720181499385,AVGVehicles,2.0,BestDist,217.85215074022966,BestVehicles,2</t>
-  </si>
-  <si>
-    <t>./data/P-n22-k8.vrp,COMMENT : (Augerat et al, No of trucks: 8, Best value: 603),./data/P-n22-k8.vrp,GTDist,682.3768624779292,GTVehicles,10,CWDist,590.6210234857078,CWVehicles,9,HCDist,628.5735318579674,HCVehicles,9,HCDist,619.4790706556698,HCVehicles,9,HCDist,628.3402747101032,HCVehicles,9,HCDist,638.8534960858244,HCVehicles,9,HCDist,653.8042726055402,HCVehicles,9,HCDist,678.9940981139156,HCVehicles,9,HCDist,600.5569764283695,HCVehicles,9,HCDist,668.622526364385,HCVehicles,9,HCDist,636.6584795969094,HCVehicles,9,HCDist,660.1175363174522,HCVehicles,9,AVGHCDist,641.4000262736137,AVGHCVehicles,9.0,BestHCDist,600.5569764283695,BestHCVehicles,9,EADist,588.7935242586069,EAVehicles,9,EADist,588.7935242586069,EAVehicles,9,EADist,588.7935242586069,EAVehicles,9,EADist,589.391693693543,EAVehicles,9,EADist,588.7935242586069,EAVehicles,9,EADist,588.7935242586069,EAVehicles,9,EADist,588.7935242586069,EAVehicles,9,EADist,588.7935242586068,EAVehicles,9,EADist,595.807498520667,EAVehicles,9,EADist,588.7935242586069,EAVehicles,9,AVGDist,589.5547386283066,AVGVehicles,9.0,BestDist,588.7935242586068,BestVehicles,9</t>
-  </si>
-  <si>
-    <t>./data/P-n23-k8.vrp,COMMENT : (Augerat et al, No of trucks: 8, Best value: 554),./data/P-n23-k8.vrp,GTDist,671.638053265973,GTVehicles,11,CWDist,539.4753861721704,CWVehicles,9,HCDist,559.2789391820609,HCVehicles,9,HCDist,545.3639415901487,HCVehicles,9,HCDist,608.2197499742997,HCVehicles,9,HCDist,589.0149848152212,HCVehicles,9,HCDist,591.3118954599349,HCVehicles,9,HCDist,589.0544704376766,HCVehicles,9,HCDist,539.8343286800052,HCVehicles,8,HCDist,586.2243506974977,HCVehicles,9,HCDist,566.1338152455149,HCVehicles,9,HCDist,588.0157883975676,HCVehicles,9,AVGHCDist,576.2452264479928,AVGHCVehicles,8.9,BestHCDist,539.8343286800052,BestHCVehicles,8,EADist,531.1738035458811,EAVehicles,8,EADist,541.7908835071709,EAVehicles,9,EADist,531.1738035458811,EAVehicles,8,EADist,531.1738035458812,EAVehicles,8,EADist,531.1738035458812,EAVehicles,8,EADist,531.1738035458811,EAVehicles,8,EADist,541.7908835071709,EAVehicles,9,EADist,531.1738035458812,EAVehicles,8,EADist,531.1738035458812,EAVehicles,8,EADist,531.1738035458811,EAVehicles,8,AVGDist,533.2972195381391,AVGVehicles,8.2,BestDist,531.1738035458811,BestVehicles,8</t>
-  </si>
-  <si>
-    <t>./data/P-n40-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Best value: 458),./data/P-n40-k5.vrp,GTDist,624.1473571220519,GTVehicles,5,CWDist,524.5134183946816,CWVehicles,5,HCDist,563.0982806244192,HCVehicles,5,HCDist,632.9376264858092,HCVehicles,5,HCDist,629.1781313452422,HCVehicles,5,HCDist,645.1909289225996,HCVehicles,5,HCDist,678.649168643325,HCVehicles,5,HCDist,547.3153832161026,HCVehicles,5,HCDist,606.1601758671499,HCVehicles,5,HCDist,489.1738299142114,HCVehicles,5,HCDist,619.0314405174181,HCVehicles,5,HCDist,627.9281436114292,HCVehicles,5,AVGHCDist,603.8663109147707,AVGHCVehicles,5.0,BestHCDist,489.1738299142114,BestHCVehicles,5,EADist,481.1082772972823,EAVehicles,5,EADist,501.7702156086233,EAVehicles,5,EADist,491.9527575361722,EAVehicles,5,EADist,495.442252614039,EAVehicles,5,EADist,566.4666407838578,EAVehicles,5,EADist,515.3791599225851,EAVehicles,5,EADist,508.3167268822706,EAVehicles,5,EADist,488.29444111427733,EAVehicles,5,EADist,487.7678069115368,EAVehicles,5,EADist,513.2543897217547,EAVehicles,5,AVGDist,504.9752668392399,AVGVehicles,5.0,BestDist,481.1082772972823,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/P-n45-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Best value: 510),./data/P-n45-k5.vrp,GTDist,658.1058082864446,GTVehicles,5,CWDist,536.6460949987483,CWVehicles,5,HCDist,657.6759292469346,HCVehicles,5,HCDist,591.6746612513933,HCVehicles,5,HCDist,634.5818245924246,HCVehicles,5,HCDist,608.527728416543,HCVehicles,5,HCDist,656.3237606693458,HCVehicles,5,HCDist,725.8846258619994,HCVehicles,5,HCDist,672.0586043425604,HCVehicles,5,HCDist,673.868919524645,HCVehicles,5,HCDist,656.9670132584338,HCVehicles,5,HCDist,634.6102112261775,HCVehicles,5,AVGHCDist,651.2173278390459,AVGHCVehicles,5.0,BestHCDist,591.6746612513933,BestHCVehicles,5,EADist,546.7155965494485,EAVehicles,5,EADist,523.5593547337036,EAVehicles,5,EADist,633.2265304826796,EAVehicles,5,EADist,528.0965078152618,EAVehicles,5,EADist,560.3883506861583,EAVehicles,5,EADist,561.5216172863386,EAVehicles,5,EADist,552.9115026646989,EAVehicles,5,EADist,546.9145944500734,EAVehicles,5,EADist,608.3994773414096,EAVehicles,5,EADist,550.2239854755707,EAVehicles,5,AVGDist,561.1957517485342,AVGVehicles,5.0,BestDist,523.5593547337036,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/P-n50-k7.vrp,COMMENT : (Augerat et al, No of trucks: 7, Best value: 554),./data/P-n50-k7.vrp,GTDist,685.6785046375282,GTVehicles,7,CWDist,607.3295985333896,CWVehicles,7,HCDist,671.767946969853,HCVehicles,7,HCDist,805.8593327068933,HCVehicles,7,HCDist,688.9059385021006,HCVehicles,7,HCDist,752.770571216792,HCVehicles,7,HCDist,672.8309814774057,HCVehicles,7,HCDist,676.0658632869598,HCVehicles,7,HCDist,724.4889250456725,HCVehicles,7,HCDist,709.9279068248607,HCVehicles,7,HCDist,679.1474291201083,HCVehicles,7,HCDist,747.0954173757464,HCVehicles,7,AVGHCDist,712.8860312526392,AVGHCVehicles,7.0,BestHCDist,671.767946969853,BestHCVehicles,7,EADist,645.5631680986694,EAVehicles,7,EADist,616.9569482871376,EAVehicles,7,EADist,599.5230643278205,EAVehicles,7,EADist,588.5832848772845,EAVehicles,7,EADist,600.3129667991534,EAVehicles,7,EADist,620.5841404493951,EAVehicles,7,EADist,619.6237844905093,EAVehicles,7,EADist,652.9459761508299,EAVehicles,7,EADist,633.0656786323888,EAVehicles,7,EADist,619.8040580340398,EAVehicles,7,AVGDist,619.6963070147227,AVGVehicles,7.0,BestDist,588.5832848772845,BestVehicles,7</t>
-  </si>
-  <si>
-    <t>./data/P-n50-k8.vrp,COMMENT : (Augerat et al, No of trucks: 8, Best value: 649),./data/P-n50-k8.vrp,GTDist,745.5102141561221,GTVehicles,9,CWDist,665.5862343390935,CWVehicles,9,HCDist,788.3815225030327,HCVehicles,9,HCDist,827.3054088781732,HCVehicles,9,HCDist,817.9724914633749,HCVehicles,9,HCDist,871.2367135297129,HCVehicles,9,HCDist,787.1209009097201,HCVehicles,9,HCDist,779.271495734887,HCVehicles,9,HCDist,783.5248737481281,HCVehicles,9,HCDist,717.6976172799427,HCVehicles,9,HCDist,840.8118192477621,HCVehicles,9,HCDist,849.7192536148681,HCVehicles,9,AVGHCDist,806.3042096909601,AVGHCVehicles,9.0,BestHCDist,717.6976172799427,BestHCVehicles,9,EADist,740.4855777736536,EAVehicles,9,EADist,708.2545302978842,EAVehicles,9,EADist,702.7001215931303,EAVehicles,9,EADist,696.1199656565932,EAVehicles,9,EADist,671.5911618850321,EAVehicles,9,EADist,723.6229960366614,EAVehicles,9,EADist,700.8715269792744,EAVehicles,9,EADist,718.1445785919393,EAVehicles,9,EADist,690.4023084859466,EAVehicles,9,EADist,724.6955284905722,EAVehicles,9,AVGDist,707.6888295790689,AVGVehicles,9.0,BestDist,671.5911618850321,BestVehicles,9</t>
-  </si>
-  <si>
-    <t>./data/P-n50-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 696),./data/P-n50-k10.vrp,GTDist,853.711777056283,GTVehicles,11,CWDist,734.3240694057522,CWVehicles,11,HCDist,856.6910615706445,HCVehicles,11,HCDist,888.683630961939,HCVehicles,11,HCDist,911.863020169801,HCVehicles,10,HCDist,831.0589648843426,HCVehicles,11,HCDist,906.777499243456,HCVehicles,11,HCDist,929.1550136372169,HCVehicles,11,HCDist,887.4495565853188,HCVehicles,11,HCDist,839.30929222959,HCVehicles,10,HCDist,872.5062140860229,HCVehicles,11,HCDist,829.1046391495449,HCVehicles,10,AVGHCDist,875.2598892517877,AVGHCVehicles,10.7,BestHCDist,829.1046391495449,BestHCVehicles,10,EADist,790.0440678939037,EAVehicles,10,EADist,769.2591539451506,EAVehicles,10,EADist,788.3125116025238,EAVehicles,11,EADist,763.39540542334,EAVehicles,10,EADist,754.8598141154973,EAVehicles,10,EADist,775.5825759182858,EAVehicles,11,EADist,798.4945818468976,EAVehicles,11,EADist,800.8223829060688,EAVehicles,10,EADist,761.756581064942,EAVehicles,10,EADist,745.7270872493289,EAVehicles,10,AVGDist,774.8254161965939,AVGVehicles,10.3,BestDist,745.7270872493289,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/P-n51-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 745),./data/P-n51-k10.vrp,GTDist,963.9925682357364,GTVehicles,11,CWDist,774.4487879471329,CWVehicles,11,HCDist,895.7328924403114,HCVehicles,11,HCDist,946.243202541197,HCVehicles,11,HCDist,865.6339428787387,HCVehicles,11,HCDist,950.8210353889622,HCVehicles,11,HCDist,1004.3537415731909,HCVehicles,11,HCDist,981.1343893265326,HCVehicles,11,HCDist,976.3380097067505,HCVehicles,11,HCDist,923.9551907628277,HCVehicles,11,HCDist,895.5634633689649,HCVehicles,11,HCDist,953.8049176546997,HCVehicles,11,AVGHCDist,939.3580785642174,AVGHCVehicles,11.0,BestHCDist,865.6339428787387,BestHCVehicles,11,EADist,846.1898120922275,EAVehicles,11,EADist,828.0156152233594,EAVehicles,11,EADist,830.9751959581839,EAVehicles,11,EADist,827.9471830463942,EAVehicles,11,EADist,823.5560592963811,EAVehicles,11,EADist,925.5394919002335,EAVehicles,10,EADist,866.4739865290218,EAVehicles,10,EADist,833.0427203535157,EAVehicles,10,EADist,855.1513835085073,EAVehicles,11,EADist,826.4454032925955,EAVehicles,11,AVGDist,846.333685120042,AVGVehicles,10.7,BestDist,823.5560592963811,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/P-n55-k7.vrp,COMMENT : (Augerat et al, No of trucks: 7, Best value: 524),./data/P-n55-k7.vrp,GTDist,755.1130065864518,GTVehicles,7,CWDist,593.7569322587565,CWVehicles,7,HCDist,729.1429728870969,HCVehicles,7,HCDist,806.911387538407,HCVehicles,7,HCDist,822.09412095631,HCVehicles,7,HCDist,745.005663980927,HCVehicles,7,HCDist,856.6075478677047,HCVehicles,7,HCDist,763.9249944466771,HCVehicles,7,HCDist,733.025863822416,HCVehicles,7,HCDist,809.0835749041515,HCVehicles,7,HCDist,744.780403415867,HCVehicles,7,HCDist,867.2923645108984,HCVehicles,7,AVGHCDist,787.7868894330456,AVGHCVehicles,7.0,BestHCDist,729.1429728870969,BestHCVehicles,7,EADist,628.7371390632583,EAVehicles,7,EADist,608.5585617445026,EAVehicles,7,EADist,600.8391292048044,EAVehicles,7,EADist,643.5627880106354,EAVehicles,7,EADist,658.8411322348637,EAVehicles,7,EADist,648.3272881710565,EAVehicles,7,EADist,634.1902241243674,EAVehicles,7,EADist,646.455023915762,EAVehicles,7,EADist,671.5051906549935,EAVehicles,7,EADist,663.3404623911191,EAVehicles,7,AVGDist,640.4356939515363,AVGVehicles,7.0,BestDist,600.8391292048044,BestVehicles,7</t>
-  </si>
-  <si>
-    <t>./data/P-n55-k8.vrp,COMMENT : (Augerat et al, No of trucks: 8, Best value: 576),./data/P-n55-k8.vrp,GTDist,728.0452257664025,GTVehicles,8,CWDist,618.1568689356682,CWVehicles,7,HCDist,837.6978873803832,HCVehicles,7,HCDist,750.3373823698449,HCVehicles,7,HCDist,790.9756276199769,HCVehicles,7,HCDist,739.6663966287197,HCVehicles,7,HCDist,780.738280644031,HCVehicles,7,HCDist,740.542741447399,HCVehicles,7,HCDist,707.9153140033839,HCVehicles,7,HCDist,719.8451142757126,HCVehicles,7,HCDist,718.4686109037176,HCVehicles,7,HCDist,764.3706837225093,HCVehicles,7,AVGHCDist,755.0558038995678,AVGHCVehicles,7.0,BestHCDist,707.9153140033839,BestHCVehicles,7,EADist,665.5111790394521,EAVehicles,7,EADist,656.1304955632797,EAVehicles,7,EADist,648.3956388456542,EAVehicles,7,EADist,687.5350878405222,EAVehicles,7,EADist,638.6951271878613,EAVehicles,7,EADist,738.5156432520755,EAVehicles,7,EADist,744.9206405180827,EAVehicles,7,EADist,637.6461160201492,EAVehicles,7,EADist,632.8852900391508,EAVehicles,7,EADist,620.8482933848165,EAVehicles,7,AVGDist,667.1083511691045,AVGVehicles,7.0,BestDist,620.8482933848165,BestVehicles,7</t>
-  </si>
-  <si>
-    <t>./data/P-n55-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 669),./data/P-n55-k10.vrp,GTDist,852.5559215823877,GTVehicles,10,CWDist,736.8563518082188,CWVehicles,11,HCDist,923.3266046702464,HCVehicles,10,HCDist,969.2770807594449,HCVehicles,10,HCDist,809.0152819450335,HCVehicles,10,HCDist,892.1578846975383,HCVehicles,10,HCDist,874.6732578964366,HCVehicles,10,HCDist,823.4941353786415,HCVehicles,10,HCDist,913.586541396271,HCVehicles,10,HCDist,797.2014417391042,HCVehicles,10,HCDist,978.7499432595073,HCVehicles,10,HCDist,857.4219682982442,HCVehicles,10,AVGHCDist,883.8904140040468,AVGHCVehicles,10.0,BestHCDist,797.2014417391042,BestHCVehicles,10,EADist,762.489771165588,EAVehicles,10,EADist,785.8101084772887,EAVehicles,10,EADist,777.550325809887,EAVehicles,10,EADist,731.8443015282876,EAVehicles,10,EADist,758.2041272961441,EAVehicles,10,EADist,787.541024615449,EAVehicles,10,EADist,716.0529312486092,EAVehicles,10,EADist,762.6729566485262,EAVehicles,10,EADist,774.3101465758431,EAVehicles,10,EADist,767.4891209372132,EAVehicles,10,AVGDist,762.3964814302836,AVGVehicles,10.0,BestDist,716.0529312486092,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/P-n55-k15.vrp,COMMENT : (Augerat et al, No of trucks: 15, Best value: 856),./data/P-n55-k15.vrp,GTDist,1074.8501156216853,GTVehicles,18,CWDist,984.0830329633222,CWVehicles,17,HCDist,1204.9087063748618,HCVehicles,16,HCDist,1213.2364847735128,HCVehicles,18,HCDist,1232.1788854050933,HCVehicles,17,HCDist,1246.4753792788752,HCVehicles,16,HCDist,1205.148427660572,HCVehicles,17,HCDist,1107.1866512758386,HCVehicles,17,HCDist,1193.7764531259888,HCVehicles,17,HCDist,1193.965325370546,HCVehicles,17,HCDist,1147.6058743357914,HCVehicles,18,HCDist,1195.83443425749,HCVehicles,16,AVGHCDist,1194.031662185857,AVGHCVehicles,16.9,BestHCDist,1107.1866512758386,BestHCVehicles,16,EADist,1028.8695700691806,EAVehicles,16,EADist,1026.4812211958217,EAVehicles,17,EADist,1013.352253867259,EAVehicles,17,EADist,1048.8416517362878,EAVehicles,16,EADist,1068.3888380592182,EAVehicles,17,EADist,1012.9883916348284,EAVehicles,16,EADist,1023.7278703930757,EAVehicles,17,EADist,1055.5331072098415,EAVehicles,17,EADist,1026.4400127497831,EAVehicles,17,EADist,1107.396956203338,EAVehicles,16,AVGDist,1041.2019873118634,AVGVehicles,16.6,BestDist,1012.9883916348284,BestVehicles,16</t>
-  </si>
-  <si>
-    <t>./data/P-n60-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 706),./data/P-n60-k10.vrp,GTDist,949.568652384112,GTVehicles,11,CWDist,796.3191129878971,CWVehicles,10,HCDist,1021.9297544274749,HCVehicles,10,HCDist,971.8777855634069,HCVehicles,10,HCDist,1021.9139442048922,HCVehicles,11,HCDist,1033.3035138553103,HCVehicles,10,HCDist,1039.585470611822,HCVehicles,10,HCDist,1037.679154496671,HCVehicles,10,HCDist,1009.7644901321742,HCVehicles,10,HCDist,975.3345787251268,HCVehicles,10,HCDist,989.68713281113,HCVehicles,10,HCDist,1040.625477668821,HCVehicles,10,AVGHCDist,1014.1701302496829,AVGHCVehicles,10.1,BestHCDist,971.8777855634069,BestHCVehicles,10,EADist,855.0921057159376,EAVehicles,10,EADist,814.5127444428114,EAVehicles,10,EADist,866.1902403547342,EAVehicles,10,EADist,887.6911923814506,EAVehicles,10,EADist,884.7202436516262,EAVehicles,10,EADist,873.0423655901861,EAVehicles,10,EADist,829.5079230172806,EAVehicles,10,EADist,825.9372988866326,EAVehicles,10,EADist,879.1090350214774,EAVehicles,10,EADist,861.0464748043669,EAVehicles,10,AVGDist,857.6849623866503,AVGVehicles,10.0,BestDist,814.5127444428114,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/P-n60-k15.vrp,COMMENT : (Augerat et al, No of trucks: 15, Best value: 905),./data/P-n60-k15.vrp,GTDist,1153.6577460169544,GTVehicles,16,CWDist,1016.9632054112972,CWVehicles,16,HCDist,1161.1974914888733,HCVehicles,15,HCDist,1227.186965606665,HCVehicles,16,HCDist,1212.644133925871,HCVehicles,15,HCDist,1127.9252866105055,HCVehicles,16,HCDist,1170.143410614789,HCVehicles,16,HCDist,1281.9554469254238,HCVehicles,16,HCDist,1204.6531759354261,HCVehicles,15,HCDist,1205.3363237408541,HCVehicles,16,HCDist,1180.806379489058,HCVehicles,16,HCDist,1209.0661055488395,HCVehicles,16,AVGHCDist,1198.0914719886305,AVGHCVehicles,15.7,BestHCDist,1127.9252866105055,BestHCVehicles,15,EADist,1093.3964205083105,EAVehicles,15,EADist,1089.3382265115238,EAVehicles,16,EADist,1097.1479991592562,EAVehicles,16,EADist,1090.7501626640853,EAVehicles,15,EADist,1105.0675505089334,EAVehicles,16,EADist,1122.0583379229784,EAVehicles,15,EADist,1083.053992503943,EAVehicles,16,EADist,1085.9010414049399,EAVehicles,15,EADist,1120.2840299762051,EAVehicles,16,EADist,1113.6415235526183,EAVehicles,16,AVGDist,1100.0639284712793,AVGVehicles,15.6,BestDist,1083.053992503943,BestVehicles,15</t>
-  </si>
-  <si>
-    <t>./data/P-n65-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 792),./data/P-n65-k10.vrp,GTDist,1030.8215908144239,GTVehicles,11,CWDist,851.6670635731379,CWVehicles,10,HCDist,1125.0488700228375,HCVehicles,10,HCDist,1139.3227464914053,HCVehicles,10,HCDist,984.1517839308691,HCVehicles,10,HCDist,1071.127336516652,HCVehicles,10,HCDist,1122.515425207474,HCVehicles,10,HCDist,1100.675482422084,HCVehicles,10,HCDist,1071.3601417077507,HCVehicles,10,HCDist,1059.8699561810618,HCVehicles,10,HCDist,1143.7400883028631,HCVehicles,10,HCDist,1045.8089605024218,HCVehicles,10,AVGHCDist,1086.3620791285418,AVGHCVehicles,10.0,BestHCDist,984.1517839308691,BestHCVehicles,10,EADist,872.1049332706691,EAVehicles,10,EADist,942.5551332317075,EAVehicles,10,EADist,887.7313493647076,EAVehicles,10,EADist,948.5534654148796,EAVehicles,10,EADist,876.932622339742,EAVehicles,10,EADist,921.4237902732974,EAVehicles,10,EADist,872.8672721691901,EAVehicles,10,EADist,898.5684012652473,EAVehicles,10,EADist,932.5379016144173,EAVehicles,10,EADist,1006.7229723604344,EAVehicles,10,AVGDist,915.9997841304291,AVGVehicles,10.0,BestDist,872.1049332706691,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/P-n70-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 834),./data/P-n70-k10.vrp,GTDist,1013.1991273991171,GTVehicles,11,CWDist,893.8122241435127,CWVehicles,11,HCDist,1124.541842355076,HCVehicles,11,HCDist,1160.0062819993022,HCVehicles,11,HCDist,1023.2185630704874,HCVehicles,11,HCDist,1113.5462442392193,HCVehicles,11,HCDist,1040.6919091542686,HCVehicles,11,HCDist,1126.4334204432798,HCVehicles,11,HCDist,1068.9822262902715,HCVehicles,11,HCDist,1196.4966123396655,HCVehicles,10,HCDist,1129.2712432213689,HCVehicles,11,HCDist,1109.0543505601704,HCVehicles,11,AVGHCDist,1109.224269367311,AVGHCVehicles,10.9,BestHCDist,1023.2185630704874,BestHCVehicles,10,EADist,968.5582647208795,EAVehicles,10,EADist,968.4834473468006,EAVehicles,10,EADist,1005.1974913041474,EAVehicles,10,EADist,1007.1259599790244,EAVehicles,11,EADist,1004.8186558280611,EAVehicles,11,EADist,1074.2170761160917,EAVehicles,10,EADist,997.6246397506653,EAVehicles,10,EADist,966.0909840899518,EAVehicles,11,EADist,977.7300241051288,EAVehicles,11,EADist,921.3074089884303,EAVehicles,11,AVGDist,989.1153952229182,AVGVehicles,10.5,BestDist,921.3074089884303,BestVehicles,10</t>
-  </si>
-  <si>
-    <t>./data/P-n76-k4.vrp,COMMENT : (Augerat et al, Min no of trucks: 4, Best value: 589),./data/P-n76-k4.vrp,GTDist,755.6662017960386,GTVehicles,4,CWDist,668.1544584302268,CWVehicles,5,HCDist,764.831283885501,HCVehicles,4,HCDist,743.1948992284415,HCVehicles,4,HCDist,980.6575671610814,HCVehicles,4,HCDist,861.2009242151345,HCVehicles,4,HCDist,776.2465080863778,HCVehicles,4,HCDist,844.7214984129753,HCVehicles,4,HCDist,952.6962992748115,HCVehicles,4,HCDist,794.3076258501185,HCVehicles,4,HCDist,757.0688036041092,HCVehicles,4,HCDist,804.1157991764898,HCVehicles,4,AVGHCDist,827.9041208895039,AVGHCVehicles,4.0,BestHCDist,743.1948992284415,BestHCVehicles,4,EADist,679.2419562120775,EAVehicles,4,EADist,772.0007760600483,EAVehicles,4,EADist,737.9847339932755,EAVehicles,4,EADist,761.7715277493145,EAVehicles,4,EADist,742.5669590416715,EAVehicles,4,EADist,755.004739635116,EAVehicles,4,EADist,767.3011277670072,EAVehicles,4,EADist,685.0334744348177,EAVehicles,4,EADist,778.6080825563249,EAVehicles,4,EADist,683.7782116918805,EAVehicles,4,AVGDist,736.3291589141534,AVGVehicles,4.0,BestDist,679.2419562120775,BestVehicles,4</t>
-  </si>
-  <si>
-    <t>./data/P-n76-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Best value: 631),./data/P-n76-k5.vrp,GTDist,812.7549515239897,GTVehicles,6,CWDist,706.2948555155923,CWVehicles,6,HCDist,856.5863874396986,HCVehicles,5,HCDist,988.4737725998709,HCVehicles,5,HCDist,964.5128128149303,HCVehicles,5,HCDist,852.2728957213424,HCVehicles,5,HCDist,893.1725878091306,HCVehicles,5,HCDist,895.4834153589179,HCVehicles,5,HCDist,818.7657611497401,HCVehicles,5,HCDist,897.5191575506921,HCVehicles,5,HCDist,835.932053995134,HCVehicles,5,HCDist,832.2546939506939,HCVehicles,5,AVGHCDist,883.4973538390152,AVGHCVehicles,5.0,BestHCDist,818.7657611497401,BestHCVehicles,5,EADist,864.8686683829054,EAVehicles,5,EADist,689.6274175468334,EAVehicles,5,EADist,857.8188615816832,EAVehicles,5,EADist,791.205170830627,EAVehicles,5,EADist,828.2596658107154,EAVehicles,5,EADist,749.0073562169476,EAVehicles,5,EADist,770.2135204139742,EAVehicles,5,EADist,755.3531042268455,EAVehicles,5,EADist,739.6199998626914,EAVehicles,5,EADist,782.3661667847387,EAVehicles,5,AVGDist,782.8339931657962,AVGVehicles,5.0,BestDist,689.6274175468334,BestVehicles,5</t>
-  </si>
-  <si>
-    <t>./data/P-n101-k4.vrp,COMMENT : (Augerat et al, Min no of trucks: 4, Optimal value: 681),./data/P-n101-k4.vrp,GTDist,945.3325692115909,GTVehicles,4,CWDist,767.8323763098108,CWVehicles,5,HCDist,966.2500792103259,HCVehicles,4,HCDist,958.1777363329205,HCVehicles,4,HCDist,1026.251791330526,HCVehicles,4,HCDist,949.0780733931274,HCVehicles,4,HCDist,1036.2375641932886,HCVehicles,4,HCDist,1023.9831962891055,HCVehicles,4,HCDist,964.2677281445228,HCVehicles,4,HCDist,1035.1291715054313,HCVehicles,4,HCDist,1064.3531003014193,HCVehicles,4,HCDist,1055.9626002327639,HCVehicles,4,AVGHCDist,1007.969104093343,AVGHCVehicles,4.0,BestHCDist,949.0780733931274,BestHCVehicles,4,EADist,931.0461891595728,EAVehicles,4,EADist,1008.5373557543842,EAVehicles,4,EADist,909.2715418525956,EAVehicles,4,EADist,945.6361875166197,EAVehicles,4,EADist,914.3522726107359,EAVehicles,4,EADist,1004.4847880015919,EAVehicles,4,EADist,997.4834959815637,EAVehicles,4,EADist,909.8166729787761,EAVehicles,4,EADist,888.2800737468801,EAVehicles,4,EADist,948.6826930591303,EAVehicles,4,AVGDist,945.7591270661851,AVGVehicles,4.0,BestDist,888.2800737468801,BestVehicles,4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>./data/A-n48-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Best value: 1073),./data/A-n48-k7.vrp,GTDist,1293.1519996962006,GTVehicles,7,GTTime,0.0,CWDist,1112.8222669377485,CWVehicles,7,CWTime,0.0,rndSeed,0,HCDist,1321.2187723406805,HCVehicles,7,rndSeed,1,HCDist,1549.4581224532408,HCVehicles,7,rndSeed,2,HCDist,1306.2742880916667,HCVehicles,7,rndSeed,3,HCDist,1264.9396376193772,HCVehicles,7,rndSeed,4,HCDist,1432.860666536036,HCVehicles,7,rndSeed,5,HCDist,1464.2978874873763,HCVehicles,7,rndSeed,6,HCDist,1359.864126323074,HCVehicles,7,rndSeed,7,HCDist,1330.012131468584,HCVehicles,7,rndSeed,8,HCDist,1443.1955149516887,HCVehicles,7,rndSeed,9,HCDist,1374.2525567797315,HCVehicles,7,AVGHCDist,1384.6373704051457,AVGHCVehicles,7.0,BestHCDist,1264.9396376193772,BestHCVehicles,7,HCAvgTime,5921.0,rndSeed,0,EADist,1194.5563063973652,EAVehicles,7,rndSeed,1,EADist,1201.298995207168,EAVehicles,7,rndSeed,2,EADist,1195.580400046025,EAVehicles,7,rndSeed,3,EADist,1228.0850321157002,EAVehicles,7,rndSeed,4,EADist,1181.6185241034714,EAVehicles,7,rndSeed,5,EADist,1182.037101175544,EAVehicles,7,rndSeed,6,EADist,1133.8276604140729,EAVehicles,7,rndSeed,7,EADist,1153.9590900781732,EAVehicles,7,rndSeed,8,EADist,1249.5418638114065,EAVehicles,7,rndSeed,9,EADist,1220.4946599303585,EAVehicles,7,AVGEADist,1194.0999633279284,AVGEAVehicles,7.0,BestEADist,1133.8276604140729,BestEAVehicles,7,HCAvgTime,11572.6</t>
+  </si>
+  <si>
+    <t>./data/A-n53-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 1010),./data/A-n53-k7.vrp,GTDist,1208.4201840345177,GTVehicles,8,GTTime,0.0,CWDist,1097.5827233091989,CWVehicles,8,CWTime,1.0,rndSeed,0,HCDist,1339.8746929459705,HCVehicles,7,rndSeed,1,HCDist,1299.7391505477106,HCVehicles,7,rndSeed,2,HCDist,1198.3342591320438,HCVehicles,7,rndSeed,3,HCDist,1420.1270391046976,HCVehicles,7,rndSeed,4,HCDist,1483.8898507474057,HCVehicles,7,rndSeed,5,HCDist,1381.6664457173588,HCVehicles,7,rndSeed,6,HCDist,1175.341943881312,HCVehicles,7,rndSeed,7,HCDist,1435.386410598084,HCVehicles,7,rndSeed,8,HCDist,1420.6400572956682,HCVehicles,7,rndSeed,9,HCDist,1274.179222330796,HCVehicles,7,AVGHCDist,1342.917907230105,AVGHCVehicles,7.0,BestHCDist,1175.341943881312,BestHCVehicles,7,HCAvgTime,6739.3,rndSeed,0,EADist,1125.4011207056765,EAVehicles,7,rndSeed,1,EADist,1162.998514781146,EAVehicles,8,rndSeed,2,EADist,1129.792139867752,EAVehicles,7,rndSeed,3,EADist,1142.4950635580794,EAVehicles,7,rndSeed,4,EADist,1160.574426338093,EAVehicles,7,rndSeed,5,EADist,1167.9776785138752,EAVehicles,7,rndSeed,6,EADist,1178.5698567107584,EAVehicles,8,rndSeed,7,EADist,1126.9357122921415,EAVehicles,7,rndSeed,8,EADist,1191.868911332976,EAVehicles,7,rndSeed,9,EADist,1161.9513267072277,EAVehicles,7,AVGEADist,1154.8564750807725,AVGEAVehicles,7.2,BestEADist,1125.4011207056765,BestEAVehicles,7,HCAvgTime,10347.7</t>
+  </si>
+  <si>
+    <t>./data/A-n54-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Best value: 1167),./data/A-n54-k7.vrp,GTDist,1694.1290569960127,GTVehicles,8,GTTime,0.0,CWDist,1204.2544703921958,CWVehicles,7,CWTime,1.0,rndSeed,0,HCDist,1474.8387861442484,HCVehicles,7,rndSeed,1,HCDist,1541.012593700075,HCVehicles,7,rndSeed,2,HCDist,1351.8515000746645,HCVehicles,7,rndSeed,3,HCDist,1551.3767748510484,HCVehicles,7,rndSeed,4,HCDist,1438.282271868863,HCVehicles,7,rndSeed,5,HCDist,1439.1902708408343,HCVehicles,7,rndSeed,6,HCDist,1507.7678943431351,HCVehicles,7,rndSeed,7,HCDist,1444.3481862388614,HCVehicles,7,rndSeed,8,HCDist,1589.4230326984539,HCVehicles,7,rndSeed,9,HCDist,1476.2692831108277,HCVehicles,7,AVGHCDist,1481.436059387101,AVGHCVehicles,7.0,BestHCDist,1351.8515000746645,BestHCVehicles,7,HCAvgTime,6530.1,rndSeed,0,EADist,1350.0517375611523,EAVehicles,7,rndSeed,1,EADist,1336.819889792074,EAVehicles,7,rndSeed,2,EADist,1285.934219436542,EAVehicles,7,rndSeed,3,EADist,1272.6975946390462,EAVehicles,7,rndSeed,4,EADist,1346.241624557481,EAVehicles,7,rndSeed,5,EADist,1282.0584644297132,EAVehicles,7,rndSeed,6,EADist,1273.6292085538407,EAVehicles,7,rndSeed,7,EADist,1297.3459128728305,EAVehicles,7,rndSeed,8,EADist,1316.3634620396242,EAVehicles,7,rndSeed,9,EADist,1265.5183619606614,EAVehicles,7,AVGEADist,1302.6660475842964,AVGEAVehicles,7.0,BestEADist,1265.5183619606614,BestEAVehicles,7,HCAvgTime,10404.5</t>
+  </si>
+  <si>
+    <t>./data/A-n55-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Optimal value: 1073),./data/A-n55-k9.vrp,GTDist,1359.2159614468967,GTVehicles,10,GTTime,0.0,CWDist,1110.5677124418658,CWVehicles,9,CWTime,1.0,rndSeed,0,HCDist,1410.9396573411875,HCVehicles,9,rndSeed,1,HCDist,1329.2725462329017,HCVehicles,9,rndSeed,2,HCDist,1320.765972101756,HCVehicles,9,rndSeed,3,HCDist,1368.9508216781658,HCVehicles,9,rndSeed,4,HCDist,1291.2733688454077,HCVehicles,9,rndSeed,5,HCDist,1408.1722652621575,HCVehicles,9,rndSeed,6,HCDist,1440.4949099610806,HCVehicles,9,rndSeed,7,HCDist,1491.717059806815,HCVehicles,9,rndSeed,8,HCDist,1319.9701447551338,HCVehicles,9,rndSeed,9,HCDist,1448.7803717824672,HCVehicles,9,AVGHCDist,1383.0337117767074,AVGHCVehicles,9.0,BestHCDist,1291.2733688454077,BestHCVehicles,9,HCAvgTime,6934.7,rndSeed,0,EADist,1230.045084834932,EAVehicles,9,rndSeed,1,EADist,1271.5893398173168,EAVehicles,9,rndSeed,2,EADist,1196.8208188474255,EAVehicles,9,rndSeed,3,EADist,1179.9564635847678,EAVehicles,9,rndSeed,4,EADist,1229.0596626383176,EAVehicles,9,rndSeed,5,EADist,1194.016874873928,EAVehicles,9,rndSeed,6,EADist,1185.2146427398966,EAVehicles,9,rndSeed,7,EADist,1254.2164844253539,EAVehicles,9,rndSeed,8,EADist,1120.4240535306271,EAVehicles,9,rndSeed,9,EADist,1269.5912549588736,EAVehicles,9,AVGEADist,1213.093468025144,AVGEAVehicles,9.0,BestEADist,1120.4240535306271,BestEAVehicles,9,HCAvgTime,11169.6</t>
+  </si>
+  <si>
+    <t>./data/A-n60-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1408),./data/A-n60-k9.vrp,GTDist,1612.3417744458004,GTVehicles,10,GTTime,0.0,CWDist,1399.8911070503152,CWVehicles,9,CWTime,1.0,rndSeed,0,HCDist,1821.2623915767563,HCVehicles,9,rndSeed,1,HCDist,1695.610607820026,HCVehicles,9,rndSeed,2,HCDist,1702.8016337829272,HCVehicles,9,rndSeed,3,HCDist,1690.0881917993772,HCVehicles,9,rndSeed,4,HCDist,1727.8818609461123,HCVehicles,9,rndSeed,5,HCDist,1614.589237548375,HCVehicles,9,rndSeed,6,HCDist,1539.5755568440716,HCVehicles,9,rndSeed,7,HCDist,1827.642316303934,HCVehicles,9,rndSeed,8,HCDist,1676.2735514618735,HCVehicles,9,rndSeed,9,HCDist,1731.622479759998,HCVehicles,9,AVGHCDist,1702.7347827843448,AVGHCVehicles,9.0,BestHCDist,1539.5755568440716,BestHCVehicles,9,HCAvgTime,7525.4,rndSeed,0,EADist,1472.0245780514902,EAVehicles,9,rndSeed,1,EADist,1558.1483132745298,EAVehicles,9,rndSeed,2,EADist,1510.7031194399806,EAVehicles,9,rndSeed,3,EADist,1561.9036954915744,EAVehicles,9,rndSeed,4,EADist,1474.5247074797117,EAVehicles,9,rndSeed,5,EADist,1530.1064544372646,EAVehicles,9,rndSeed,6,EADist,1526.6826667117418,EAVehicles,9,rndSeed,7,EADist,1555.7216541335818,EAVehicles,9,rndSeed,8,EADist,1471.8243557343271,EAVehicles,9,rndSeed,9,EADist,1554.2786548083632,EAVehicles,9,AVGEADist,1521.5918199562566,AVGEAVehicles,9.0,BestEADist,1471.8243557343271,BestEAVehicles,9,HCAvgTime,12919.4</t>
+  </si>
+  <si>
+    <t>./data/A-n61-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1035),./data/A-n61-k9.vrp,GTDist,1250.013643993661,GTVehicles,10,GTTime,1.0,CWDist,1108.2819519138,CWVehicles,10,CWTime,0.0,rndSeed,0,HCDist,1344.5599592086937,HCVehicles,10,rndSeed,1,HCDist,1436.7493316212997,HCVehicles,10,rndSeed,2,HCDist,1218.9965799223005,HCVehicles,10,rndSeed,3,HCDist,1483.444373365923,HCVehicles,10,rndSeed,4,HCDist,1405.0697891070815,HCVehicles,10,rndSeed,5,HCDist,1489.807121520746,HCVehicles,10,rndSeed,6,HCDist,1282.2821445404973,HCVehicles,10,rndSeed,7,HCDist,1456.9910694287785,HCVehicles,10,rndSeed,8,HCDist,1251.9895022280266,HCVehicles,10,rndSeed,9,HCDist,1466.8714881516892,HCVehicles,10,AVGHCDist,1383.6761359095037,AVGHCVehicles,10.0,BestHCDist,1218.9965799223005,BestHCVehicles,10,HCAvgTime,7747.9,rndSeed,0,EADist,1203.315823101581,EAVehicles,10,rndSeed,1,EADist,1178.5441073325735,EAVehicles,10,rndSeed,2,EADist,1295.5712236939635,EAVehicles,10,rndSeed,3,EADist,1205.3414286113634,EAVehicles,10,rndSeed,4,EADist,1296.4997059785833,EAVehicles,10,rndSeed,5,EADist,1171.723996252243,EAVehicles,10,rndSeed,6,EADist,1160.4390892930426,EAVehicles,10,rndSeed,7,EADist,1218.1920875228589,EAVehicles,10,rndSeed,8,EADist,1289.5468941498636,EAVehicles,9,rndSeed,9,EADist,1217.1529883468763,EAVehicles,10,AVGEADist,1223.632734428295,AVGEAVehicles,9.9,BestEADist,1160.4390892930426,BestEAVehicles,9,HCAvgTime,13153.0</t>
+  </si>
+  <si>
+    <t>./data/A-n62-k8.vrp,COMMENT : (Augerat et al, Min no of trucks: 8, Best value: 1290),./data/A-n62-k8.vrp,GTDist,1597.8247827279204,GTVehicles,8,GTTime,0.0,CWDist,1352.8113271760067,CWVehicles,8,CWTime,1.0,rndSeed,0,HCDist,1752.3397643033188,HCVehicles,8,rndSeed,1,HCDist,1748.9935337145307,HCVehicles,8,rndSeed,2,HCDist,1815.124324085557,HCVehicles,8,rndSeed,3,HCDist,1893.0504430708827,HCVehicles,8,rndSeed,4,HCDist,1729.8943679668823,HCVehicles,8,rndSeed,5,HCDist,1756.8454546009832,HCVehicles,8,rndSeed,6,HCDist,1773.906100411436,HCVehicles,8,rndSeed,7,HCDist,1635.743742080071,HCVehicles,8,rndSeed,8,HCDist,1973.6516543632447,HCVehicles,8,rndSeed,9,HCDist,1553.5975482500953,HCVehicles,8,AVGHCDist,1763.3146932847,AVGHCVehicles,8.0,BestHCDist,1553.5975482500953,BestHCVehicles,8,HCAvgTime,7694.4,rndSeed,0,EADist,1426.8451649234164,EAVehicles,8,rndSeed,1,EADist,1546.5006586573272,EAVehicles,8,rndSeed,2,EADist,1422.4876000828265,EAVehicles,8,rndSeed,3,EADist,1489.3404740625826,EAVehicles,8,rndSeed,4,EADist,1452.6833146937563,EAVehicles,8,rndSeed,5,EADist,1529.1285602788369,EAVehicles,8,rndSeed,6,EADist,1433.626716429777,EAVehicles,8,rndSeed,7,EADist,1523.7135637864733,EAVehicles,8,rndSeed,8,EADist,1588.6705564760148,EAVehicles,8,rndSeed,9,EADist,1512.2079613926285,EAVehicles,8,AVGEADist,1492.520457078364,AVGEAVehicles,8.0,BestEADist,1422.4876000828265,BestEAVehicles,8,HCAvgTime,12928.6</t>
+  </si>
+  <si>
+    <t>./data/A-n63-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1634),./data/A-n63-k9.vrp,GTDist,2017.37803160544,GTVehicles,10,GTTime,0.0,CWDist,1687.9633015172542,CWVehicles,10,CWTime,1.0,rndSeed,0,HCDist,2307.179172208011,HCVehicles,9,rndSeed,1,HCDist,2138.4067604768943,HCVehicles,10,rndSeed,2,HCDist,2216.590797123139,HCVehicles,9,rndSeed,3,HCDist,2078.1624755892394,HCVehicles,9,rndSeed,4,HCDist,2083.3359640028393,HCVehicles,10,rndSeed,5,HCDist,2220.947997915067,HCVehicles,10,rndSeed,6,HCDist,1890.7955016910119,HCVehicles,9,rndSeed,7,HCDist,1978.900810599356,HCVehicles,9,rndSeed,8,HCDist,1992.48719674514,HCVehicles,9,rndSeed,9,HCDist,1896.9813869376694,HCVehicles,9,AVGHCDist,2080.3788063288366,AVGHCVehicles,9.3,BestHCDist,1890.7955016910119,BestHCVehicles,9,HCAvgTime,7776.7,rndSeed,0,EADist,1760.4460263258802,EAVehicles,9,rndSeed,1,EADist,1890.2117084686015,EAVehicles,9,rndSeed,2,EADist,1885.607334790158,EAVehicles,10,rndSeed,3,EADist,1936.43210439769,EAVehicles,10,rndSeed,4,EADist,1802.1431850005197,EAVehicles,9,rndSeed,5,EADist,1827.8916839136236,EAVehicles,9,rndSeed,6,EADist,1924.4602565293012,EAVehicles,10,rndSeed,7,EADist,1842.851987136145,EAVehicles,9,rndSeed,8,EADist,1796.1826030188274,EAVehicles,9,rndSeed,9,EADist,1836.4998449912027,EAVehicles,10,AVGEADist,1850.2726734571947,AVGEAVehicles,9.4,BestEADist,1760.4460263258802,BestEAVehicles,9,HCAvgTime,13595.2</t>
+  </si>
+  <si>
+    <t>./data/A-n63-k10.vrp,COMMENT : (Augerat et al, Min no of trucks: 10, Best value: 1315),./data/A-n63-k10.vrp,GTDist,1524.7742098093065,GTVehicles,10,GTTime,0.0,CWDist,1377.865702753665,CWVehicles,10,CWTime,1.0,rndSeed,0,HCDist,1770.3891474215197,HCVehicles,10,rndSeed,1,HCDist,1619.3870817231104,HCVehicles,10,rndSeed,2,HCDist,1619.1637003336127,HCVehicles,10,rndSeed,3,HCDist,1775.7657482272812,HCVehicles,10,rndSeed,4,HCDist,1777.6508107725128,HCVehicles,10,rndSeed,5,HCDist,1695.3663004167943,HCVehicles,10,rndSeed,6,HCDist,1626.746780103382,HCVehicles,10,rndSeed,7,HCDist,1636.4468900972063,HCVehicles,10,rndSeed,8,HCDist,1668.7529849442608,HCVehicles,10,rndSeed,9,HCDist,1689.214803042376,HCVehicles,10,AVGHCDist,1687.8884247082053,AVGHCVehicles,10.0,BestHCDist,1619.1637003336127,BestHCVehicles,10,HCAvgTime,7834.5,rndSeed,0,EADist,1499.2373648782257,EAVehicles,10,rndSeed,1,EADist,1460.4237131304203,EAVehicles,10,rndSeed,2,EADist,1574.9779834774022,EAVehicles,10,rndSeed,3,EADist,1660.0098112736441,EAVehicles,10,rndSeed,4,EADist,1452.74403351255,EAVehicles,10,rndSeed,5,EADist,1496.4257310647963,EAVehicles,11,rndSeed,6,EADist,1556.6657615047652,EAVehicles,10,rndSeed,7,EADist,1493.6952931921041,EAVehicles,10,rndSeed,8,EADist,1558.6827919322375,EAVehicles,11,rndSeed,9,EADist,1515.7359224259587,EAVehicles,10,AVGEADist,1526.8598406392102,AVGEAVehicles,10.2,BestEADist,1452.74403351255,BestEAVehicles,10,HCAvgTime,14008.5</t>
+  </si>
+  <si>
+    <t>./data/A-n64-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1402),./data/A-n64-k9.vrp,GTDist,1685.172719517292,GTVehicles,10,GTTime,1.0,CWDist,1468.897764271425,CWVehicles,10,CWTime,0.0,rndSeed,0,HCDist,1723.5536148201284,HCVehicles,9,rndSeed,1,HCDist,1773.470284289052,HCVehicles,9,rndSeed,2,HCDist,1844.4087941243538,HCVehicles,9,rndSeed,3,HCDist,1667.94010270146,HCVehicles,9,rndSeed,4,HCDist,1761.9281679128078,HCVehicles,9,rndSeed,5,HCDist,1792.2312957520028,HCVehicles,9,rndSeed,6,HCDist,1859.3445352661595,HCVehicles,9,rndSeed,7,HCDist,1697.9722084802256,HCVehicles,9,rndSeed,8,HCDist,1728.189172077946,HCVehicles,9,rndSeed,9,HCDist,1627.3473377435948,HCVehicles,9,AVGHCDist,1747.638551316773,AVGHCVehicles,9.0,BestHCDist,1627.3473377435948,BestHCVehicles,9,HCAvgTime,7750.7,rndSeed,0,EADist,1603.287242464431,EAVehicles,9,rndSeed,1,EADist,1582.9592584360134,EAVehicles,9,rndSeed,2,EADist,1587.1853187622664,EAVehicles,9,rndSeed,3,EADist,1526.6728635081677,EAVehicles,9,rndSeed,4,EADist,1610.6665688518478,EAVehicles,9,rndSeed,5,EADist,1531.4755249081807,EAVehicles,9,rndSeed,6,EADist,1639.6726156385764,EAVehicles,9,rndSeed,7,EADist,1515.6355304052881,EAVehicles,9,rndSeed,8,EADist,1594.8957110308495,EAVehicles,9,rndSeed,9,EADist,1554.4611296858945,EAVehicles,9,AVGEADist,1574.6911763691517,AVGEAVehicles,9.0,BestEADist,1515.6355304052881,BestEAVehicles,9,HCAvgTime,13215.9</t>
+  </si>
+  <si>
+    <t>./data/A-n65-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1177),./data/A-n65-k9.vrp,GTDist,1428.0329305057262,GTVehicles,10,GTTime,1.0,CWDist,1245.350111054426,CWVehicles,10,CWTime,0.0,rndSeed,0,HCDist,1804.100728494539,HCVehicles,9,rndSeed,1,HCDist,1833.6463635743971,HCVehicles,9,rndSeed,2,HCDist,1565.6050327050978,HCVehicles,9,rndSeed,3,HCDist,1696.162376314824,HCVehicles,10,rndSeed,4,HCDist,1653.805582133529,HCVehicles,9,rndSeed,5,HCDist,1591.228692775051,HCVehicles,9,rndSeed,6,HCDist,1536.6646660265835,HCVehicles,10,rndSeed,7,HCDist,1637.2242304566462,HCVehicles,9,rndSeed,8,HCDist,1796.6826570861233,HCVehicles,10,rndSeed,9,HCDist,1584.3037938968782,HCVehicles,9,AVGHCDist,1669.9424123463668,AVGHCVehicles,9.3,BestHCDist,1536.6646660265835,BestHCVehicles,9,HCAvgTime,7382.3,rndSeed,0,EADist,1496.864130883048,EAVehicles,9,rndSeed,1,EADist,1440.2346839816526,EAVehicles,10,rndSeed,2,EADist,1321.608062274807,EAVehicles,10,rndSeed,3,EADist,1333.5780391602223,EAVehicles,10,rndSeed,4,EADist,1365.1270408520932,EAVehicles,10,rndSeed,5,EADist,1216.0312898557888,EAVehicles,9,rndSeed,6,EADist,1290.976710974165,EAVehicles,10,rndSeed,7,EADist,1306.8768905869806,EAVehicles,9,rndSeed,8,EADist,1386.011581530928,EAVehicles,10,rndSeed,9,EADist,1441.5563396136156,EAVehicles,9,AVGEADist,1359.8864769713298,AVGEAVehicles,9.6,BestEADist,1216.0312898557888,BestEAVehicles,9,HCAvgTime,14295.7</t>
+  </si>
+  <si>
+    <t>./data/A-n69-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1168),./data/A-n69-k9.vrp,GTDist,1394.7771150094134,GTVehicles,9,GTTime,0.0,CWDist,1222.3233529356164,CWVehicles,9,CWTime,1.0,rndSeed,0,HCDist,1437.9624776964813,HCVehicles,9,rndSeed,1,HCDist,1473.3380598432598,HCVehicles,10,rndSeed,2,HCDist,1470.8994535433173,HCVehicles,9,rndSeed,3,HCDist,1419.5725052452174,HCVehicles,9,rndSeed,4,HCDist,1569.4163982378677,HCVehicles,9,rndSeed,5,HCDist,1498.9794067889034,HCVehicles,9,rndSeed,6,HCDist,1692.8205795822164,HCVehicles,9,rndSeed,7,HCDist,1601.8085398037479,HCVehicles,9,rndSeed,8,HCDist,1434.5860609107988,HCVehicles,9,rndSeed,9,HCDist,1505.4634312531423,HCVehicles,9,AVGHCDist,1510.484691290495,AVGHCVehicles,9.1,BestHCDist,1419.5725052452174,BestHCVehicles,9,HCAvgTime,8973.9,rndSeed,0,EADist,1380.1068235378018,EAVehicles,9,rndSeed,1,EADist,1354.073617195488,EAVehicles,9,rndSeed,2,EADist,1340.5485303040584,EAVehicles,9,rndSeed,3,EADist,1348.6057217531982,EAVehicles,9,rndSeed,4,EADist,1392.2613078091754,EAVehicles,9,rndSeed,5,EADist,1321.8633083956165,EAVehicles,9,rndSeed,6,EADist,1427.2435379898454,EAVehicles,9,rndSeed,7,EADist,1387.8122733671064,EAVehicles,9,rndSeed,8,EADist,1326.9459270578245,EAVehicles,9,rndSeed,9,EADist,1438.2018569457168,EAVehicles,9,AVGEADist,1371.7662904355832,AVGEAVehicles,9.0,BestEADist,1321.8633083956165,BestEAVehicles,9,HCAvgTime,16243.7</t>
+  </si>
+  <si>
+    <t>./data/A-n80-k10.vrp,COMMENT : (Augerat et al, Min no of trucks: 10, Best value: 1764),./data/A-n80-k10.vrp,GTDist,2055.2598437787647,GTVehicles,10,GTTime,0.0,CWDist,1875.027021797226,CWVehicles,10,CWTime,2.0,rndSeed,0,HCDist,2195.30984678982,HCVehicles,10,rndSeed,1,HCDist,2212.7077729288208,HCVehicles,10,rndSeed,2,HCDist,2194.1223103790817,HCVehicles,10,rndSeed,3,HCDist,2300.6867826673624,HCVehicles,10,rndSeed,4,HCDist,2328.54932047924,HCVehicles,10,rndSeed,5,HCDist,2185.170370016846,HCVehicles,10,rndSeed,6,HCDist,2093.920957612594,HCVehicles,10,rndSeed,7,HCDist,2126.764042731977,HCVehicles,10,rndSeed,8,HCDist,2253.216961482505,HCVehicles,10,rndSeed,9,HCDist,2267.514602403879,HCVehicles,10,AVGHCDist,2215.7962967492126,AVGHCVehicles,10.0,BestHCDist,2093.920957612594,BestHCVehicles,10,HCAvgTime,10679.5,rndSeed,0,EADist,2080.1347212926566,EAVehicles,10,rndSeed,1,EADist,2120.071453628111,EAVehicles,10,rndSeed,2,EADist,2040.3157157314474,EAVehicles,10,rndSeed,3,EADist,1974.9210870968097,EAVehicles,10,rndSeed,4,EADist,2208.90130872549,EAVehicles,10,rndSeed,5,EADist,2177.211761274355,EAVehicles,10,rndSeed,6,EADist,2166.198651829119,EAVehicles,10,rndSeed,7,EADist,2062.256851631014,EAVehicles,10,rndSeed,8,EADist,2139.316255390596,EAVehicles,10,rndSeed,9,EADist,2085.7238153736957,EAVehicles,10,AVGEADist,2105.5051621973294,AVGEAVehicles,10.0,BestEADist,1974.9210870968097,BestEAVehicles,10,HCAvgTime,20912.5</t>
+  </si>
+  <si>
+    <t>./data/B-n31-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 672),./data/B-n31-k5.vrp,GTDist,722.2600507797389,GTVehicles,5,GTTime,0.0,CWDist,681.164054610939,CWVehicles,5,CWTime,0.0,rndSeed,0,HCDist,828.1137933804005,HCVehicles,5,rndSeed,1,HCDist,721.9594918650067,HCVehicles,5,rndSeed,2,HCDist,877.2218379658718,HCVehicles,5,rndSeed,3,HCDist,734.4138691866046,HCVehicles,5,rndSeed,4,HCDist,725.2739567464762,HCVehicles,5,rndSeed,5,HCDist,750.720301100636,HCVehicles,5,rndSeed,6,HCDist,851.8359480865402,HCVehicles,5,rndSeed,7,HCDist,747.4830253789731,HCVehicles,5,rndSeed,8,HCDist,782.7727536343958,HCVehicles,5,rndSeed,9,HCDist,703.7101845663356,HCVehicles,5,AVGHCDist,772.350516191124,AVGHCVehicles,5.0,BestHCDist,703.7101845663356,BestHCVehicles,5,HCAvgTime,3943.5,rndSeed,0,EADist,676.6098622264935,EAVehicles,5,rndSeed,1,EADist,676.5277212268707,EAVehicles,5,rndSeed,2,EADist,677.1555944548586,EAVehicles,5,rndSeed,3,EADist,676.5044037934865,EAVehicles,5,rndSeed,4,EADist,679.7107124173581,EAVehicles,5,rndSeed,5,EADist,676.0884122584414,EAVehicles,5,rndSeed,6,EADist,676.0884122584414,EAVehicles,5,rndSeed,7,EADist,676.0884122584414,EAVehicles,5,rndSeed,8,EADist,676.0884122584414,EAVehicles,5,rndSeed,9,EADist,676.5044037934865,EAVehicles,5,AVGEADist,676.7366346946319,AVGEAVehicles,5.0,BestEADist,676.0884122584414,BestEAVehicles,5,HCAvgTime,5223.2</t>
+  </si>
+  <si>
+    <t>./data/B-n34-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 788),./data/B-n34-k5.vrp,GTDist,847.4265106160249,GTVehicles,5,GTTime,0.0,CWDist,798.7061382442344,CWVehicles,5,CWTime,1.0,rndSeed,0,HCDist,909.3565132990813,HCVehicles,5,rndSeed,1,HCDist,920.9504528766424,HCVehicles,5,rndSeed,2,HCDist,898.3599452229746,HCVehicles,5,rndSeed,3,HCDist,912.0707737708924,HCVehicles,5,rndSeed,4,HCDist,903.7451211796835,HCVehicles,5,rndSeed,5,HCDist,961.2306418100494,HCVehicles,5,rndSeed,6,HCDist,873.6883206266002,HCVehicles,5,rndSeed,7,HCDist,874.3537002978983,HCVehicles,5,rndSeed,8,HCDist,865.6531214784461,HCVehicles,5,rndSeed,9,HCDist,936.9035921431366,HCVehicles,5,AVGHCDist,905.6312182705406,AVGHCVehicles,5.0,BestHCDist,865.6531214784461,BestHCVehicles,5,HCAvgTime,4194.3,rndSeed,0,EADist,832.4941678420495,EAVehicles,5,rndSeed,1,EADist,795.6498247843397,EAVehicles,5,rndSeed,2,EADist,800.4980475061524,EAVehicles,5,rndSeed,3,EADist,800.193268332946,EAVehicles,5,rndSeed,4,EADist,822.4975073699819,EAVehicles,5,rndSeed,5,EADist,795.6498247843397,EAVehicles,5,rndSeed,6,EADist,796.9761469666141,EAVehicles,5,rndSeed,7,EADist,798.8599726820208,EAVehicles,5,rndSeed,8,EADist,803.180703100527,EAVehicles,5,rndSeed,9,EADist,790.5698575998474,EAVehicles,5,AVGEADist,803.656932096882,AVGEAVehicles,5.0,BestEADist,790.5698575998474,BestEAVehicles,5,HCAvgTime,5853.0</t>
+  </si>
+  <si>
+    <t>./data/B-n35-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 955),./data/B-n35-k5.vrp,GTDist,1033.8234672401238,GTVehicles,5,GTTime,0.0,CWDist,981.4658076584885,CWVehicles,5,CWTime,0.0,rndSeed,0,HCDist,1110.8027566279159,HCVehicles,5,rndSeed,1,HCDist,1159.9420699318173,HCVehicles,5,rndSeed,2,HCDist,1165.289614012858,HCVehicles,5,rndSeed,3,HCDist,1032.2387272275873,HCVehicles,5,rndSeed,4,HCDist,1149.0825876534159,HCVehicles,5,rndSeed,5,HCDist,1248.1788737074335,HCVehicles,5,rndSeed,6,HCDist,1078.737497878338,HCVehicles,5,rndSeed,7,HCDist,1072.060872353445,HCVehicles,5,rndSeed,8,HCDist,1106.5808049755742,HCVehicles,5,rndSeed,9,HCDist,1143.7582494896396,HCVehicles,5,AVGHCDist,1126.6672053858024,AVGHCVehicles,5.0,BestHCDist,1032.2387272275873,BestHCVehicles,5,HCAvgTime,4466.8,rndSeed,0,EADist,969.524241411698,EAVehicles,5,rndSeed,1,EADist,1013.8015633549647,EAVehicles,5,rndSeed,2,EADist,972.9147386237951,EAVehicles,5,rndSeed,3,EADist,982.7752712184245,EAVehicles,5,rndSeed,4,EADist,972.9147386237951,EAVehicles,5,rndSeed,5,EADist,984.6654752492342,EAVehicles,5,rndSeed,6,EADist,964.0330289623978,EAVehicles,5,rndSeed,7,EADist,967.0892796661108,EAVehicles,5,rndSeed,8,EADist,972.1304109820646,EAVehicles,5,rndSeed,9,EADist,958.8934983452851,EAVehicles,5,AVGEADist,975.8742246437771,AVGEAVehicles,5.0,BestEADist,958.8934983452851,BestEAVehicles,5,HCAvgTime,5935.4</t>
+  </si>
+  <si>
+    <t>./data/B-n38-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 805),./data/B-n38-k6.vrp,GTDist,908.4653532228372,GTVehicles,6,GTTime,0.0,CWDist,831.86574264654,CWVehicles,6,CWTime,0.0,rndSeed,0,HCDist,1125.0487005523214,HCVehicles,6,rndSeed,1,HCDist,946.1315959278057,HCVehicles,6,rndSeed,2,HCDist,1028.9411088997654,HCVehicles,6,rndSeed,3,HCDist,1061.5489168553722,HCVehicles,6,rndSeed,4,HCDist,866.4019984386983,HCVehicles,6,rndSeed,5,HCDist,935.6879871765798,HCVehicles,6,rndSeed,6,HCDist,1073.707466937394,HCVehicles,6,rndSeed,7,HCDist,907.0371065459098,HCVehicles,6,rndSeed,8,HCDist,873.9052676257136,HCVehicles,6,rndSeed,9,HCDist,933.0194757694632,HCVehicles,6,AVGHCDist,975.1429624729022,AVGHCVehicles,6.0,BestHCDist,866.4019984386983,BestHCVehicles,6,HCAvgTime,4835.4,rndSeed,0,EADist,829.6328638682464,EAVehicles,6,rndSeed,1,EADist,822.0771894705908,EAVehicles,6,rndSeed,2,EADist,840.6861733555606,EAVehicles,6,rndSeed,3,EADist,815.7538439690379,EAVehicles,6,rndSeed,4,EADist,841.1419240840446,EAVehicles,6,rndSeed,5,EADist,818.454231261466,EAVehicles,6,rndSeed,6,EADist,837.1145407364486,EAVehicles,6,rndSeed,7,EADist,841.320010698438,EAVehicles,6,rndSeed,8,EADist,821.1576085032282,EAVehicles,6,rndSeed,9,EADist,829.4435378338842,EAVehicles,6,AVGEADist,829.6781923780945,AVGEAVehicles,6.0,BestEADist,815.7538439690379,BestEAVehicles,6,HCAvgTime,6384.1</t>
+  </si>
+  <si>
+    <t>./data/B-n39-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 549),./data/B-n39-k5.vrp,GTDist,655.3069865609546,GTVehicles,5,GTTime,0.0,CWDist,566.7053718048618,CWVehicles,5,CWTime,0.0,rndSeed,0,HCDist,908.2349114492531,HCVehicles,5,rndSeed,1,HCDist,833.7283896699146,HCVehicles,5,rndSeed,2,HCDist,769.1449598218278,HCVehicles,5,rndSeed,3,HCDist,812.2993248462619,HCVehicles,5,rndSeed,4,HCDist,863.1562555677269,HCVehicles,5,rndSeed,5,HCDist,761.6050498382955,HCVehicles,5,rndSeed,6,HCDist,744.692075442961,HCVehicles,5,rndSeed,7,HCDist,761.9825990457164,HCVehicles,5,rndSeed,8,HCDist,751.8761363489568,HCVehicles,5,rndSeed,9,HCDist,811.7270986307764,HCVehicles,5,AVGHCDist,801.8446800661691,AVGHCVehicles,5.0,BestHCDist,744.692075442961,BestHCVehicles,5,HCAvgTime,4551.3,rndSeed,0,EADist,572.9880719952906,EAVehicles,5,rndSeed,1,EADist,570.9562721779535,EAVehicles,5,rndSeed,2,EADist,610.4858309790546,EAVehicles,5,rndSeed,3,EADist,567.3139482657965,EAVehicles,5,rndSeed,4,EADist,587.459391649938,EAVehicles,5,rndSeed,5,EADist,572.9233090053817,EAVehicles,5,rndSeed,6,EADist,561.9638662242852,EAVehicles,5,rndSeed,7,EADist,574.3515329358974,EAVehicles,5,rndSeed,8,EADist,593.393298233496,EAVehicles,5,rndSeed,9,EADist,564.6642019688345,EAVehicles,5,AVGEADist,577.6499723435928,AVGEAVehicles,5.0,BestEADist,561.9638662242852,BestEAVehicles,5,HCAvgTime,6302.4</t>
+  </si>
+  <si>
+    <t>./data/B-n41-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 829),./data/B-n41-k6.vrp,GTDist,1168.34247205839,GTVehicles,7,GTTime,0.0,CWDist,899.9012987802323,CWVehicles,7,CWTime,0.0,rndSeed,0,HCDist,1038.47218507901,HCVehicles,6,rndSeed,1,HCDist,1180.0056007441858,HCVehicles,6,rndSeed,2,HCDist,1054.1641447853226,HCVehicles,6,rndSeed,3,HCDist,1022.492999073287,HCVehicles,6,rndSeed,4,HCDist,1111.2963985979109,HCVehicles,6,rndSeed,5,HCDist,1193.1554860035096,HCVehicles,6,rndSeed,6,HCDist,932.2410051868197,HCVehicles,6,rndSeed,7,HCDist,1197.2179264314111,HCVehicles,6,rndSeed,8,HCDist,987.8117648330692,HCVehicles,6,rndSeed,9,HCDist,1065.5212885002288,HCVehicles,6,AVGHCDist,1078.2378799234755,AVGHCVehicles,6.0,BestHCDist,932.2410051868197,BestHCVehicles,6,HCAvgTime,4854.3,rndSeed,0,EADist,864.3046479121069,EAVehicles,6,rndSeed,1,EADist,884.4155649661668,EAVehicles,6,rndSeed,2,EADist,855.7896354934186,EAVehicles,6,rndSeed,3,EADist,852.8582946284051,EAVehicles,6,rndSeed,4,EADist,965.7037458264208,EAVehicles,6,rndSeed,5,EADist,890.7979068218239,EAVehicles,6,rndSeed,6,EADist,883.6526080526914,EAVehicles,6,rndSeed,7,EADist,866.3597851857317,EAVehicles,6,rndSeed,8,EADist,889.1005603439309,EAVehicles,6,rndSeed,9,EADist,866.9882715041763,EAVehicles,6,AVGEADist,881.9971020734872,AVGEAVehicles,6.0,BestEADist,852.8582946284051,BestEAVehicles,6,HCAvgTime,6869.3</t>
+  </si>
+  <si>
+    <t>./data/B-n43-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 742),./data/B-n43-k6.vrp,GTDist,809.5349272091424,GTVehicles,6,GTTime,0.0,CWDist,780.7994834097825,CWVehicles,6,CWTime,1.0,rndSeed,0,HCDist,987.17444626485,HCVehicles,6,rndSeed,1,HCDist,973.0637429673433,HCVehicles,6,rndSeed,2,HCDist,932.0034368205827,HCVehicles,6,rndSeed,3,HCDist,930.9453706120064,HCVehicles,6,rndSeed,4,HCDist,900.8842218722469,HCVehicles,6,rndSeed,5,HCDist,955.643567824371,HCVehicles,6,rndSeed,6,HCDist,946.2134966942799,HCVehicles,6,rndSeed,7,HCDist,818.1525154032647,HCVehicles,6,rndSeed,8,HCDist,825.6292753043314,HCVehicles,6,rndSeed,9,HCDist,983.4487806915201,HCVehicles,6,AVGHCDist,925.3158854454796,AVGHCVehicles,6.0,BestHCDist,818.1525154032647,BestHCVehicles,6,HCAvgTime,5163.1,rndSeed,0,EADist,803.1824529482141,EAVehicles,6,rndSeed,1,EADist,809.3127164876255,EAVehicles,6,rndSeed,2,EADist,805.2651515125954,EAVehicles,6,rndSeed,3,EADist,806.1831094094039,EAVehicles,6,rndSeed,4,EADist,804.0997887060508,EAVehicles,6,rndSeed,5,EADist,791.3710595134546,EAVehicles,6,rndSeed,6,EADist,811.521576322288,EAVehicles,6,rndSeed,7,EADist,812.7820680627525,EAVehicles,6,rndSeed,8,EADist,849.4585616030265,EAVehicles,6,rndSeed,9,EADist,752.2877066464678,EAVehicles,6,AVGEADist,804.5464191211879,AVGEAVehicles,6.0,BestEADist,752.2877066464678,BestEAVehicles,6,HCAvgTime,7381.0</t>
+  </si>
+  <si>
+    <t>./data/B-n44-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 909),./data/B-n44-k7.vrp,GTDist,1189.2923013817792,GTVehicles,8,GTTime,0.0,CWDist,937.7351985254668,CWVehicles,7,CWTime,0.0,rndSeed,0,HCDist,1098.9071685927543,HCVehicles,7,rndSeed,1,HCDist,1117.8956582541039,HCVehicles,7,rndSeed,2,HCDist,1231.1175380181608,HCVehicles,7,rndSeed,3,HCDist,1283.5059696205622,HCVehicles,7,rndSeed,4,HCDist,1173.4147004377455,HCVehicles,7,rndSeed,5,HCDist,1128.3539664416276,HCVehicles,7,rndSeed,6,HCDist,1049.3624890595156,HCVehicles,7,rndSeed,7,HCDist,1050.907340568231,HCVehicles,7,rndSeed,8,HCDist,1113.8812667437078,HCVehicles,7,rndSeed,9,HCDist,1219.365644432058,HCVehicles,7,AVGHCDist,1146.6711742168468,AVGHCVehicles,7.0,BestHCDist,1049.3624890595156,BestHCVehicles,7,HCAvgTime,5305.5,rndSeed,0,EADist,1009.6657423354795,EAVehicles,7,rndSeed,1,EADist,1023.169985557954,EAVehicles,7,rndSeed,2,EADist,974.6491981061616,EAVehicles,7,rndSeed,3,EADist,1054.9382438677774,EAVehicles,7,rndSeed,4,EADist,987.5099888995742,EAVehicles,7,rndSeed,5,EADist,966.745017582853,EAVehicles,7,rndSeed,6,EADist,938.7262690743137,EAVehicles,7,rndSeed,7,EADist,1026.297856221794,EAVehicles,7,rndSeed,8,EADist,960.7535149539693,EAVehicles,7,rndSeed,9,EADist,977.6702109034654,EAVehicles,7,AVGEADist,992.0126027503342,AVGEAVehicles,7.0,BestEADist,938.7262690743137,BestEAVehicles,7,HCAvgTime,7702.6</t>
+  </si>
+  <si>
+    <t>./data/B-n45-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Optimal value: 751),./data/B-n45-k5.vrp,GTDist,842.0764615811889,GTVehicles,6,GTTime,0.0,CWDist,767.3063468997528,CWVehicles,5,CWTime,0.0,rndSeed,0,HCDist,915.518220261039,HCVehicles,5,rndSeed,1,HCDist,1124.6462696030326,HCVehicles,6,rndSeed,2,HCDist,871.2961194250157,HCVehicles,5,rndSeed,3,HCDist,976.7012189724633,HCVehicles,5,rndSeed,4,HCDist,913.0535160220828,HCVehicles,6,rndSeed,5,HCDist,896.1043228808642,HCVehicles,5,rndSeed,6,HCDist,1127.9358783599348,HCVehicles,5,rndSeed,7,HCDist,1032.771808117725,HCVehicles,5,rndSeed,8,HCDist,975.2512583921452,HCVehicles,5,rndSeed,9,HCDist,1077.4258767288063,HCVehicles,5,AVGHCDist,991.0704488763109,AVGHCVehicles,5.2,BestHCDist,871.2961194250157,BestHCVehicles,5,HCAvgTime,5269.5,rndSeed,0,EADist,816.5209434468885,EAVehicles,5,rndSeed,1,EADist,796.4051800001738,EAVehicles,5,rndSeed,2,EADist,782.8450697887755,EAVehicles,5,rndSeed,3,EADist,816.0207769616288,EAVehicles,5,rndSeed,4,EADist,797.6134928990708,EAVehicles,5,rndSeed,5,EADist,792.7746477703927,EAVehicles,5,rndSeed,6,EADist,883.2522752389953,EAVehicles,5,rndSeed,7,EADist,870.5784131587113,EAVehicles,5,rndSeed,8,EADist,817.3628662416918,EAVehicles,6,rndSeed,9,EADist,827.6491611420728,EAVehicles,5,AVGEADist,820.1022826648402,AVGEAVehicles,5.1,BestEADist,782.8450697887755,BestEAVehicles,5,HCAvgTime,7797.0</t>
+  </si>
+  <si>
+    <t>./data/B-n45-k6.vrp,COMMENT : (Augerat et al, Min no of trucks: 6, Optimal value: 678),./data/B-n45-k6.vrp,GTDist,788.5777351127751,GTVehicles,7,GTTime,0.0,CWDist,734.3036797447639,CWVehicles,7,CWTime,1.0,rndSeed,0,HCDist,861.2426633414141,HCVehicles,7,rndSeed,1,HCDist,850.0208040279576,HCVehicles,7,rndSeed,2,HCDist,875.4806029273616,HCVehicles,7,rndSeed,3,HCDist,869.7605256062236,HCVehicles,7,rndSeed,4,HCDist,917.8295518290271,HCVehicles,7,rndSeed,5,HCDist,813.3210007377118,HCVehicles,7,rndSeed,6,HCDist,866.4044292587408,HCVehicles,6,rndSeed,7,HCDist,860.3918427796204,HCVehicles,7,rndSeed,8,HCDist,1061.6430738954564,HCVehicles,6,rndSeed,9,HCDist,793.0581868950135,HCVehicles,7,AVGHCDist,876.9152681298526,AVGHCVehicles,6.8,BestHCDist,793.0581868950135,BestHCVehicles,6,HCAvgTime,5836.5,rndSeed,0,EADist,747.0337041721436,EAVehicles,7,rndSeed,1,EADist,749.9507446582982,EAVehicles,7,rndSeed,2,EADist,742.8674149075579,EAVehicles,7,rndSeed,3,EADist,740.7281727571295,EAVehicles,7,rndSeed,4,EADist,747.6938122201085,EAVehicles,7,rndSeed,5,EADist,713.2319954188283,EAVehicles,6,rndSeed,6,EADist,735.0688630169609,EAVehicles,6,rndSeed,7,EADist,718.3068086076455,EAVehicles,6,rndSeed,8,EADist,743.2053860763829,EAVehicles,6,rndSeed,9,EADist,739.1596669030499,EAVehicles,7,AVGEADist,737.7246568738104,AVGEAVehicles,6.6,BestEADist,713.2319954188283,BestEAVehicles,6,HCAvgTime,8902.2</t>
+  </si>
+  <si>
+    <t>./data/B-n50-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 741),./data/B-n50-k7.vrp,GTDist,1011.121003577085,GTVehicles,8,GTTime,0.0,CWDist,749.5607584512952,CWVehicles,7,CWTime,0.0,rndSeed,0,HCDist,872.5396948161061,HCVehicles,7,rndSeed,1,HCDist,1010.1796625467314,HCVehicles,7,rndSeed,2,HCDist,1069.8647697887964,HCVehicles,7,rndSeed,3,HCDist,896.5230480156156,HCVehicles,7,rndSeed,4,HCDist,1061.9606874931858,HCVehicles,7,rndSeed,5,HCDist,1054.1316944350033,HCVehicles,7,rndSeed,6,HCDist,791.0055912636124,HCVehicles,7,rndSeed,7,HCDist,905.2067177455126,HCVehicles,7,rndSeed,8,HCDist,1038.9140544611987,HCVehicles,7,rndSeed,9,HCDist,942.7186006064064,HCVehicles,7,AVGHCDist,964.3044521172169,AVGHCVehicles,7.0,BestHCDist,791.0055912636124,BestHCVehicles,7,HCAvgTime,6349.1,rndSeed,0,EADist,773.0770570695158,EAVehicles,7,rndSeed,1,EADist,859.8860443404109,EAVehicles,7,rndSeed,2,EADist,774.5388556080725,EAVehicles,7,rndSeed,3,EADist,919.1339346570259,EAVehicles,7,rndSeed,4,EADist,776.5239030066722,EAVehicles,7,rndSeed,5,EADist,767.2581064468706,EAVehicles,7,rndSeed,6,EADist,775.3291310498208,EAVehicles,7,rndSeed,7,EADist,780.80588923093,EAVehicles,7,rndSeed,8,EADist,901.217882542823,EAVehicles,7,rndSeed,9,EADist,821.320327340983,EAVehicles,7,AVGEADist,814.9091131293123,AVGEAVehicles,7.0,BestEADist,767.2581064468706,BestEAVehicles,7,HCAvgTime,9758.9</t>
+  </si>
+  <si>
+    <t>./data/B-n50-k8.vrp,COMMENT : (Augerat et al, Min no of trucks: 8, Best value: 1313),./data/B-n50-k8.vrp,GTDist,1668.702407529423,GTVehicles,9,GTTime,0.0,CWDist,1354.026365182708,CWVehicles,8,CWTime,1.0,rndSeed,0,HCDist,1627.3426266129813,HCVehicles,8,rndSeed,1,HCDist,1590.5475993210962,HCVehicles,8,rndSeed,2,HCDist,1538.9073368897964,HCVehicles,8,rndSeed,3,HCDist,1553.2618574750536,HCVehicles,8,rndSeed,4,HCDist,1500.6822843445807,HCVehicles,8,rndSeed,5,HCDist,1496.2352841015324,HCVehicles,8,rndSeed,6,HCDist,1627.5215971560003,HCVehicles,8,rndSeed,7,HCDist,1445.0481507949526,HCVehicles,8,rndSeed,8,HCDist,1646.9342821791865,HCVehicles,8,rndSeed,9,HCDist,1537.6948004132696,HCVehicles,8,AVGHCDist,1556.417581928845,AVGHCVehicles,8.0,BestHCDist,1445.0481507949526,BestHCVehicles,8,HCAvgTime,6490.8,rndSeed,0,EADist,1380.1980299036993,EAVehicles,8,rndSeed,1,EADist,1338.8634281556215,EAVehicles,8,rndSeed,2,EADist,1353.5652149363764,EAVehicles,8,rndSeed,3,EADist,1354.4898378811927,EAVehicles,8,rndSeed,4,EADist,1337.6064180607702,EAVehicles,8,rndSeed,5,EADist,1350.5259563718737,EAVehicles,8,rndSeed,6,EADist,1342.0175524424335,EAVehicles,8,rndSeed,7,EADist,1372.6353747813387,EAVehicles,8,rndSeed,8,EADist,1349.8921825254076,EAVehicles,8,rndSeed,9,EADist,1337.301422661815,EAVehicles,8,AVGEADist,1351.7095417720527,AVGEAVehicles,8.0,BestEADist,1337.301422661815,BestEAVehicles,8,HCAvgTime,10444.8</t>
+  </si>
+  <si>
+    <t>./data/B-n51-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 1032),./data/B-n51-k7.vrp,GTDist,1206.0555791628485,GTVehicles,8,GTTime,0.0,CWDist,1123.9006770564274,CWVehicles,8,CWTime,1.0,rndSeed,0,HCDist,1354.3027341169359,HCVehicles,7,rndSeed,1,HCDist,1461.9346210845163,HCVehicles,8,rndSeed,2,HCDist,1489.8699997798612,HCVehicles,8,rndSeed,3,HCDist,1479.6228777275546,HCVehicles,8,rndSeed,4,HCDist,1409.632808186406,HCVehicles,7,rndSeed,5,HCDist,1519.5754525637337,HCVehicles,8,rndSeed,6,HCDist,1696.8646231042792,HCVehicles,8,rndSeed,7,HCDist,1397.0273459488794,HCVehicles,8,rndSeed,8,HCDist,1550.1681816908344,HCVehicles,8,rndSeed,9,HCDist,1862.0256510027175,HCVehicles,7,AVGHCDist,1522.1024295205718,AVGHCVehicles,7.7,BestHCDist,1354.3027341169359,BestHCVehicles,7,HCAvgTime,6286.7,rndSeed,0,EADist,1200.5199671455616,EAVehicles,8,rndSeed,1,EADist,1139.4624505906593,EAVehicles,8,rndSeed,2,EADist,1158.9502977880848,EAVehicles,8,rndSeed,3,EADist,1134.6217934672422,EAVehicles,7,rndSeed,4,EADist,1213.2776336362745,EAVehicles,7,rndSeed,5,EADist,1225.3501663643526,EAVehicles,8,rndSeed,6,EADist,1098.1424135057928,EAVehicles,8,rndSeed,7,EADist,1144.3929600050578,EAVehicles,8,rndSeed,8,EADist,1091.9952946963379,EAVehicles,8,rndSeed,9,EADist,1092.1546927965526,EAVehicles,8,AVGEADist,1149.8867669995916,AVGEAVehicles,7.8,BestEADist,1091.9952946963379,BestEAVehicles,7,HCAvgTime,9506.9</t>
+  </si>
+  <si>
+    <t>./data/B-n52-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 747),./data/B-n52-k7.vrp,GTDist,924.894838051966,GTVehicles,7,GTTime,1.0,CWDist,768.1104820729001,CWVehicles,7,CWTime,0.0,rndSeed,0,HCDist,1163.4791783875924,HCVehicles,7,rndSeed,1,HCDist,1175.1479619464674,HCVehicles,7,rndSeed,2,HCDist,1106.793674362989,HCVehicles,7,rndSeed,3,HCDist,1174.722637124262,HCVehicles,7,rndSeed,4,HCDist,1208.233593245809,HCVehicles,7,rndSeed,5,HCDist,993.274979600252,HCVehicles,7,rndSeed,6,HCDist,1097.151301633144,HCVehicles,7,rndSeed,7,HCDist,917.3565628844999,HCVehicles,7,rndSeed,8,HCDist,908.5608608952064,HCVehicles,7,rndSeed,9,HCDist,1053.8979431429402,HCVehicles,7,AVGHCDist,1079.8618693223161,AVGHCVehicles,7.0,BestHCDist,908.5608608952064,BestHCVehicles,7,HCAvgTime,6360.9,rndSeed,0,EADist,848.3251947421963,EAVehicles,7,rndSeed,1,EADist,820.5143834476096,EAVehicles,7,rndSeed,2,EADist,808.7769045054465,EAVehicles,7,rndSeed,3,EADist,900.5054012844166,EAVehicles,7,rndSeed,4,EADist,799.2466322103166,EAVehicles,7,rndSeed,5,EADist,874.6638853985658,EAVehicles,7,rndSeed,6,EADist,807.1830888664864,EAVehicles,7,rndSeed,7,EADist,818.1609109443735,EAVehicles,7,rndSeed,8,EADist,855.2419773157221,EAVehicles,7,rndSeed,9,EADist,802.4832968631085,EAVehicles,7,AVGEADist,833.5101675578242,AVGEAVehicles,7.0,BestEADist,799.2466322103166,BestEAVehicles,7,HCAvgTime,9502.7</t>
+  </si>
+  <si>
+    <t>./data/B-n56-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 707),./data/B-n56-k7.vrp,GTDist,808.7805289749456,GTVehicles,7,GTTime,0.0,CWDist,738.9950213131801,CWVehicles,7,CWTime,1.0,rndSeed,0,HCDist,810.0788920006192,HCVehicles,7,rndSeed,1,HCDist,945.9163142734867,HCVehicles,7,rndSeed,2,HCDist,1117.2562144362007,HCVehicles,7,rndSeed,3,HCDist,822.8644862877989,HCVehicles,7,rndSeed,4,HCDist,850.9357383849422,HCVehicles,7,rndSeed,5,HCDist,924.4578877881379,HCVehicles,7,rndSeed,6,HCDist,1030.358593688172,HCVehicles,7,rndSeed,7,HCDist,1140.7210264100286,HCVehicles,7,rndSeed,8,HCDist,952.9699342712522,HCVehicles,7,rndSeed,9,HCDist,983.5384235804446,HCVehicles,7,AVGHCDist,957.9097511121083,AVGHCVehicles,7.0,BestHCDist,810.0788920006192,BestHCVehicles,7,HCAvgTime,6818.0,rndSeed,0,EADist,779.8716826811246,EAVehicles,7,rndSeed,1,EADist,782.7950436477429,EAVehicles,7,rndSeed,2,EADist,801.9951386950986,EAVehicles,7,rndSeed,3,EADist,794.2571000827379,EAVehicles,7,rndSeed,4,EADist,823.902852616963,EAVehicles,7,rndSeed,5,EADist,746.9735375285434,EAVehicles,7,rndSeed,6,EADist,782.660067861968,EAVehicles,7,rndSeed,7,EADist,785.8379305471819,EAVehicles,7,rndSeed,8,EADist,770.0291697019263,EAVehicles,7,rndSeed,9,EADist,887.9458068403583,EAVehicles,7,AVGEADist,795.6268330203645,AVGEAVehicles,7.0,BestEADist,746.9735375285434,BestEAVehicles,7,HCAvgTime,10692.9</t>
+  </si>
+  <si>
+    <t>./data/B-n57-k7.vrp,COMMENT : (Augerat et al, Min no of trucks: 7, Optimal value: 1153),./data/B-n57-k7.vrp,GTDist,1542.2122095210034,GTVehicles,8,GTTime,0.0,CWDist,1239.780090639922,CWVehicles,8,CWTime,1.0,rndSeed,0,HCDist,1502.4347467624893,HCVehicles,8,rndSeed,1,HCDist,1629.2530514022997,HCVehicles,8,rndSeed,2,HCDist,1434.4079691860538,HCVehicles,8,rndSeed,3,HCDist,1537.1828978807132,HCVehicles,8,rndSeed,4,HCDist,1676.3697150591208,HCVehicles,8,rndSeed,5,HCDist,1467.5482823178804,HCVehicles,8,rndSeed,6,HCDist,1576.3070915447008,HCVehicles,8,rndSeed,7,HCDist,1727.8232226934597,HCVehicles,8,rndSeed,8,HCDist,1617.8553199705316,HCVehicles,8,rndSeed,9,HCDist,1612.2958972182143,HCVehicles,8,AVGHCDist,1578.1478194035465,AVGHCVehicles,8.0,BestHCDist,1434.4079691860538,BestHCVehicles,8,HCAvgTime,6854.0,rndSeed,0,EADist,1264.8993396132478,EAVehicles,8,rndSeed,1,EADist,1389.8551429048653,EAVehicles,7,rndSeed,2,EADist,1254.7788880039125,EAVehicles,8,rndSeed,3,EADist,1270.8533833584438,EAVehicles,8,rndSeed,4,EADist,1249.7664311996414,EAVehicles,8,rndSeed,5,EADist,1188.1460066695568,EAVehicles,8,rndSeed,6,EADist,1406.3740940291239,EAVehicles,8,rndSeed,7,EADist,1201.131630887282,EAVehicles,8,rndSeed,8,EADist,1288.9173229721232,EAVehicles,8,rndSeed,9,EADist,1264.5037754608584,EAVehicles,8,AVGEADist,1277.9226015099057,AVGEAVehicles,7.9,BestEADist,1188.1460066695568,BestEAVehicles,7,HCAvgTime,10840.4</t>
+  </si>
+  <si>
+    <t>./data/B-n57-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1598),./data/B-n57-k9.vrp,GTDist,1763.158769605141,GTVehicles,9,GTTime,0.0,CWDist,1655.7481557147007,CWVehicles,9,CWTime,0.0,rndSeed,0,HCDist,1891.8715886692423,HCVehicles,9,rndSeed,1,HCDist,1903.4034479305199,HCVehicles,9,rndSeed,2,HCDist,1956.0262738144788,HCVehicles,9,rndSeed,3,HCDist,1893.4893060265479,HCVehicles,9,rndSeed,4,HCDist,1989.0296539228632,HCVehicles,9,rndSeed,5,HCDist,1943.9078943157228,HCVehicles,9,rndSeed,6,HCDist,1936.8926832036077,HCVehicles,9,rndSeed,7,HCDist,1845.8047044278683,HCVehicles,9,rndSeed,8,HCDist,1962.312230782834,HCVehicles,9,rndSeed,9,HCDist,1925.9791104990782,HCVehicles,9,AVGHCDist,1924.8716893592762,AVGHCVehicles,9.0,BestHCDist,1845.8047044278683,BestHCVehicles,9,HCAvgTime,7183.5,rndSeed,0,EADist,1740.6232994218676,EAVehicles,9,rndSeed,1,EADist,1801.0263376894497,EAVehicles,9,rndSeed,2,EADist,1691.010136792619,EAVehicles,9,rndSeed,3,EADist,1688.3379269207571,EAVehicles,9,rndSeed,4,EADist,1678.6890043604162,EAVehicles,9,rndSeed,5,EADist,1723.2951670291834,EAVehicles,9,rndSeed,6,EADist,1672.3870722650488,EAVehicles,9,rndSeed,7,EADist,1682.1163643166894,EAVehicles,9,rndSeed,8,EADist,1711.9410485717954,EAVehicles,9,rndSeed,9,EADist,1771.2556736164406,EAVehicles,9,AVGEADist,1716.0682030984267,AVGEAVehicles,9.0,BestEADist,1672.3870722650488,BestEAVehicles,9,HCAvgTime,11346.8</t>
+  </si>
+  <si>
+    <t>./data/B-n63-k10.vrp,COMMENT : (Augerat et al, Min no of trucks: 10, Best value: 1537),./data/B-n63-k10.vrp,GTDist,1838.683935178582,GTVehicles,11,GTTime,0.0,CWDist,1601.313786861592,CWVehicles,10,CWTime,1.0,rndSeed,0,HCDist,1971.2196713275878,HCVehicles,10,rndSeed,1,HCDist,1877.5119609791038,HCVehicles,10,rndSeed,2,HCDist,1842.618557166505,HCVehicles,10,rndSeed,3,HCDist,1954.7728076221474,HCVehicles,10,rndSeed,4,HCDist,1971.005185109527,HCVehicles,10,rndSeed,5,HCDist,1732.3216969753778,HCVehicles,10,rndSeed,6,HCDist,2120.023181241504,HCVehicles,10,rndSeed,7,HCDist,1973.5873940491033,HCVehicles,10,rndSeed,8,HCDist,2001.88072261209,HCVehicles,10,rndSeed,9,HCDist,1875.028960469516,HCVehicles,10,AVGHCDist,1931.9970137552464,AVGHCVehicles,10.0,BestHCDist,1732.3216969753778,BestHCVehicles,10,HCAvgTime,7687.4,rndSeed,0,EADist,1614.3505321290343,EAVehicles,10,rndSeed,1,EADist,1614.908587236244,EAVehicles,10,rndSeed,2,EADist,1589.418966837567,EAVehicles,10,rndSeed,3,EADist,1690.3857271132226,EAVehicles,10,rndSeed,4,EADist,1608.393550755076,EAVehicles,10,rndSeed,5,EADist,1650.4414160802232,EAVehicles,10,rndSeed,6,EADist,1658.185473366688,EAVehicles,10,rndSeed,7,EADist,1669.6121043643905,EAVehicles,10,rndSeed,8,EADist,1668.9950933380314,EAVehicles,10,rndSeed,9,EADist,1639.0583847190971,EAVehicles,10,AVGEADist,1640.3749835939573,AVGEAVehicles,10.0,BestEADist,1589.418966837567,BestEAVehicles,10,HCAvgTime,12812.2</t>
+  </si>
+  <si>
+    <t>./data/B-n64-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Optimal value: 861),./data/B-n64-k9.vrp,GTDist,1126.1715543324362,GTVehicles,10,GTTime,0.0,CWDist,922.1898574265934,CWVehicles,10,CWTime,1.0,rndSeed,0,HCDist,1118.125794128307,HCVehicles,10,rndSeed,1,HCDist,1080.8840477332456,HCVehicles,9,rndSeed,2,HCDist,1272.7241046688248,HCVehicles,10,rndSeed,3,HCDist,1178.5510750099738,HCVehicles,9,rndSeed,4,HCDist,1224.482571870664,HCVehicles,10,rndSeed,5,HCDist,1056.7034013355037,HCVehicles,10,rndSeed,6,HCDist,1174.2492165529047,HCVehicles,10,rndSeed,7,HCDist,1177.9748518041854,HCVehicles,10,rndSeed,8,HCDist,1112.3643595644132,HCVehicles,10,rndSeed,9,HCDist,1390.6789673540177,HCVehicles,10,AVGHCDist,1178.6738390022042,AVGHCVehicles,9.8,BestHCDist,1056.7034013355037,BestHCVehicles,9,HCAvgTime,7766.7,rndSeed,0,EADist,999.6171517223744,EAVehicles,10,rndSeed,1,EADist,1038.853704088097,EAVehicles,10,rndSeed,2,EADist,919.5946195050828,EAVehicles,10,rndSeed,3,EADist,943.3231005832293,EAVehicles,10,rndSeed,4,EADist,955.8528864062886,EAVehicles,10,rndSeed,5,EADist,922.3854310309212,EAVehicles,10,rndSeed,6,EADist,982.8803313475512,EAVehicles,10,rndSeed,7,EADist,960.9401041610919,EAVehicles,10,rndSeed,8,EADist,1069.2409970365757,EAVehicles,10,rndSeed,9,EADist,999.9884996375508,EAVehicles,10,AVGEADist,979.2676825518763,AVGEAVehicles,10.0,BestEADist,919.5946195050828,BestEAVehicles,10,HCAvgTime,13322.6</t>
+  </si>
+  <si>
+    <t>./data/B-n66-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1374),./data/B-n66-k9.vrp,GTDist,1568.0234836909897,GTVehicles,10,GTTime,1.0,CWDist,1418.1268028043337,CWVehicles,10,CWTime,1.0,rndSeed,0,HCDist,1705.1538812100835,HCVehicles,9,rndSeed,1,HCDist,1784.5028051243276,HCVehicles,9,rndSeed,2,HCDist,1725.8914433894197,HCVehicles,9,rndSeed,3,HCDist,1957.44333364367,HCVehicles,10,rndSeed,4,HCDist,1708.221398669366,HCVehicles,9,rndSeed,5,HCDist,1662.9954606972485,HCVehicles,9,rndSeed,6,HCDist,1697.3314948953698,HCVehicles,9,rndSeed,7,HCDist,1625.8176891091257,HCVehicles,9,rndSeed,8,HCDist,1630.8543431647456,HCVehicles,9,rndSeed,9,HCDist,1738.0028627163947,HCVehicles,9,AVGHCDist,1723.6214712619753,AVGHCVehicles,9.1,BestHCDist,1625.8176891091257,BestHCVehicles,9,HCAvgTime,7569.2,rndSeed,0,EADist,1556.196468046669,EAVehicles,9,rndSeed,1,EADist,1437.038944193619,EAVehicles,9,rndSeed,2,EADist,1411.3190166962218,EAVehicles,9,rndSeed,3,EADist,1430.5322012303811,EAVehicles,9,rndSeed,4,EADist,1483.0133740687716,EAVehicles,9,rndSeed,5,EADist,1438.925614368121,EAVehicles,9,rndSeed,6,EADist,1367.200268783769,EAVehicles,9,rndSeed,7,EADist,1532.0161214941973,EAVehicles,9,rndSeed,8,EADist,1486.1455014837536,EAVehicles,9,rndSeed,9,EADist,1610.4660043402403,EAVehicles,9,AVGEADist,1475.2853514705744,AVGEAVehicles,9.0,BestEADist,1367.200268783769,BestEAVehicles,9,HCAvgTime,13428.9</t>
+  </si>
+  <si>
+    <t>./data/B-n67-k10.vrp,COMMENT : (Augerat et al, Min no of trucks: 10, Best value: 1033),./data/B-n67-k10.vrp,GTDist,1305.4254203386915,GTVehicles,11,GTTime,0.0,CWDist,1101.70996402757,CWVehicles,11,CWTime,1.0,rndSeed,0,HCDist,1491.1980470179824,HCVehicles,10,rndSeed,1,HCDist,1330.1783811468654,HCVehicles,10,rndSeed,2,HCDist,1319.03374268368,HCVehicles,10,rndSeed,3,HCDist,1261.3166054712563,HCVehicles,10,rndSeed,4,HCDist,1369.5773850084026,HCVehicles,10,rndSeed,5,HCDist,1359.4417970136783,HCVehicles,10,rndSeed,6,HCDist,1401.2228443294077,HCVehicles,10,rndSeed,7,HCDist,1338.1141664610332,HCVehicles,10,rndSeed,8,HCDist,1573.2687664729253,HCVehicles,10,rndSeed,9,HCDist,1346.612555017364,HCVehicles,10,AVGHCDist,1378.9964290622595,AVGHCVehicles,10.0,BestHCDist,1261.3166054712563,BestHCVehicles,10,HCAvgTime,8126.3,rndSeed,0,EADist,1212.552586216767,EAVehicles,10,rndSeed,1,EADist,1200.852005466603,EAVehicles,10,rndSeed,2,EADist,1129.6411234619309,EAVehicles,10,rndSeed,3,EADist,1168.6725447108167,EAVehicles,10,rndSeed,4,EADist,1254.3339335187136,EAVehicles,10,rndSeed,5,EADist,1161.6342224100738,EAVehicles,10,rndSeed,6,EADist,1119.6101426769542,EAVehicles,10,rndSeed,7,EADist,1150.8233840068297,EAVehicles,10,rndSeed,8,EADist,1126.788615836034,EAVehicles,10,rndSeed,9,EADist,1137.0859259122376,EAVehicles,10,AVGEADist,1166.1994484216962,AVGEAVehicles,10.0,BestEADist,1119.6101426769542,BestEAVehicles,10,HCAvgTime,14016.6</t>
+  </si>
+  <si>
+    <t>./data/B-n68-k9.vrp,COMMENT : (Augerat et al, Min no of trucks: 9, Best value: 1304),./data/B-n68-k9.vrp,GTDist,1488.3633735424291,GTVehicles,10,GTTime,0.0,CWDist,1318.4050679632483,CWVehicles,9,CWTime,1.0,rndSeed,0,HCDist,1715.5989433321156,HCVehicles,9,rndSeed,1,HCDist,1514.9872460228526,HCVehicles,9,rndSeed,2,HCDist,1597.0891884589475,HCVehicles,9,rndSeed,3,HCDist,1704.4935415506802,HCVehicles,9,rndSeed,4,HCDist,1856.004651299315,HCVehicles,9,rndSeed,5,HCDist,1690.2989180152676,HCVehicles,9,rndSeed,6,HCDist,1577.4313395775482,HCVehicles,9,rndSeed,7,HCDist,1584.921549594287,HCVehicles,9,rndSeed,8,HCDist,1585.0022125935006,HCVehicles,9,rndSeed,9,HCDist,1540.1905912477596,HCVehicles,9,AVGHCDist,1636.6018181692275,AVGHCVehicles,9.0,BestHCDist,1514.9872460228526,BestHCVehicles,9,HCAvgTime,8140.1,rndSeed,0,EADist,1463.2999998984649,EAVehicles,9,rndSeed,1,EADist,1409.276577779584,EAVehicles,9,rndSeed,2,EADist,1410.9580191156974,EAVehicles,9,rndSeed,3,EADist,1489.0193917766876,EAVehicles,9,rndSeed,4,EADist,1450.5896588492726,EAVehicles,9,rndSeed,5,EADist,1390.5136022960264,EAVehicles,9,rndSeed,6,EADist,1443.2331073937348,EAVehicles,9,rndSeed,7,EADist,1522.6485964382161,EAVehicles,9,rndSeed,8,EADist,1326.8849051421726,EAVehicles,9,rndSeed,9,EADist,1393.1367806843132,EAVehicles,9,AVGEADist,1429.956063937417,AVGEAVehicles,9.0,BestEADist,1326.8849051421726,BestEAVehicles,9,HCAvgTime,14285.7</t>
+  </si>
+  <si>
+    <t>./data/B-n78-k10.vrp,COMMENT : (Augerat et al, Min no of trucks: 10, Best value: 1266),./data/B-n78-k10.vrp,GTDist,1531.3468143198481,GTVehicles,11,GTTime,0.0,CWDist,1271.895907864968,CWVehicles,10,CWTime,1.0,rndSeed,0,HCDist,1653.0811287492731,HCVehicles,10,rndSeed,1,HCDist,1820.8613875531537,HCVehicles,10,rndSeed,2,HCDist,1701.6722874047166,HCVehicles,10,rndSeed,3,HCDist,1730.65994949948,HCVehicles,10,rndSeed,4,HCDist,1785.1265095643846,HCVehicles,11,rndSeed,5,HCDist,1511.6201531789986,HCVehicles,10,rndSeed,6,HCDist,1781.2831157373566,HCVehicles,10,rndSeed,7,HCDist,1675.7670256674749,HCVehicles,10,rndSeed,8,HCDist,1715.4523221325383,HCVehicles,10,rndSeed,9,HCDist,1580.4536952924095,HCVehicles,10,AVGHCDist,1695.5977574779786,AVGHCVehicles,10.1,BestHCDist,1511.6201531789986,BestHCVehicles,10,HCAvgTime,9743.8,rndSeed,0,EADist,1447.6392624503053,EAVehicles,10,rndSeed,1,EADist,1364.9110094200641,EAVehicles,10,rndSeed,2,EADist,1442.8546435220035,EAVehicles,10,rndSeed,3,EADist,1404.7654056711604,EAVehicles,10,rndSeed,4,EADist,1518.2064999986192,EAVehicles,10,rndSeed,5,EADist,1473.4396147279667,EAVehicles,10,rndSeed,6,EADist,1537.1119779250382,EAVehicles,10,rndSeed,7,EADist,1379.2418016283114,EAVehicles,10,rndSeed,8,EADist,1446.381674159463,EAVehicles,10,rndSeed,9,EADist,1442.392325928346,EAVehicles,10,AVGEADist,1445.6944215431279,AVGEAVehicles,10.0,BestEADist,1364.9110094200641,BestEAVehicles,10,HCAvgTime,18230.7</t>
+  </si>
+  <si>
+    <t>./data/P-n16-k8.vrp,COMMENT : (Augerat et al, No of trucks: 8, Best value: 435),./data/P-n16-k8.vrp,GTDist,497.272218628908,GTVehicles,9,GTTime,0.0,CWDist,478.77113006541214,CWVehicles,9,CWTime,0.0,rndSeed,0,HCDist,495.89837766229215,HCVehicles,8,rndSeed,1,HCDist,478.7711300654121,HCVehicles,9,rndSeed,2,HCDist,482.930912184961,HCVehicles,8,rndSeed,3,HCDist,451.335080208618,HCVehicles,8,rndSeed,4,HCDist,466.32464982127055,HCVehicles,8,rndSeed,5,HCDist,462.50056942144863,HCVehicles,8,rndSeed,6,HCDist,477.3022112439101,HCVehicles,8,rndSeed,7,HCDist,462.09710539326056,HCVehicles,8,rndSeed,8,HCDist,481.850545830186,HCVehicles,8,rndSeed,9,HCDist,490.500326887098,HCVehicles,8,AVGHCDist,474.95109087184574,AVGHCVehicles,8.1,BestHCDist,451.335080208618,BestHCVehicles,8,HCAvgTime,2353.0,rndSeed,0,EADist,451.9470921298185,EAVehicles,8,rndSeed,1,EADist,451.33508020861797,EAVehicles,8,rndSeed,2,EADist,451.94709212981843,EAVehicles,8,rndSeed,3,EADist,451.33508020861797,EAVehicles,8,rndSeed,4,EADist,451.33508020861797,EAVehicles,8,rndSeed,5,EADist,451.33508020861797,EAVehicles,8,rndSeed,6,EADist,451.94709212981843,EAVehicles,8,rndSeed,7,EADist,451.335080208618,EAVehicles,8,rndSeed,8,EADist,451.33508020861797,EAVehicles,8,rndSeed,9,EADist,451.33508020861797,EAVehicles,8,AVGEADist,451.5186837849781,AVGEAVehicles,8.0,BestEADist,451.33508020861797,BestEAVehicles,8,HCAvgTime,4103.9</t>
+  </si>
+  <si>
+    <t>./data/P-n19-k2.vrp,COMMENT : (Augerat et al, No of trucks: 2, Best value: 212),./data/P-n19-k2.vrp,GTDist,278.0700965962719,GTVehicles,3,GTTime,0.0,CWDist,220.64313526472102,CWVehicles,3,CWTime,0.0,rndSeed,0,HCDist,261.85894765809337,HCVehicles,2,rndSeed,1,HCDist,267.5248995373771,HCVehicles,2,rndSeed,2,HCDist,237.7612913354597,HCVehicles,2,rndSeed,3,HCDist,222.62748481803789,HCVehicles,2,rndSeed,4,HCDist,236.04928933359992,HCVehicles,2,rndSeed,5,HCDist,258.6265020667257,HCVehicles,2,rndSeed,6,HCDist,254.99705741293684,HCVehicles,2,rndSeed,7,HCDist,233.28407862358517,HCVehicles,2,rndSeed,8,HCDist,230.5522838393459,HCVehicles,2,rndSeed,9,HCDist,273.3854002998766,HCVehicles,2,AVGHCDist,247.6667234925038,AVGHCVehicles,2.0,BestHCDist,222.62748481803789,BestHCVehicles,2,HCAvgTime,2132.2,rndSeed,0,EADist,216.72747092786253,EAVehicles,2,rndSeed,1,EADist,216.72747092786253,EAVehicles,2,rndSeed,2,EADist,212.6569041858923,EAVehicles,2,rndSeed,3,EADist,212.6569041858923,EAVehicles,2,rndSeed,4,EADist,216.72747092786253,EAVehicles,2,rndSeed,5,EADist,212.6569041858923,EAVehicles,2,rndSeed,6,EADist,212.6569041858923,EAVehicles,2,rndSeed,7,EADist,212.6569041858923,EAVehicles,2,rndSeed,8,EADist,216.72747092786253,EAVehicles,2,rndSeed,9,EADist,212.6569041858923,EAVehicles,2,AVGEADist,214.28513088268036,AVGEAVehicles,2.0,BestEADist,212.6569041858923,BestEAVehicles,2,HCAvgTime,2753.0</t>
+  </si>
+  <si>
+    <t>./data/P-n20-k2.vrp,COMMENT : (Augerat et al, No of trucks: 2, Best value: 220),./data/P-n20-k2.vrp,GTDist,286.2366319447856,GTVehicles,3,GTTime,0.0,CWDist,223.55885637866902,CWVehicles,2,CWTime,0.0,rndSeed,0,HCDist,232.00565660058822,HCVehicles,2,rndSeed,1,HCDist,217.41558334616656,HCVehicles,2,rndSeed,2,HCDist,231.45454232417183,HCVehicles,2,rndSeed,3,HCDist,225.69905498648646,HCVehicles,2,rndSeed,4,HCDist,234.22152161398202,HCVehicles,2,rndSeed,5,HCDist,235.55577661119133,HCVehicles,2,rndSeed,6,HCDist,250.26647212371262,HCVehicles,2,rndSeed,7,HCDist,257.3626365321619,HCVehicles,2,rndSeed,8,HCDist,224.00968541649098,HCVehicles,2,rndSeed,9,HCDist,233.03467576281125,HCVehicles,2,AVGHCDist,234.1025605317763,AVGHCVehicles,2.0,BestHCDist,217.41558334616656,BestHCVehicles,2,HCAvgTime,2250.7,rndSeed,0,EADist,218.30889390027937,EAVehicles,2,rndSeed,1,EADist,217.41558334616656,EAVehicles,2,rndSeed,2,EADist,218.30889390027937,EAVehicles,2,rndSeed,3,EADist,217.41558334616656,EAVehicles,2,rndSeed,4,EADist,219.9382488737121,EAVehicles,2,rndSeed,5,EADist,217.41558334616656,EAVehicles,2,rndSeed,6,EADist,217.41558334616656,EAVehicles,2,rndSeed,7,EADist,218.30889390027937,EAVehicles,2,rndSeed,8,EADist,219.9382488737121,EAVehicles,2,rndSeed,9,EADist,217.41558334616656,EAVehicles,2,AVGEADist,218.18810961790956,AVGEAVehicles,2.0,BestEADist,217.41558334616656,BestEAVehicles,2,HCAvgTime,2886.5</t>
+  </si>
+  <si>
+    <t>./data/P-n21-k2.vrp,COMMENT : (Augerat et al, Min no of trucks: 2, Best value: 211),./data/P-n21-k2.vrp,GTDist,262.8158619516661,GTVehicles,2,GTTime,0.0,CWDist,225.74917491951743,CWVehicles,2,CWTime,1.0,rndSeed,0,HCDist,267.4809382737248,HCVehicles,2,rndSeed,1,HCDist,222.1285674145605,HCVehicles,2,rndSeed,2,HCDist,255.2691931108342,HCVehicles,2,rndSeed,3,HCDist,256.72797433391264,HCVehicles,2,rndSeed,4,HCDist,219.12605392929436,HCVehicles,2,rndSeed,5,HCDist,212.71153970290388,HCVehicles,2,rndSeed,6,HCDist,243.43021139281083,HCVehicles,2,rndSeed,7,HCDist,229.45029209855858,HCVehicles,2,rndSeed,8,HCDist,238.44889702602137,HCVehicles,2,rndSeed,9,HCDist,231.51844486953073,HCVehicles,2,AVGHCDist,237.6292112152152,AVGHCVehicles,2.0,BestHCDist,212.71153970290388,BestHCVehicles,2,HCAvgTime,2349.8,rndSeed,0,EADist,212.71153970290385,EAVehicles,2,rndSeed,1,EADist,212.71153970290388,EAVehicles,2,rndSeed,2,EADist,212.71153970290388,EAVehicles,2,rndSeed,3,EADist,212.71153970290388,EAVehicles,2,rndSeed,4,EADist,212.71153970290388,EAVehicles,2,rndSeed,5,EADist,212.71153970290388,EAVehicles,2,rndSeed,6,EADist,212.71153970290385,EAVehicles,2,rndSeed,7,EADist,212.71153970290388,EAVehicles,2,rndSeed,8,EADist,212.71153970290388,EAVehicles,2,rndSeed,9,EADist,212.71153970290388,EAVehicles,2,AVGEADist,212.71153970290385,AVGEAVehicles,2.0,BestEADist,212.71153970290385,BestEAVehicles,2,HCAvgTime,3016.0</t>
+  </si>
+  <si>
+    <t>./data/P-n22-k2.vrp,COMMENT : (Augerat et al, Min no of trucks: 2, Best value: 216),./data/P-n22-k2.vrp,GTDist,288.5892014039268,GTVehicles,2,GTTime,0.0,CWDist,233.11878682195683,CWVehicles,2,CWTime,0.0,rndSeed,0,HCDist,224.81910998471432,HCVehicles,2,rndSeed,1,HCDist,234.0019363498198,HCVehicles,2,rndSeed,2,HCDist,274.03796986028067,HCVehicles,2,rndSeed,3,HCDist,236.77682864119186,HCVehicles,2,rndSeed,4,HCDist,223.52864412416284,HCVehicles,2,rndSeed,5,HCDist,245.10876722154813,HCVehicles,2,rndSeed,6,HCDist,240.10657213789995,HCVehicles,2,rndSeed,7,HCDist,219.14261660078114,HCVehicles,2,rndSeed,8,HCDist,228.12231467295507,HCVehicles,2,rndSeed,9,HCDist,218.05082483731812,HCVehicles,2,AVGHCDist,234.36955844306718,AVGHCVehicles,2.0,BestHCDist,218.05082483731812,BestHCVehicles,2,HCAvgTime,2506.5,rndSeed,0,EADist,217.8521507402297,EAVehicles,2,rndSeed,1,EADist,217.8521507402297,EAVehicles,2,rndSeed,2,EADist,217.85215074022972,EAVehicles,2,rndSeed,3,EADist,217.85215074022972,EAVehicles,2,rndSeed,4,EADist,219.14261660078114,EAVehicles,2,rndSeed,5,EADist,217.8521507402297,EAVehicles,2,rndSeed,6,EADist,217.85215074022972,EAVehicles,2,rndSeed,7,EADist,219.14261660078114,EAVehicles,2,rndSeed,8,EADist,217.85215074022972,EAVehicles,2,rndSeed,9,EADist,217.85215074022972,EAVehicles,2,AVGEADist,218.11024391234,AVGEAVehicles,2.0,BestEADist,217.8521507402297,BestEAVehicles,2,HCAvgTime,3163.8</t>
+  </si>
+  <si>
+    <t>./data/P-n22-k8.vrp,COMMENT : (Augerat et al, No of trucks: 8, Best value: 603),./data/P-n22-k8.vrp,GTDist,682.3768624779292,GTVehicles,10,GTTime,0.0,CWDist,590.6210234857078,CWVehicles,9,CWTime,0.0,rndSeed,0,HCDist,647.5140025251773,HCVehicles,9,rndSeed,1,HCDist,645.8750903960034,HCVehicles,9,rndSeed,2,HCDist,626.8379644107465,HCVehicles,9,rndSeed,3,HCDist,596.1169014250695,HCVehicles,9,rndSeed,4,HCDist,645.9042709142677,HCVehicles,9,rndSeed,5,HCDist,615.8415158334586,HCVehicles,9,rndSeed,6,HCDist,623.9568810750397,HCVehicles,9,rndSeed,7,HCDist,720.7441598921698,HCVehicles,9,rndSeed,8,HCDist,623.3876126099376,HCVehicles,9,rndSeed,9,HCDist,595.0489850683259,HCVehicles,9,AVGHCDist,634.1227384150195,AVGHCVehicles,9.0,BestHCDist,595.0489850683259,BestHCVehicles,9,HCAvgTime,3020.6,rndSeed,0,EADist,588.7935242586068,EAVehicles,9,rndSeed,1,EADist,588.7935242586069,EAVehicles,9,rndSeed,2,EADist,588.7935242586069,EAVehicles,9,rndSeed,3,EADist,588.7935242586069,EAVehicles,9,rndSeed,4,EADist,595.9550800240507,EAVehicles,9,rndSeed,5,EADist,588.7935242586069,EAVehicles,9,rndSeed,6,EADist,588.7935242586069,EAVehicles,9,rndSeed,7,EADist,588.7935242586069,EAVehicles,9,rndSeed,8,EADist,588.7935242586069,EAVehicles,9,rndSeed,9,EADist,588.7935242586068,EAVehicles,9,AVGEADist,589.5096798351512,AVGEAVehicles,9.0,BestEADist,588.7935242586068,BestEAVehicles,9,HCAvgTime,4883.6</t>
+  </si>
+  <si>
+    <t>./data/P-n23-k8.vrp,COMMENT : (Augerat et al, No of trucks: 8, Best value: 554),./data/P-n23-k8.vrp,GTDist,671.638053265973,GTVehicles,11,GTTime,1.0,CWDist,539.4753861721704,CWVehicles,9,CWTime,0.0,rndSeed,0,HCDist,603.0916656431223,HCVehicles,9,rndSeed,1,HCDist,557.8363078842525,HCVehicles,9,rndSeed,2,HCDist,621.7440773607353,HCVehicles,9,rndSeed,3,HCDist,591.8052356170342,HCVehicles,9,rndSeed,4,HCDist,618.4535745229942,HCVehicles,9,rndSeed,5,HCDist,615.6606416069159,HCVehicles,9,rndSeed,6,HCDist,581.8960515234274,HCVehicles,9,rndSeed,7,HCDist,600.8015562674832,HCVehicles,9,rndSeed,8,HCDist,560.381149114568,HCVehicles,9,rndSeed,9,HCDist,589.7509995695237,HCVehicles,9,AVGHCDist,594.1421259110057,AVGHCVehicles,9.0,BestHCDist,557.8363078842525,BestHCVehicles,9,HCAvgTime,3123.3,rndSeed,0,EADist,539.6928732188941,EAVehicles,9,rndSeed,1,EADist,535.4678809438409,EAVehicles,8,rndSeed,2,EADist,531.1738035458811,EAVehicles,8,rndSeed,3,EADist,531.1738035458811,EAVehicles,8,rndSeed,4,EADist,539.6928732188941,EAVehicles,9,rndSeed,5,EADist,531.1738035458811,EAVehicles,8,rndSeed,6,EADist,531.1738035458811,EAVehicles,8,rndSeed,7,EADist,531.1738035458811,EAVehicles,8,rndSeed,8,EADist,531.1738035458811,EAVehicles,8,rndSeed,9,EADist,531.1738035458811,EAVehicles,8,AVGEADist,533.3070252202797,AVGEAVehicles,8.2,BestEADist,531.1738035458811,BestEAVehicles,8,HCAvgTime,4859.5</t>
+  </si>
+  <si>
+    <t>./data/P-n40-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Best value: 458),./data/P-n40-k5.vrp,GTDist,624.1473571220519,GTVehicles,5,GTTime,0.0,CWDist,524.5134183946816,CWVehicles,5,CWTime,0.0,rndSeed,0,HCDist,690.7472904493836,HCVehicles,5,rndSeed,1,HCDist,658.2497145373966,HCVehicles,5,rndSeed,2,HCDist,593.9043616196223,HCVehicles,5,rndSeed,3,HCDist,574.904362289633,HCVehicles,5,rndSeed,4,HCDist,572.6022625959398,HCVehicles,5,rndSeed,5,HCDist,559.3896382326253,HCVehicles,5,rndSeed,6,HCDist,528.2865803994773,HCVehicles,5,rndSeed,7,HCDist,584.0988247159394,HCVehicles,5,rndSeed,8,HCDist,571.7978353985952,HCVehicles,5,rndSeed,9,HCDist,550.6933852330662,HCVehicles,5,AVGHCDist,588.4674255471679,AVGHCVehicles,5.0,BestHCDist,528.2865803994773,BestHCVehicles,5,HCAvgTime,4685.9,rndSeed,0,EADist,472.4243842785468,EAVehicles,5,rndSeed,1,EADist,501.33997077878735,EAVehicles,5,rndSeed,2,EADist,500.6293793602541,EAVehicles,5,rndSeed,3,EADist,529.8072256671041,EAVehicles,5,rndSeed,4,EADist,489.0477030694065,EAVehicles,5,rndSeed,5,EADist,481.6927975951332,EAVehicles,5,rndSeed,6,EADist,487.51037437091713,EAVehicles,5,rndSeed,7,EADist,497.6010150318454,EAVehicles,5,rndSeed,8,EADist,493.53441502203,EAVehicles,5,rndSeed,9,EADist,520.9734800591884,EAVehicles,5,AVGEADist,497.4560745233213,AVGEAVehicles,5.0,BestEADist,472.4243842785468,BestEAVehicles,5,HCAvgTime,6630.0</t>
+  </si>
+  <si>
+    <t>./data/P-n45-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Best value: 510),./data/P-n45-k5.vrp,GTDist,658.1058082864446,GTVehicles,5,GTTime,0.0,CWDist,536.6460949987483,CWVehicles,5,CWTime,0.0,rndSeed,0,HCDist,590.3809824356974,HCVehicles,5,rndSeed,1,HCDist,614.9863074866404,HCVehicles,5,rndSeed,2,HCDist,625.1351903275464,HCVehicles,5,rndSeed,3,HCDist,636.0400883343052,HCVehicles,5,rndSeed,4,HCDist,637.0625969544556,HCVehicles,5,rndSeed,5,HCDist,691.9601533526966,HCVehicles,5,rndSeed,6,HCDist,583.4862675308225,HCVehicles,5,rndSeed,7,HCDist,665.8105903877649,HCVehicles,5,rndSeed,8,HCDist,633.315965238402,HCVehicles,5,rndSeed,9,HCDist,733.3665773174068,HCVehicles,5,AVGHCDist,641.1544719365737,AVGHCVehicles,5.0,BestHCDist,583.4862675308225,BestHCVehicles,5,HCAvgTime,5228.1,rndSeed,0,EADist,551.1920699036641,EAVehicles,5,rndSeed,1,EADist,548.6860590866198,EAVehicles,5,rndSeed,2,EADist,559.7651758720862,EAVehicles,5,rndSeed,3,EADist,552.5317318711279,EAVehicles,5,rndSeed,4,EADist,565.4125849400247,EAVehicles,5,rndSeed,5,EADist,557.7019203006338,EAVehicles,5,rndSeed,6,EADist,575.4788344021529,EAVehicles,5,rndSeed,7,EADist,547.4121747453587,EAVehicles,5,rndSeed,8,EADist,531.361981321182,EAVehicles,5,rndSeed,9,EADist,640.5832662644898,EAVehicles,5,AVGEADist,563.0125798707339,AVGEAVehicles,5.0,BestEADist,531.361981321182,BestEAVehicles,5,HCAvgTime,7555.3</t>
+  </si>
+  <si>
+    <t>./data/P-n50-k7.vrp,COMMENT : (Augerat et al, No of trucks: 7, Best value: 554),./data/P-n50-k7.vrp,GTDist,685.6785046375282,GTVehicles,7,GTTime,0.0,CWDist,607.3295985333896,CWVehicles,7,CWTime,0.0,rndSeed,0,HCDist,731.2666470163931,HCVehicles,7,rndSeed,1,HCDist,772.5841654723332,HCVehicles,7,rndSeed,2,HCDist,703.3461779051228,HCVehicles,7,rndSeed,3,HCDist,709.2250709015244,HCVehicles,7,rndSeed,4,HCDist,706.9291057263898,HCVehicles,7,rndSeed,5,HCDist,778.5369848118773,HCVehicles,7,rndSeed,6,HCDist,747.5191680968546,HCVehicles,7,rndSeed,7,HCDist,753.5840255494652,HCVehicles,7,rndSeed,8,HCDist,747.5084381680333,HCVehicles,7,rndSeed,9,HCDist,714.878938109855,HCVehicles,7,AVGHCDist,736.5378721757849,AVGHCVehicles,7.0,BestHCDist,703.3461779051228,BestHCVehicles,7,HCAvgTime,5942.1,rndSeed,0,EADist,616.982338301661,EAVehicles,7,rndSeed,1,EADist,606.8519757583757,EAVehicles,7,rndSeed,2,EADist,596.3119125719138,EAVehicles,7,rndSeed,3,EADist,654.7483892201805,EAVehicles,7,rndSeed,4,EADist,597.8277513307654,EAVehicles,7,rndSeed,5,EADist,642.9453329237896,EAVehicles,7,rndSeed,6,EADist,616.2558080808868,EAVehicles,7,rndSeed,7,EADist,634.4855954918037,EAVehicles,7,rndSeed,8,EADist,635.4062093768054,EAVehicles,7,rndSeed,9,EADist,613.91391166682,EAVehicles,7,AVGEADist,621.5729224723002,AVGEAVehicles,7.0,BestEADist,596.3119125719138,BestEAVehicles,7,HCAvgTime,9096.2</t>
+  </si>
+  <si>
+    <t>./data/P-n50-k8.vrp,COMMENT : (Augerat et al, No of trucks: 8, Best value: 649),./data/P-n50-k8.vrp,GTDist,745.5102141561221,GTVehicles,9,GTTime,0.0,CWDist,665.5862343390935,CWVehicles,9,CWTime,1.0,rndSeed,0,HCDist,741.4804588318651,HCVehicles,9,rndSeed,1,HCDist,847.813999402663,HCVehicles,9,rndSeed,2,HCDist,732.0662022675909,HCVehicles,9,rndSeed,3,HCDist,862.3157985327175,HCVehicles,9,rndSeed,4,HCDist,778.4329394213457,HCVehicles,9,rndSeed,5,HCDist,805.2818194492858,HCVehicles,9,rndSeed,6,HCDist,778.7974179492517,HCVehicles,9,rndSeed,7,HCDist,878.2499351190197,HCVehicles,9,rndSeed,8,HCDist,807.5660513896808,HCVehicles,9,rndSeed,9,HCDist,863.153964655177,HCVehicles,9,AVGHCDist,809.5158587018598,AVGHCVehicles,9.0,BestHCDist,732.0662022675909,BestHCVehicles,9,HCAvgTime,6042.0,rndSeed,0,EADist,683.9882341700721,EAVehicles,9,rndSeed,1,EADist,717.3224389396628,EAVehicles,9,rndSeed,2,EADist,699.394856265843,EAVehicles,9,rndSeed,3,EADist,705.6635291847263,EAVehicles,9,rndSeed,4,EADist,665.0086806005817,EAVehicles,9,rndSeed,5,EADist,690.5688357699295,EAVehicles,9,rndSeed,6,EADist,691.8141703213951,EAVehicles,9,rndSeed,7,EADist,674.002977420232,EAVehicles,9,rndSeed,8,EADist,679.2553095595483,EAVehicles,9,rndSeed,9,EADist,691.1820352133834,EAVehicles,9,AVGEADist,689.8201067445375,AVGEAVehicles,9.0,BestEADist,665.0086806005817,BestEAVehicles,9,HCAvgTime,9368.2</t>
+  </si>
+  <si>
+    <t>./data/P-n50-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 696),./data/P-n50-k10.vrp,GTDist,853.711777056283,GTVehicles,11,GTTime,0.0,CWDist,734.3240694057522,CWVehicles,11,CWTime,1.0,rndSeed,0,HCDist,846.5309900813213,HCVehicles,11,rndSeed,1,HCDist,836.4735707467395,HCVehicles,11,rndSeed,2,HCDist,900.2648921824604,HCVehicles,11,rndSeed,3,HCDist,847.8278404697307,HCVehicles,11,rndSeed,4,HCDist,906.3903857810475,HCVehicles,11,rndSeed,5,HCDist,863.0870972002272,HCVehicles,11,rndSeed,6,HCDist,856.5050473628222,HCVehicles,11,rndSeed,7,HCDist,854.5280519884204,HCVehicles,10,rndSeed,8,HCDist,901.0420990675857,HCVehicles,11,rndSeed,9,HCDist,899.9455765852774,HCVehicles,11,AVGHCDist,871.2595551465632,AVGHCVehicles,10.9,BestHCDist,836.4735707467395,BestHCVehicles,10,HCAvgTime,6203.3,rndSeed,0,EADist,767.1324871547145,EAVehicles,11,rndSeed,1,EADist,817.3541468544995,EAVehicles,11,rndSeed,2,EADist,729.2348184191005,EAVehicles,10,rndSeed,3,EADist,741.5498643575427,EAVehicles,10,rndSeed,4,EADist,768.184802576842,EAVehicles,11,rndSeed,5,EADist,747.8166027838297,EAVehicles,11,rndSeed,6,EADist,761.998707875266,EAVehicles,10,rndSeed,7,EADist,771.6272525801237,EAVehicles,10,rndSeed,8,EADist,797.7825396308233,EAVehicles,11,rndSeed,9,EADist,776.6071702189013,EAVehicles,11,AVGEADist,767.9288392451643,AVGEAVehicles,10.6,BestEADist,729.2348184191005,BestEAVehicles,10,HCAvgTime,9898.0</t>
+  </si>
+  <si>
+    <t>./data/P-n51-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 745),./data/P-n51-k10.vrp,GTDist,963.9925682357364,GTVehicles,11,GTTime,0.0,CWDist,774.4487879471329,CWVehicles,11,CWTime,1.0,rndSeed,0,HCDist,840.1646832252885,HCVehicles,11,rndSeed,1,HCDist,946.7925334031877,HCVehicles,11,rndSeed,2,HCDist,878.4486419862018,HCVehicles,11,rndSeed,3,HCDist,1008.3970043751834,HCVehicles,10,rndSeed,4,HCDist,954.112376243066,HCVehicles,11,rndSeed,5,HCDist,860.3592320573199,HCVehicles,11,rndSeed,6,HCDist,923.8131259272044,HCVehicles,11,rndSeed,7,HCDist,953.1554540944105,HCVehicles,11,rndSeed,8,HCDist,960.0924042774957,HCVehicles,11,rndSeed,9,HCDist,909.8506616497807,HCVehicles,11,AVGHCDist,923.5186117239136,AVGHCVehicles,10.9,BestHCDist,840.1646832252885,BestHCVehicles,10,HCAvgTime,6369.8,rndSeed,0,EADist,828.9506393213152,EAVehicles,11,rndSeed,1,EADist,828.6266160468156,EAVehicles,11,rndSeed,2,EADist,800.0139371356272,EAVehicles,11,rndSeed,3,EADist,809.6091511835381,EAVehicles,11,rndSeed,4,EADist,847.2383948919046,EAVehicles,11,rndSeed,5,EADist,813.3812882141975,EAVehicles,11,rndSeed,6,EADist,792.6714146661166,EAVehicles,11,rndSeed,7,EADist,824.3190267570576,EAVehicles,11,rndSeed,8,EADist,866.1166919571376,EAVehicles,11,rndSeed,9,EADist,832.1176895143468,EAVehicles,11,AVGEADist,824.3044849688056,AVGEAVehicles,11.0,BestEADist,792.6714146661166,BestEAVehicles,11,HCAvgTime,10230.8</t>
+  </si>
+  <si>
+    <t>./data/P-n55-k7.vrp,COMMENT : (Augerat et al, No of trucks: 7, Best value: 524),./data/P-n55-k7.vrp,GTDist,755.1130065864518,GTVehicles,7,GTTime,0.0,CWDist,593.7569322587565,CWVehicles,7,CWTime,0.0,rndSeed,0,HCDist,732.5725119239863,HCVehicles,7,rndSeed,1,HCDist,690.6012654143072,HCVehicles,7,rndSeed,2,HCDist,748.1558603881605,HCVehicles,7,rndSeed,3,HCDist,704.1733366549483,HCVehicles,7,rndSeed,4,HCDist,719.0234126375692,HCVehicles,7,rndSeed,5,HCDist,805.1230845833624,HCVehicles,7,rndSeed,6,HCDist,827.16110734773,HCVehicles,7,rndSeed,7,HCDist,769.4498086281992,HCVehicles,7,rndSeed,8,HCDist,791.1931980887905,HCVehicles,7,rndSeed,9,HCDist,653.6876556944089,HCVehicles,7,AVGHCDist,744.1141241361463,AVGHCVehicles,7.0,BestHCDist,653.6876556944089,BestHCVehicles,7,HCAvgTime,6573.0,rndSeed,0,EADist,653.7023379328317,EAVehicles,7,rndSeed,1,EADist,651.5884472797254,EAVehicles,7,rndSeed,2,EADist,654.9575775702004,EAVehicles,7,rndSeed,3,EADist,653.0600190025699,EAVehicles,7,rndSeed,4,EADist,640.5440981120421,EAVehicles,7,rndSeed,5,EADist,652.192578458799,EAVehicles,7,rndSeed,6,EADist,632.4567950022571,EAVehicles,7,rndSeed,7,EADist,652.2648938000773,EAVehicles,7,rndSeed,8,EADist,618.3312901457655,EAVehicles,7,rndSeed,9,EADist,659.5584141879625,EAVehicles,7,AVGEADist,646.8656451492232,AVGEAVehicles,7.0,BestEADist,618.3312901457655,BestEAVehicles,7,HCAvgTime,10452.5</t>
+  </si>
+  <si>
+    <t>./data/P-n55-k8.vrp,COMMENT : (Augerat et al, No of trucks: 8, Best value: 576),./data/P-n55-k8.vrp,GTDist,728.0452257664025,GTVehicles,8,GTTime,0.0,CWDist,618.1568689356682,CWVehicles,7,CWTime,0.0,rndSeed,0,HCDist,757.2763107514435,HCVehicles,7,rndSeed,1,HCDist,744.2186743250575,HCVehicles,7,rndSeed,2,HCDist,753.0000126301015,HCVehicles,7,rndSeed,3,HCDist,774.4316569257655,HCVehicles,7,rndSeed,4,HCDist,811.127838516757,HCVehicles,7,rndSeed,5,HCDist,746.4912021018213,HCVehicles,7,rndSeed,6,HCDist,696.7634389233449,HCVehicles,7,rndSeed,7,HCDist,736.324689520701,HCVehicles,7,rndSeed,8,HCDist,729.8246153742394,HCVehicles,7,rndSeed,9,HCDist,737.9577657685218,HCVehicles,7,AVGHCDist,748.7416204837753,AVGHCVehicles,7.0,BestHCDist,696.7634389233449,BestHCVehicles,7,HCAvgTime,6526.1,rndSeed,0,EADist,633.5883387484639,EAVehicles,7,rndSeed,1,EADist,699.0851118635644,EAVehicles,7,rndSeed,2,EADist,669.5072718843867,EAVehicles,7,rndSeed,3,EADist,652.118218165154,EAVehicles,7,rndSeed,4,EADist,653.4596082012011,EAVehicles,7,rndSeed,5,EADist,654.731046510237,EAVehicles,7,rndSeed,6,EADist,648.8688676353443,EAVehicles,7,rndSeed,7,EADist,647.5885238353976,EAVehicles,7,rndSeed,8,EADist,658.7242989704255,EAVehicles,7,rndSeed,9,EADist,696.5167893891844,EAVehicles,7,AVGEADist,661.4188075203359,AVGEAVehicles,7.0,BestEADist,633.5883387484639,BestEAVehicles,7,HCAvgTime,10266.7</t>
+  </si>
+  <si>
+    <t>./data/P-n55-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 669),./data/P-n55-k10.vrp,GTDist,852.5559215823877,GTVehicles,10,GTTime,0.0,CWDist,736.8563518082188,CWVehicles,11,CWTime,1.0,rndSeed,0,HCDist,928.0123842933876,HCVehicles,10,rndSeed,1,HCDist,867.0453765586464,HCVehicles,10,rndSeed,2,HCDist,879.2289481387775,HCVehicles,10,rndSeed,3,HCDist,877.7452945454547,HCVehicles,10,rndSeed,4,HCDist,902.9838573044372,HCVehicles,10,rndSeed,5,HCDist,880.0070809830338,HCVehicles,10,rndSeed,6,HCDist,845.7385998003177,HCVehicles,10,rndSeed,7,HCDist,867.8297155107471,HCVehicles,10,rndSeed,8,HCDist,849.5282563666834,HCVehicles,10,rndSeed,9,HCDist,932.0218312487078,HCVehicles,10,AVGHCDist,883.0141344750193,AVGHCVehicles,10.0,BestHCDist,845.7385998003177,BestHCVehicles,10,HCAvgTime,6709.5,rndSeed,0,EADist,759.6449398539517,EAVehicles,10,rndSeed,1,EADist,799.0936122439452,EAVehicles,10,rndSeed,2,EADist,815.0378177343001,EAVehicles,10,rndSeed,3,EADist,768.990985248354,EAVehicles,10,rndSeed,4,EADist,808.0874973257178,EAVehicles,10,rndSeed,5,EADist,740.2729094070077,EAVehicles,10,rndSeed,6,EADist,750.2012174570618,EAVehicles,10,rndSeed,7,EADist,758.7606561319561,EAVehicles,10,rndSeed,8,EADist,743.135395403151,EAVehicles,10,rndSeed,9,EADist,756.0512793946485,EAVehicles,10,AVGEADist,769.9276310200094,AVGEAVehicles,10.0,BestEADist,740.2729094070077,BestEAVehicles,10,HCAvgTime,10959.7</t>
+  </si>
+  <si>
+    <t>./data/P-n55-k15.vrp,COMMENT : (Augerat et al, No of trucks: 15, Best value: 856),./data/P-n55-k15.vrp,GTDist,1074.8501156216853,GTVehicles,18,GTTime,0.0,CWDist,984.0830329633222,CWVehicles,17,CWTime,1.0,rndSeed,0,HCDist,1112.8719739222126,HCVehicles,17,rndSeed,1,HCDist,1165.9985397100152,HCVehicles,17,rndSeed,2,HCDist,1121.2927045047481,HCVehicles,17,rndSeed,3,HCDist,1063.7620355281263,HCVehicles,17,rndSeed,4,HCDist,1167.8334351324677,HCVehicles,16,rndSeed,5,HCDist,1168.8745572730763,HCVehicles,17,rndSeed,6,HCDist,1088.954939570785,HCVehicles,17,rndSeed,7,HCDist,1125.7054887723114,HCVehicles,17,rndSeed,8,HCDist,1172.3798438647452,HCVehicles,17,rndSeed,9,HCDist,1130.9166208448248,HCVehicles,17,AVGHCDist,1131.8590139123312,AVGHCVehicles,16.9,BestHCDist,1063.7620355281263,BestHCVehicles,16,HCAvgTime,7332.9,rndSeed,0,EADist,1043.8993541553848,EAVehicles,16,rndSeed,1,EADist,1038.6719033121767,EAVehicles,16,rndSeed,2,EADist,1020.2297033657937,EAVehicles,16,rndSeed,3,EADist,1077.6342453059178,EAVehicles,17,rndSeed,4,EADist,1050.8453120947745,EAVehicles,16,rndSeed,5,EADist,1022.8669386038299,EAVehicles,16,rndSeed,6,EADist,1034.512847623419,EAVehicles,17,rndSeed,7,EADist,1011.7029144519951,EAVehicles,16,rndSeed,8,EADist,1036.4067453124976,EAVehicles,17,rndSeed,9,EADist,1055.6693283515824,EAVehicles,17,AVGEADist,1039.2439292577371,AVGEAVehicles,16.4,BestEADist,1011.7029144519951,BestEAVehicles,16,HCAvgTime,12561.5</t>
+  </si>
+  <si>
+    <t>./data/P-n60-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 706),./data/P-n60-k10.vrp,GTDist,949.568652384112,GTVehicles,11,GTTime,0.0,CWDist,796.3191129878971,CWVehicles,10,CWTime,0.0,rndSeed,0,HCDist,989.3336045459837,HCVehicles,11,rndSeed,1,HCDist,979.7931144353577,HCVehicles,11,rndSeed,2,HCDist,960.5830611726226,HCVehicles,11,rndSeed,3,HCDist,1009.9196423340222,HCVehicles,10,rndSeed,4,HCDist,991.1272778323782,HCVehicles,10,rndSeed,5,HCDist,997.9242372450103,HCVehicles,11,rndSeed,6,HCDist,991.519366427842,HCVehicles,10,rndSeed,7,HCDist,979.3197643661345,HCVehicles,10,rndSeed,8,HCDist,1038.7022193139883,HCVehicles,10,rndSeed,9,HCDist,981.4294932411615,HCVehicles,10,AVGHCDist,991.9651780914501,AVGHCVehicles,10.4,BestHCDist,960.5830611726226,BestHCVehicles,10,HCAvgTime,7362.7,rndSeed,0,EADist,843.6446013383005,EAVehicles,10,rndSeed,1,EADist,799.4575686525708,EAVehicles,10,rndSeed,2,EADist,850.6022062153511,EAVehicles,10,rndSeed,3,EADist,862.7870065404138,EAVehicles,11,rndSeed,4,EADist,874.8485781055546,EAVehicles,11,rndSeed,5,EADist,850.7531899759481,EAVehicles,10,rndSeed,6,EADist,896.9316599177615,EAVehicles,10,rndSeed,7,EADist,858.2806861746991,EAVehicles,10,rndSeed,8,EADist,854.6737365752219,EAVehicles,10,rndSeed,9,EADist,838.0615307674284,EAVehicles,10,AVGEADist,853.0040764263251,AVGEAVehicles,10.2,BestEADist,799.4575686525708,BestEAVehicles,10,HCAvgTime,12055.7</t>
+  </si>
+  <si>
+    <t>./data/P-n60-k15.vrp,COMMENT : (Augerat et al, No of trucks: 15, Best value: 905),./data/P-n60-k15.vrp,GTDist,1153.6577460169544,GTVehicles,16,GTTime,0.0,CWDist,1016.9632054112972,CWVehicles,16,CWTime,0.0,rndSeed,0,HCDist,1248.2627772434032,HCVehicles,15,rndSeed,1,HCDist,1195.9817558216332,HCVehicles,16,rndSeed,2,HCDist,1199.0105598288762,HCVehicles,15,rndSeed,3,HCDist,1188.2365295375125,HCVehicles,16,rndSeed,4,HCDist,1205.3847872659667,HCVehicles,16,rndSeed,5,HCDist,1187.7524709850345,HCVehicles,16,rndSeed,6,HCDist,1202.409231236027,HCVehicles,16,rndSeed,7,HCDist,1139.9199424834185,HCVehicles,16,rndSeed,8,HCDist,1196.6321270528024,HCVehicles,16,rndSeed,9,HCDist,1215.0938680038464,HCVehicles,15,AVGHCDist,1197.868404945852,AVGHCVehicles,15.7,BestHCDist,1139.9199424834185,BestHCVehicles,15,HCAvgTime,7776.2,rndSeed,0,EADist,1063.5652343105085,EAVehicles,16,rndSeed,1,EADist,1093.272482710769,EAVehicles,16,rndSeed,2,EADist,1069.1294087210204,EAVehicles,16,rndSeed,3,EADist,1039.5352820205985,EAVehicles,15,rndSeed,4,EADist,1052.2159783930686,EAVehicles,16,rndSeed,5,EADist,1059.7755768880297,EAVehicles,16,rndSeed,6,EADist,1057.4359117845681,EAVehicles,15,rndSeed,7,EADist,1084.9967644348806,EAVehicles,16,rndSeed,8,EADist,1140.3473735970276,EAVehicles,16,rndSeed,9,EADist,1113.5430771699812,EAVehicles,16,AVGEADist,1077.3817090030452,AVGEAVehicles,15.8,BestEADist,1039.5352820205985,BestEAVehicles,15,HCAvgTime,13570.7</t>
+  </si>
+  <si>
+    <t>./data/P-n65-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 792),./data/P-n65-k10.vrp,GTDist,1030.8215908144239,GTVehicles,11,GTTime,0.0,CWDist,851.6670635731379,CWVehicles,10,CWTime,0.0,rndSeed,0,HCDist,1106.5733727070146,HCVehicles,10,rndSeed,1,HCDist,1061.6411264948092,HCVehicles,10,rndSeed,2,HCDist,1078.5212480236585,HCVehicles,10,rndSeed,3,HCDist,1025.568543653656,HCVehicles,10,rndSeed,4,HCDist,1078.6300410607212,HCVehicles,10,rndSeed,5,HCDist,1025.2529865867675,HCVehicles,10,rndSeed,6,HCDist,1058.4061056167081,HCVehicles,10,rndSeed,7,HCDist,1035.8937373372626,HCVehicles,10,rndSeed,8,HCDist,1013.9651878126438,HCVehicles,10,rndSeed,9,HCDist,1086.0153066508853,HCVehicles,10,AVGHCDist,1057.0467655944126,AVGHCVehicles,10.0,BestHCDist,1013.9651878126438,BestHCVehicles,10,HCAvgTime,7502.5,rndSeed,0,EADist,893.366185217742,EAVehicles,10,rndSeed,1,EADist,905.3601615695067,EAVehicles,10,rndSeed,2,EADist,884.7394165938734,EAVehicles,10,rndSeed,3,EADist,878.2249694545067,EAVehicles,10,rndSeed,4,EADist,853.3670885178465,EAVehicles,10,rndSeed,5,EADist,916.9782971611269,EAVehicles,10,rndSeed,6,EADist,904.7363087671047,EAVehicles,10,rndSeed,7,EADist,892.4039897873537,EAVehicles,10,rndSeed,8,EADist,836.8162532663324,EAVehicles,10,rndSeed,9,EADist,926.3598807048327,EAVehicles,10,AVGEADist,889.2352551040225,AVGEAVehicles,10.0,BestEADist,836.8162532663324,BestEAVehicles,10,HCAvgTime,13344.3</t>
+  </si>
+  <si>
+    <t>./data/P-n70-k10.vrp,COMMENT : (Augerat et al, No of trucks: 10, Best value: 834),./data/P-n70-k10.vrp,GTDist,1013.1991273991171,GTVehicles,11,GTTime,0.0,CWDist,893.8122241435127,CWVehicles,11,CWTime,1.0,rndSeed,0,HCDist,1106.7130195304953,HCVehicles,11,rndSeed,1,HCDist,1135.5386949762824,HCVehicles,11,rndSeed,2,HCDist,1064.2490872168642,HCVehicles,11,rndSeed,3,HCDist,1021.6731849013499,HCVehicles,11,rndSeed,4,HCDist,1257.6538567604202,HCVehicles,11,rndSeed,5,HCDist,1134.3340026398437,HCVehicles,11,rndSeed,6,HCDist,1138.1758031536076,HCVehicles,11,rndSeed,7,HCDist,1097.1238876692832,HCVehicles,11,rndSeed,8,HCDist,1118.3477485658545,HCVehicles,11,rndSeed,9,HCDist,950.5202953800974,HCVehicles,11,AVGHCDist,1102.43295807941,AVGHCVehicles,11.0,BestHCDist,950.5202953800974,BestHCVehicles,11,HCAvgTime,8530.2,rndSeed,0,EADist,1020.8805109476418,EAVehicles,11,rndSeed,1,EADist,976.131018327979,EAVehicles,11,rndSeed,2,EADist,979.368447277359,EAVehicles,11,rndSeed,3,EADist,973.346443346087,EAVehicles,11,rndSeed,4,EADist,977.2066135428129,EAVehicles,11,rndSeed,5,EADist,988.6181980760214,EAVehicles,11,rndSeed,6,EADist,969.7514748231072,EAVehicles,11,rndSeed,7,EADist,1012.9727448291565,EAVehicles,11,rndSeed,8,EADist,951.7982707640049,EAVehicles,11,rndSeed,9,EADist,964.7235804223797,EAVehicles,11,AVGEADist,981.4797302356549,AVGEAVehicles,11.0,BestEADist,951.7982707640049,BestEAVehicles,11,HCAvgTime,15090.9</t>
+  </si>
+  <si>
+    <t>./data/P-n76-k4.vrp,COMMENT : (Augerat et al, Min no of trucks: 4, Best value: 589),./data/P-n76-k4.vrp,GTDist,755.6662017960386,GTVehicles,4,GTTime,0.0,CWDist,668.1544584302268,CWVehicles,5,CWTime,1.0,rndSeed,0,HCDist,857.423498758617,HCVehicles,4,rndSeed,1,HCDist,878.0930862860354,HCVehicles,4,rndSeed,2,HCDist,823.4014476026889,HCVehicles,4,rndSeed,3,HCDist,860.360978710016,HCVehicles,4,rndSeed,4,HCDist,924.6471561788197,HCVehicles,4,rndSeed,5,HCDist,925.4410152636647,HCVehicles,4,rndSeed,6,HCDist,875.5703494452995,HCVehicles,4,rndSeed,7,HCDist,891.7533435256344,HCVehicles,4,rndSeed,8,HCDist,846.5074796523618,HCVehicles,4,rndSeed,9,HCDist,761.8879216966043,HCVehicles,4,AVGHCDist,864.5086277119742,AVGHCVehicles,4.0,BestHCDist,761.8879216966043,BestHCVehicles,4,HCAvgTime,9487.3,rndSeed,0,EADist,741.3931603149292,EAVehicles,4,rndSeed,1,EADist,708.8337976494912,EAVehicles,4,rndSeed,2,EADist,694.124568520693,EAVehicles,4,rndSeed,3,EADist,705.4429391631165,EAVehicles,4,rndSeed,4,EADist,738.5266733970145,EAVehicles,4,rndSeed,5,EADist,705.9585446471726,EAVehicles,4,rndSeed,6,EADist,691.1627794008376,EAVehicles,4,rndSeed,7,EADist,747.0880287036202,EAVehicles,4,rndSeed,8,EADist,741.378617386677,EAVehicles,4,rndSeed,9,EADist,725.7157765892357,EAVehicles,4,AVGEADist,719.9624885772788,AVGEAVehicles,4.0,BestEADist,691.1627794008376,BestEAVehicles,4,HCAvgTime,17093.3</t>
+  </si>
+  <si>
+    <t>./data/P-n76-k5.vrp,COMMENT : (Augerat et al, Min no of trucks: 5, Best value: 631),./data/P-n76-k5.vrp,GTDist,812.7549515239897,GTVehicles,6,GTTime,0.0,CWDist,706.2948555155923,CWVehicles,6,CWTime,1.0,rndSeed,0,HCDist,907.7501757194899,HCVehicles,5,rndSeed,1,HCDist,928.8993344541191,HCVehicles,5,rndSeed,2,HCDist,798.4620258036439,HCVehicles,5,rndSeed,3,HCDist,920.7655394096148,HCVehicles,5,rndSeed,4,HCDist,914.7241077458377,HCVehicles,5,rndSeed,5,HCDist,959.0817987698649,HCVehicles,5,rndSeed,6,HCDist,798.2357323481076,HCVehicles,5,rndSeed,7,HCDist,868.3408445938079,HCVehicles,5,rndSeed,8,HCDist,812.8078108359769,HCVehicles,5,rndSeed,9,HCDist,896.7779708888919,HCVehicles,5,AVGHCDist,880.5845340569352,AVGHCVehicles,5.0,BestHCDist,798.2357323481076,BestHCVehicles,5,HCAvgTime,9570.4,rndSeed,0,EADist,881.815219625859,EAVehicles,5,rndSeed,1,EADist,805.972845303214,EAVehicles,5,rndSeed,2,EADist,865.0770126731843,EAVehicles,5,rndSeed,3,EADist,742.3090155821916,EAVehicles,5,rndSeed,4,EADist,754.5005194952731,EAVehicles,5,rndSeed,5,EADist,756.1979891254181,EAVehicles,5,rndSeed,6,EADist,755.7781941848262,EAVehicles,5,rndSeed,7,EADist,819.6823543620426,EAVehicles,5,rndSeed,8,EADist,719.1054738074088,EAVehicles,5,rndSeed,9,EADist,819.9210261599985,EAVehicles,5,AVGEADist,792.0359650319415,AVGEAVehicles,5.0,BestEADist,719.1054738074088,BestEAVehicles,5,HCAvgTime,16592.3</t>
+  </si>
+  <si>
+    <t>./data/P-n101-k4.vrp,COMMENT : (Augerat et al, Min no of trucks: 4, Optimal value: 681),./data/P-n101-k4.vrp,GTDist,945.3325692115909,GTVehicles,4,GTTime,0.0,CWDist,767.8323763098108,CWVehicles,5,CWTime,2.0,rndSeed,0,HCDist,888.0776142349106,HCVehicles,4,rndSeed,1,HCDist,918.4275301013679,HCVehicles,4,rndSeed,2,HCDist,1035.8388592283811,HCVehicles,4,rndSeed,3,HCDist,980.8480676610475,HCVehicles,4,rndSeed,4,HCDist,976.3227496077345,HCVehicles,4,rndSeed,5,HCDist,953.7190290019419,HCVehicles,4,rndSeed,6,HCDist,981.8292668418749,HCVehicles,4,rndSeed,7,HCDist,945.3087864926666,HCVehicles,4,rndSeed,8,HCDist,898.2932330256923,HCVehicles,4,rndSeed,9,HCDist,880.9518613131131,HCVehicles,4,AVGHCDist,945.9616997508731,AVGHCVehicles,4.0,BestHCDist,880.9518613131131,BestHCVehicles,4,HCAvgTime,13072.1,rndSeed,0,EADist,914.7581725075195,EAVehicles,4,rndSeed,1,EADist,937.2626688938158,EAVehicles,4,rndSeed,2,EADist,918.3979630962003,EAVehicles,4,rndSeed,3,EADist,828.9805256704162,EAVehicles,4,rndSeed,4,EADist,844.9509810776367,EAVehicles,4,rndSeed,5,EADist,951.5888003627085,EAVehicles,4,rndSeed,6,EADist,975.4967477302786,EAVehicles,4,rndSeed,7,EADist,954.4658465956527,EAVehicles,4,rndSeed,8,EADist,908.3988861775251,EAVehicles,4,rndSeed,9,EADist,934.2324254678949,EAVehicles,4,AVGEADist,916.853301757965,AVGEAVehicles,4.0,BestEADist,828.9805256704162,BestEAVehicles,4,HCAvgTime,25015.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -624,396 +578,366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C4F3B7-6799-B648-A30E-1998D70F4C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A75"/>
+      <selection sqref="A1:A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="5" max="6" width="27" customWidth="1"/>
-    <col min="7" max="108" width="10.83203125" customWidth="1"/>
-    <col min="114" max="114" width="10.83203125" style="2"/>
+    <col min="7" max="108" width="10.875" customWidth="1"/>
+    <col min="114" max="114" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:114">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:114">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:114">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:114">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:114">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:114">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:114">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:114">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:114">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:114">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:114">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:114">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:114" s="3" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="DJ29" s="4"/>
     </row>
-    <row r="30" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:114">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:114">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:114">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
